--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT4" t="n">
         <v>1.09</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT12" t="n">
         <v>1.46</v>
@@ -3339,7 +3339,7 @@
         <v>1.46</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT21" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT40" t="n">
         <v>0.31</v>
@@ -10038,7 +10038,7 @@
         <v>1.91</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT53" t="n">
         <v>0.46</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT57" t="n">
         <v>1.08</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT65" t="n">
         <v>0.92</v>
@@ -14098,7 +14098,7 @@
         <v>0.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14504,7 +14504,7 @@
         <v>1.08</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT73" t="n">
         <v>1.21</v>
@@ -17346,7 +17346,7 @@
         <v>2.45</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT87" t="n">
         <v>2.78</v>
@@ -18358,7 +18358,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT88" t="n">
         <v>1.08</v>
@@ -18564,7 +18564,7 @@
         <v>1.91</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -21606,10 +21606,10 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -21809,7 +21809,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT105" t="n">
         <v>2.15</v>
@@ -22015,7 +22015,7 @@
         <v>0.91</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -24857,7 +24857,7 @@
         <v>1.09</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU120" t="n">
         <v>1.29</v>
@@ -25466,7 +25466,7 @@
         <v>1.58</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU123" t="n">
         <v>1.59</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT125" t="n">
         <v>0.92</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT126" t="n">
         <v>1.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.08</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU130" t="n">
         <v>1.41</v>
@@ -27290,7 +27290,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5</v>
@@ -28714,7 +28714,7 @@
         <v>1.58</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU139" t="n">
         <v>1.64</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT140" t="n">
         <v>1</v>
@@ -30338,7 +30338,7 @@
         <v>1.92</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU147" t="n">
         <v>1.63</v>
@@ -30538,7 +30538,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT148" t="n">
         <v>1.38</v>
@@ -32365,7 +32365,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT157" t="n">
         <v>1.33</v>
@@ -33383,7 +33383,7 @@
         <v>0.85</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU162" t="n">
         <v>1.15</v>
@@ -34598,7 +34598,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT168" t="n">
         <v>1.46</v>
@@ -35210,7 +35210,7 @@
         <v>1.09</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35410,7 +35410,7 @@
         <v>0.4</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT172" t="n">
         <v>0.31</v>
@@ -36225,7 +36225,7 @@
         <v>1.91</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU176" t="n">
         <v>1.32</v>
@@ -37034,7 +37034,7 @@
         <v>0.6</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT180" t="n">
         <v>0.5</v>
@@ -38458,7 +38458,7 @@
         <v>0.93</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU187" t="n">
         <v>1.45</v>
@@ -38658,7 +38658,7 @@
         <v>1.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT188" t="n">
         <v>1.21</v>
@@ -39067,7 +39067,7 @@
         <v>1.46</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU190" t="n">
         <v>1.43</v>
@@ -39876,7 +39876,7 @@
         <v>1.45</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT194" t="n">
         <v>1.46</v>
@@ -41094,7 +41094,7 @@
         <v>0.55</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT200" t="n">
         <v>0.46</v>
@@ -42112,7 +42112,7 @@
         <v>1.64</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU205" t="n">
         <v>1.18</v>
@@ -45412,6 +45412,412 @@
       </c>
       <c r="BK221" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4407854</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45036.67708333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>26</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['60', '64']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>7</v>
+      </c>
+      <c r="R222" t="n">
+        <v>5</v>
+      </c>
+      <c r="S222" t="n">
+        <v>12</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4407856</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45036.67708333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>26</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>6</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2</v>
+      </c>
+      <c r="S223" t="n">
+        <v>8</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK223"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>2.45</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT25" t="n">
         <v>1.09</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT32" t="n">
         <v>1.38</v>
@@ -7805,7 +7805,7 @@
         <v>1.91</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -10850,7 +10850,7 @@
         <v>1.09</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -13083,7 +13083,7 @@
         <v>0.91</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT63" t="n">
         <v>1.46</v>
@@ -16737,7 +16737,7 @@
         <v>0.92</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT91" t="n">
         <v>1.21</v>
@@ -19376,7 +19376,7 @@
         <v>0.85</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU93" t="n">
         <v>0.92</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT107" t="n">
         <v>1.08</v>
@@ -23842,7 +23842,7 @@
         <v>2.33</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT123" t="n">
         <v>1.31</v>
@@ -27496,7 +27496,7 @@
         <v>1.91</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.21</v>
@@ -29726,7 +29726,7 @@
         <v>1.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT144" t="n">
         <v>0.92</v>
@@ -30947,7 +30947,7 @@
         <v>0.93</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU150" t="n">
         <v>1.29</v>
@@ -32368,7 +32368,7 @@
         <v>1.29</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU157" t="n">
         <v>1.56</v>
@@ -33177,7 +33177,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT161" t="n">
         <v>1.5</v>
@@ -35616,7 +35616,7 @@
         <v>1.08</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.09</v>
@@ -38252,7 +38252,7 @@
         <v>1.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT186" t="n">
         <v>1.46</v>
@@ -42721,7 +42721,7 @@
         <v>1.58</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU208" t="n">
         <v>1.59</v>
@@ -43936,7 +43936,7 @@
         <v>0.55</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT214" t="n">
         <v>0.5</v>
@@ -44951,7 +44951,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT219" t="n">
         <v>0.46</v>
@@ -45818,6 +45818,209 @@
       </c>
       <c r="BK223" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4407822</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45041.54166666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>2</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2</v>
+      </c>
+      <c r="S224" t="n">
+        <v>4</v>
+      </c>
+      <c r="T224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U224" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.46</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2121,7 +2121,7 @@
         <v>1.58</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1.21</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT18" t="n">
         <v>1.38</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -5572,7 +5572,7 @@
         <v>1.54</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
         <v>1.08</v>
@@ -7196,7 +7196,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.31</v>
@@ -8008,7 +8008,7 @@
         <v>1.58</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -9023,7 +9023,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT44" t="n">
         <v>1.46</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.31</v>
@@ -10444,7 +10444,7 @@
         <v>1.46</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>1.31</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1.46</v>
@@ -13692,7 +13692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -13892,10 +13892,10 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT70" t="n">
         <v>0.31</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>0.46</v>
@@ -15519,7 +15519,7 @@
         <v>1.92</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -16531,7 +16531,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5</v>
@@ -17549,7 +17549,7 @@
         <v>1.08</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT85" t="n">
         <v>0.46</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.25</v>
@@ -18767,7 +18767,7 @@
         <v>0.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -19985,7 +19985,7 @@
         <v>1.46</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>1.5</v>
@@ -21200,10 +21200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -21406,7 +21406,7 @@
         <v>2.45</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU103" t="n">
         <v>1.68</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT109" t="n">
         <v>1.21</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT112" t="n">
         <v>1.46</v>
@@ -24248,7 +24248,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.09</v>
@@ -24654,7 +24654,7 @@
         <v>0.91</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU119" t="n">
         <v>1</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.25</v>
@@ -25872,7 +25872,7 @@
         <v>1.46</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU125" t="n">
         <v>1.61</v>
@@ -26275,7 +26275,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
         <v>2.78</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT133" t="n">
         <v>1.31</v>
@@ -28511,7 +28511,7 @@
         <v>0.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU138" t="n">
         <v>1.28</v>
@@ -29323,7 +29323,7 @@
         <v>2.45</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.83</v>
@@ -29523,7 +29523,7 @@
         <v>2.43</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
         <v>2.15</v>
@@ -29729,7 +29729,7 @@
         <v>1.54</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>4407768</v>
+        <v>4407767</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,22 +29808,22 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
         <v>2</v>
       </c>
       <c r="K145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L145" t="n">
         <v>1</v>
@@ -29836,154 +29836,154 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>['15', '44']</t>
+          <t>['1', '40']</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S145" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T145" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="U145" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V145" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="W145" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X145" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y145" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Z145" t="n">
         <v>1.25</v>
       </c>
       <c r="AA145" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AB145" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC145" t="n">
-        <v>2.01</v>
+        <v>2.64</v>
       </c>
       <c r="AD145" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="AE145" t="n">
-        <v>3.86</v>
+        <v>2.71</v>
       </c>
       <c r="AF145" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG145" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AI145" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AJ145" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="AK145" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AL145" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="AM145" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="AN145" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO145" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP145" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ145" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AR145" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.46</v>
+        <v>0.85</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.46</v>
+        <v>1.08</v>
       </c>
       <c r="AU145" t="n">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AV145" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AW145" t="n">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="AX145" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AY145" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AZ145" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BA145" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BB145" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="BC145" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BD145" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="BE145" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BF145" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG145" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH145" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BI145" t="n">
         <v>4</v>
       </c>
       <c r="BJ145" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BK145" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>4407767</v>
+        <v>4407768</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,22 +30011,22 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
         <v>2</v>
       </c>
       <c r="K146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L146" t="n">
         <v>1</v>
@@ -30039,154 +30039,154 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['1', '40']</t>
+          <t>['15', '44']</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S146" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T146" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="U146" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V146" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="W146" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X146" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y146" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Z146" t="n">
         <v>1.25</v>
       </c>
       <c r="AA146" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AB146" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC146" t="n">
-        <v>2.64</v>
+        <v>2.01</v>
       </c>
       <c r="AD146" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="AE146" t="n">
-        <v>2.71</v>
+        <v>3.86</v>
       </c>
       <c r="AF146" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AG146" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AH146" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AI146" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AJ146" t="n">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="AK146" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AL146" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AM146" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AN146" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO146" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AR146" t="n">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.85</v>
+        <v>1.46</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.08</v>
+        <v>0.46</v>
       </c>
       <c r="AU146" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AV146" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AW146" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="AX146" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AY146" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AZ146" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BA146" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BB146" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="BC146" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BD146" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="BE146" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BF146" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG146" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH146" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BI146" t="n">
         <v>4</v>
       </c>
       <c r="BJ146" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BK146" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
@@ -31147,7 +31147,7 @@
         <v>1.38</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>1.46</v>
@@ -31350,7 +31350,7 @@
         <v>0.5</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT152" t="n">
         <v>0.31</v>
@@ -32162,10 +32162,10 @@
         <v>0.88</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU156" t="n">
         <v>1.27</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT159" t="n">
         <v>0.46</v>
@@ -33992,7 +33992,7 @@
         <v>0.92</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -35207,7 +35207,7 @@
         <v>1.44</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT171" t="n">
         <v>1.31</v>
@@ -35269,7 +35269,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>4407798</v>
+        <v>4407797</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -35289,182 +35289,182 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N172" t="n">
         <v>3</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>['77', '90+6']</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['31', '50']</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S172" t="n">
         <v>12</v>
       </c>
       <c r="T172" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="U172" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V172" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="W172" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X172" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Y172" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC172" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z172" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AD172" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AE172" t="n">
-        <v>3.01</v>
+        <v>2.1</v>
       </c>
       <c r="AF172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU172" t="n">
         <v>1.09</v>
       </c>
-      <c r="AG172" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM172" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN172" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO172" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP172" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ172" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AR172" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS172" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT172" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AU172" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AV172" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AW172" t="n">
-        <v>2.77</v>
+        <v>2.31</v>
       </c>
       <c r="AX172" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AY172" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AZ172" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="BA172" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BB172" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="BC172" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BD172" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BE172" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BF172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG172" t="n">
         <v>8</v>
       </c>
-      <c r="BG172" t="n">
+      <c r="BH172" t="n">
         <v>4</v>
       </c>
-      <c r="BH172" t="n">
-        <v>5</v>
-      </c>
       <c r="BI172" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ172" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK172" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173">
@@ -35472,7 +35472,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>4407797</v>
+        <v>4407798</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -35492,182 +35492,182 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N173" t="n">
         <v>3</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['77', '90+6']</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>['31', '50']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R173" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S173" t="n">
         <v>12</v>
       </c>
       <c r="T173" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="U173" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V173" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="W173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK173" t="n">
         <v>1.58</v>
       </c>
-      <c r="X173" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y173" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z173" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA173" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB173" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD173" t="n">
+      <c r="AL173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD173" t="n">
         <v>2.8</v>
       </c>
-      <c r="AE173" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AH173" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI173" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AL173" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM173" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN173" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO173" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP173" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AQ173" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR173" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS173" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT173" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AU173" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AV173" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AW173" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AX173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ173" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA173" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BB173" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BC173" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BD173" t="n">
-        <v>2.7</v>
-      </c>
       <c r="BE173" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BF173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG173" t="n">
         <v>4</v>
       </c>
-      <c r="BG173" t="n">
-        <v>8</v>
-      </c>
       <c r="BH173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI173" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ173" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK173" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
@@ -35819,7 +35819,7 @@
         <v>2.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU174" t="n">
         <v>1.62</v>
@@ -36222,7 +36222,7 @@
         <v>0.89</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT176" t="n">
         <v>1.25</v>
@@ -36631,7 +36631,7 @@
         <v>0.91</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>0.95</v>
@@ -36834,7 +36834,7 @@
         <v>0.85</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU179" t="n">
         <v>1.2</v>
@@ -38049,7 +38049,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>1.38</v>
@@ -38517,7 +38517,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>4407812</v>
+        <v>4407818</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -38537,182 +38537,182 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '61']</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R188" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S188" t="n">
         <v>7</v>
       </c>
       <c r="T188" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U188" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V188" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W188" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X188" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y188" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AA188" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB188" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC188" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AD188" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AE188" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AF188" t="n">
         <v>1.1</v>
       </c>
       <c r="AG188" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH188" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AI188" t="n">
-        <v>2.45</v>
+        <v>2.87</v>
       </c>
       <c r="AJ188" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AK188" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AL188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ188" t="n">
         <v>2.05</v>
       </c>
-      <c r="AM188" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN188" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO188" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP188" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ188" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR188" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS188" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT188" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AU188" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AV188" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW188" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AX188" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AY188" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AZ188" t="n">
-        <v>2.68</v>
-      </c>
       <c r="BA188" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BB188" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="BC188" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="BD188" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BE188" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BF188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG188" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI188" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -38720,7 +38720,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>4407818</v>
+        <v>4407812</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -38740,182 +38740,182 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>['14', '61']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R189" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S189" t="n">
         <v>7</v>
       </c>
       <c r="T189" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U189" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V189" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W189" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X189" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y189" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA189" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB189" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC189" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AD189" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="AE189" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AF189" t="n">
         <v>1.1</v>
       </c>
       <c r="AG189" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="AH189" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AI189" t="n">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="AJ189" t="n">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="AK189" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AL189" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AM189" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AN189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO189" t="n">
         <v>1.35</v>
       </c>
-      <c r="AO189" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AP189" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR189" t="n">
-        <v>0.36</v>
+        <v>1.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU189" t="n">
-        <v>1.11</v>
+        <v>1.58</v>
       </c>
       <c r="AV189" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AW189" t="n">
-        <v>2.29</v>
+        <v>2.71</v>
       </c>
       <c r="AX189" t="n">
-        <v>2.01</v>
+        <v>1.72</v>
       </c>
       <c r="AY189" t="n">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="AZ189" t="n">
-        <v>2.05</v>
+        <v>2.68</v>
       </c>
       <c r="BA189" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB189" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="BC189" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="BD189" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BE189" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BF189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ189" t="n">
         <v>4</v>
       </c>
-      <c r="BG189" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH189" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI189" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ189" t="n">
-        <v>5</v>
-      </c>
       <c r="BK189" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -38923,7 +38923,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>4407819</v>
+        <v>4407817</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -38943,35 +38943,35 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>['22', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -38980,145 +38980,145 @@
         </is>
       </c>
       <c r="Q190" t="n">
+        <v>6</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1</v>
+      </c>
+      <c r="S190" t="n">
         <v>7</v>
       </c>
-      <c r="R190" t="n">
-        <v>3</v>
-      </c>
-      <c r="S190" t="n">
-        <v>10</v>
-      </c>
       <c r="T190" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="U190" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V190" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD190" t="n">
         <v>2.8</v>
       </c>
-      <c r="W190" t="n">
+      <c r="AE190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH190" t="n">
         <v>1.5</v>
       </c>
-      <c r="X190" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y190" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Z190" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA190" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB190" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC190" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD190" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE190" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AF190" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG190" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH190" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AI190" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="AJ190" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AK190" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AL190" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AM190" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AN190" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="AO190" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.45</v>
       </c>
       <c r="AR190" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="AU190" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="AV190" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AW190" t="n">
-        <v>2.87</v>
+        <v>2.31</v>
       </c>
       <c r="AX190" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AY190" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ190" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="BA190" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BB190" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BC190" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BD190" t="n">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="BE190" t="n">
-        <v>2.79</v>
+        <v>3.56</v>
       </c>
       <c r="BF190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG190" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH190" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI190" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ190" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK190" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
@@ -39126,7 +39126,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>4407817</v>
+        <v>4407819</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -39146,182 +39146,182 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M191" t="n">
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
+          <t>['22', '89']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S191" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T191" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="U191" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V191" t="n">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="W191" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE191" t="n">
         <v>2.3</v>
       </c>
-      <c r="Y191" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Z191" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA191" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB191" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC191" t="n">
+      <c r="AF191" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ191" t="n">
         <v>2.3</v>
       </c>
-      <c r="AD191" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE191" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF191" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG191" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH191" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI191" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ191" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AK191" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AL191" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AM191" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AN191" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="AO191" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.45</v>
       </c>
       <c r="AR191" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="AU191" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="AV191" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AW191" t="n">
-        <v>2.31</v>
+        <v>2.87</v>
       </c>
       <c r="AX191" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AY191" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AZ191" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="BA191" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BB191" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="BC191" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="BD191" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="BE191" t="n">
-        <v>3.56</v>
+        <v>2.79</v>
       </c>
       <c r="BF191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG191" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH191" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI191" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK191" t="n">
         <v>14</v>
-      </c>
-      <c r="BK191" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -39676,7 +39676,7 @@
         <v>0.92</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU193" t="n">
         <v>1.29</v>
@@ -39735,7 +39735,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>4407813</v>
+        <v>4407824</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -39751,186 +39751,186 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>2</v>
+      </c>
+      <c r="R194" t="n">
         <v>5</v>
       </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>['25', '60', '87']</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>['1', '21']</t>
-        </is>
-      </c>
-      <c r="Q194" t="n">
-        <v>11</v>
-      </c>
-      <c r="R194" t="n">
-        <v>3</v>
-      </c>
       <c r="S194" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T194" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y194" t="n">
         <v>3.5</v>
       </c>
-      <c r="U194" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V194" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W194" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X194" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Y194" t="n">
-        <v>3.72</v>
-      </c>
       <c r="Z194" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AA194" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AB194" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC194" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AD194" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="AE194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI194" t="n">
         <v>2.7</v>
       </c>
-      <c r="AF194" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG194" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AH194" t="n">
+      <c r="AJ194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK194" t="n">
         <v>1.53</v>
       </c>
-      <c r="AI194" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AJ194" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AK194" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AL194" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="AM194" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AN194" t="n">
         <v>1.4</v>
       </c>
       <c r="AO194" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AR194" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AU194" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AV194" t="n">
-        <v>1.69</v>
+        <v>1.14</v>
       </c>
       <c r="AW194" t="n">
-        <v>3.29</v>
+        <v>2.5</v>
       </c>
       <c r="AX194" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AY194" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AZ194" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="BA194" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BB194" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BC194" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="BD194" t="n">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="BE194" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BF194" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG194" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH194" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BI194" t="n">
         <v>5</v>
       </c>
       <c r="BJ194" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK194" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
@@ -40141,7 +40141,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>4407824</v>
+        <v>4407813</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -40157,186 +40157,186 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F196" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N196" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['25', '60', '87']</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>['1', '21']</t>
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R196" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S196" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T196" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="U196" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V196" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W196" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="X196" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="Y196" t="n">
-        <v>3.5</v>
+        <v>3.72</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AA196" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AB196" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC196" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AD196" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="AE196" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AF196" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AG196" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AH196" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AI196" t="n">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="AJ196" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="AK196" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL196" t="n">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="AM196" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="AN196" t="n">
         <v>1.4</v>
       </c>
       <c r="AO196" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AR196" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU196" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AV196" t="n">
-        <v>1.14</v>
+        <v>1.69</v>
       </c>
       <c r="AW196" t="n">
-        <v>2.5</v>
+        <v>3.29</v>
       </c>
       <c r="AX196" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AY196" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AZ196" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="BA196" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BB196" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="BC196" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="BD196" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="BE196" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BF196" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH196" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BI196" t="n">
         <v>5</v>
       </c>
       <c r="BJ196" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BK196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
@@ -40488,7 +40488,7 @@
         <v>2.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU197" t="n">
         <v>1.6</v>
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>4407830</v>
+        <v>4407831</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40973,182 +40973,182 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R200" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S200" t="n">
+        <v>12</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
         <v>6</v>
       </c>
-      <c r="T200" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U200" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V200" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X200" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE200" t="n">
+      <c r="BG200" t="n">
         <v>6</v>
       </c>
-      <c r="AF200" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AM200" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AN200" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO200" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AX200" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY200" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ200" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="BA200" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BC200" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BD200" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF200" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG200" t="n">
+      <c r="BH200" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI200" t="n">
         <v>5</v>
       </c>
-      <c r="BH200" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI200" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ200" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK200" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
@@ -41156,7 +41156,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>4407831</v>
+        <v>4407830</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -41176,182 +41176,182 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q201" t="n">
+        <v>3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH201" t="n">
         <v>7</v>
       </c>
-      <c r="R201" t="n">
-        <v>5</v>
-      </c>
-      <c r="S201" t="n">
-        <v>12</v>
-      </c>
-      <c r="T201" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U201" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V201" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W201" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X201" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y201" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z201" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA201" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB201" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC201" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AD201" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AE201" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AF201" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG201" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH201" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI201" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ201" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK201" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL201" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM201" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN201" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO201" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP201" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ201" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AR201" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AS201" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT201" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AU201" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AV201" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AW201" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AX201" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY201" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF201" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG201" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH201" t="n">
+      <c r="BI201" t="n">
         <v>10</v>
       </c>
-      <c r="BI201" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ201" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK201" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -41503,7 +41503,7 @@
         <v>0.93</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU202" t="n">
         <v>1.45</v>
@@ -41703,7 +41703,7 @@
         <v>0.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>0.31</v>
@@ -42315,7 +42315,7 @@
         <v>0.85</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>1.24</v>
@@ -42577,7 +42577,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>4407845</v>
+        <v>4407843</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -42597,31 +42597,31 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L208" t="n">
         <v>0</v>
       </c>
       <c r="M208" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N208" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -42630,149 +42630,149 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '45+2', '90+1']</t>
         </is>
       </c>
       <c r="Q208" t="n">
+        <v>7</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" t="n">
+        <v>7</v>
+      </c>
+      <c r="T208" t="n">
         <v>5</v>
       </c>
-      <c r="R208" t="n">
+      <c r="U208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF208" t="n">
         <v>4</v>
       </c>
-      <c r="S208" t="n">
+      <c r="BG208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH208" t="n">
         <v>9</v>
       </c>
-      <c r="T208" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U208" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V208" t="n">
-        <v>4</v>
-      </c>
-      <c r="W208" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X208" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Z208" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA208" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB208" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC208" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD208" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE208" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AF208" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG208" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH208" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI208" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ208" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK208" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL208" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM208" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN208" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO208" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP208" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ208" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR208" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS208" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AT208" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AU208" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX208" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY208" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ208" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BA208" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB208" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BC208" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BD208" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BE208" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="BF208" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG208" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH208" t="n">
-        <v>8</v>
-      </c>
       <c r="BI208" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ208" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK208" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
@@ -42780,7 +42780,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>4407843</v>
+        <v>4407844</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -42800,161 +42800,161 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
         <v>2</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>4</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['41', '45+2', '57']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
         <v>3</v>
       </c>
-      <c r="N209" t="n">
-        <v>3</v>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>['14', '45+2', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q209" t="n">
-        <v>7</v>
-      </c>
       <c r="R209" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S209" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T209" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="U209" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V209" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W209" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="X209" t="n">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="Y209" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AA209" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB209" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AC209" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="AD209" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="AE209" t="n">
-        <v>1.79</v>
+        <v>3.15</v>
       </c>
       <c r="AF209" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AG209" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AH209" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AI209" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AJ209" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="AK209" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="AL209" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AM209" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AN209" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="AO209" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AR209" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AU209" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="AV209" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB209" t="n">
         <v>1.67</v>
       </c>
-      <c r="AW209" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX209" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AY209" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ209" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BA209" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BB209" t="n">
-        <v>1.99</v>
-      </c>
       <c r="BC209" t="n">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
       <c r="BD209" t="n">
-        <v>3.64</v>
+        <v>2.52</v>
       </c>
       <c r="BE209" t="n">
         <v>0</v>
@@ -42963,19 +42963,19 @@
         <v>4</v>
       </c>
       <c r="BG209" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH209" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BI209" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BJ209" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BK209" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>4407844</v>
+        <v>4407845</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,59 +43003,59 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>5</v>
+      </c>
+      <c r="R210" t="n">
         <v>4</v>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>['41', '45+2', '57']</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>['70']</t>
-        </is>
-      </c>
-      <c r="Q210" t="n">
-        <v>3</v>
-      </c>
-      <c r="R210" t="n">
-        <v>6</v>
       </c>
       <c r="S210" t="n">
         <v>9</v>
       </c>
       <c r="T210" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="U210" t="n">
         <v>1.8</v>
       </c>
       <c r="V210" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="W210" t="n">
         <v>1.61</v>
@@ -43076,13 +43076,13 @@
         <v>1.02</v>
       </c>
       <c r="AC210" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AD210" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AE210" t="n">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="AF210" t="n">
         <v>1.12</v>
@@ -43091,16 +43091,16 @@
         <v>5.5</v>
       </c>
       <c r="AH210" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AI210" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="AJ210" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="AK210" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AL210" t="n">
         <v>2.15</v>
@@ -43109,76 +43109,76 @@
         <v>1.65</v>
       </c>
       <c r="AN210" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AO210" t="n">
         <v>1.33</v>
       </c>
       <c r="AP210" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA210" t="n">
         <v>1.33</v>
       </c>
-      <c r="AQ210" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AR210" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS210" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AT210" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU210" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ210" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA210" t="n">
-        <v>1.4</v>
-      </c>
       <c r="BB210" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BC210" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="BD210" t="n">
-        <v>2.52</v>
+        <v>2.71</v>
       </c>
       <c r="BE210" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="BF210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI210" t="n">
         <v>4</v>
       </c>
-      <c r="BG210" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH210" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI210" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ210" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK210" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
@@ -43186,7 +43186,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>4407847</v>
+        <v>4407840</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -43206,182 +43206,182 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
         <v>1</v>
       </c>
       <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
         <v>3</v>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
       <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['31', '90+1', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3</v>
+      </c>
+      <c r="R211" t="n">
+        <v>5</v>
+      </c>
+      <c r="S211" t="n">
+        <v>8</v>
+      </c>
+      <c r="T211" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC211" t="n">
         <v>4</v>
       </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>['6', '81', '90']</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>['90+3']</t>
-        </is>
-      </c>
-      <c r="Q211" t="n">
+      <c r="AD211" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ211" t="n">
         <v>4</v>
       </c>
-      <c r="R211" t="n">
+      <c r="BK211" t="n">
         <v>11</v>
-      </c>
-      <c r="S211" t="n">
-        <v>15</v>
-      </c>
-      <c r="T211" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U211" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V211" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="W211" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X211" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y211" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z211" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA211" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB211" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC211" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AD211" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE211" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AF211" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG211" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH211" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI211" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ211" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AK211" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AL211" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AM211" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN211" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO211" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP211" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AQ211" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AR211" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AS211" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AT211" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU211" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV211" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW211" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX211" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY211" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AZ211" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BA211" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB211" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC211" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BD211" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE211" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="BF211" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG211" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH211" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI211" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ211" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK211" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -43389,7 +43389,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>4407840</v>
+        <v>4407846</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -43409,167 +43409,167 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N212" t="n">
         <v>3</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
+          <t>['19', '45+3', '90+7']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>['31', '90+1', '90+3']</t>
-        </is>
-      </c>
       <c r="Q212" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R212" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S212" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T212" t="n">
-        <v>5.4</v>
+        <v>1.83</v>
       </c>
       <c r="U212" t="n">
         <v>2.17</v>
       </c>
       <c r="V212" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="W212" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X212" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="Y212" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI212" t="n">
         <v>2.9</v>
       </c>
-      <c r="Z212" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA212" t="n">
+      <c r="AJ212" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ212" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB212" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC212" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD212" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE212" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AF212" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG212" t="n">
+      <c r="BA212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF212" t="n">
         <v>8</v>
-      </c>
-      <c r="AH212" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI212" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ212" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AK212" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL212" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AM212" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN212" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AO212" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP212" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AQ212" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR212" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS212" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT212" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AU212" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV212" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AW212" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX212" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AY212" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ212" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BA212" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB212" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BC212" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BD212" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BE212" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BF212" t="n">
-        <v>3</v>
       </c>
       <c r="BG212" t="n">
         <v>5</v>
@@ -43578,13 +43578,13 @@
         <v>1</v>
       </c>
       <c r="BI212" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ212" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK212" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
@@ -43592,7 +43592,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>4407846</v>
+        <v>4407847</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -43612,179 +43612,179 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L213" t="n">
         <v>3</v>
       </c>
       <c r="M213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N213" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>['19', '45+3', '90+7']</t>
+          <t>['6', '81', '90']</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q213" t="n">
+        <v>4</v>
+      </c>
+      <c r="R213" t="n">
+        <v>11</v>
+      </c>
+      <c r="S213" t="n">
+        <v>15</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF213" t="n">
         <v>5</v>
       </c>
-      <c r="R213" t="n">
-        <v>7</v>
-      </c>
-      <c r="S213" t="n">
-        <v>12</v>
-      </c>
-      <c r="T213" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U213" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V213" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W213" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X213" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y213" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z213" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA213" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB213" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC213" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD213" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF213" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG213" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH213" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI213" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ213" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AK213" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AL213" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AM213" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AN213" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AO213" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP213" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AQ213" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AR213" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AS213" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT213" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU213" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AV213" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AW213" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX213" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AY213" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ213" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="BA213" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB213" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC213" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BD213" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BE213" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="BF213" t="n">
-        <v>8</v>
-      </c>
       <c r="BG213" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH213" t="n">
         <v>1</v>
       </c>
       <c r="BI213" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ213" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BK213" t="n">
         <v>15</v>
@@ -43998,7 +43998,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>4407852</v>
+        <v>4407853</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -44018,179 +44018,179 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
       </c>
       <c r="K215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M215" t="n">
         <v>2</v>
       </c>
       <c r="N215" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['34', '58']</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>['28', '66']</t>
+          <t>['25', '90+2']</t>
         </is>
       </c>
       <c r="Q215" t="n">
+        <v>6</v>
+      </c>
+      <c r="R215" t="n">
+        <v>3</v>
+      </c>
+      <c r="S215" t="n">
+        <v>9</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF215" t="n">
         <v>4</v>
       </c>
-      <c r="R215" t="n">
-        <v>2</v>
-      </c>
-      <c r="S215" t="n">
-        <v>6</v>
-      </c>
-      <c r="T215" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="U215" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V215" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W215" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X215" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y215" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z215" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA215" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB215" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC215" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD215" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AE215" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF215" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG215" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH215" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI215" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ215" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK215" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AL215" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM215" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN215" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AO215" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AP215" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ215" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR215" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AS215" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AT215" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AU215" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AV215" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AW215" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AX215" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AY215" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ215" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BA215" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB215" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BC215" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD215" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="BE215" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF215" t="n">
-        <v>2</v>
-      </c>
       <c r="BG215" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH215" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ215" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK215" t="n">
         <v>7</v>
@@ -44201,7 +44201,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>4407853</v>
+        <v>4407852</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -44221,179 +44221,179 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
       </c>
       <c r="K216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M216" t="n">
         <v>2</v>
       </c>
       <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['28', '66']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
         <v>4</v>
       </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>['34', '58']</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>['25', '90+2']</t>
-        </is>
-      </c>
-      <c r="Q216" t="n">
+      <c r="R216" t="n">
+        <v>2</v>
+      </c>
+      <c r="S216" t="n">
         <v>6</v>
       </c>
-      <c r="R216" t="n">
-        <v>3</v>
-      </c>
-      <c r="S216" t="n">
-        <v>9</v>
-      </c>
       <c r="T216" t="n">
-        <v>2.5</v>
+        <v>6.25</v>
       </c>
       <c r="U216" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="V216" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="W216" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD216" t="n">
         <v>2.29</v>
       </c>
-      <c r="Y216" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z216" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA216" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB216" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC216" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD216" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE216" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AF216" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG216" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH216" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI216" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AJ216" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK216" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL216" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM216" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AN216" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO216" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP216" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AQ216" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR216" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AS216" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AT216" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AU216" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AV216" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW216" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AX216" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AY216" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ216" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BA216" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB216" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BC216" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BD216" t="n">
-        <v>1.99</v>
-      </c>
       <c r="BE216" t="n">
-        <v>2.57</v>
+        <v>3.2</v>
       </c>
       <c r="BF216" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG216" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ216" t="n">
         <v>7</v>
-      </c>
-      <c r="BI216" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ216" t="n">
-        <v>11</v>
       </c>
       <c r="BK216" t="n">
         <v>7</v>
@@ -44404,7 +44404,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>4407848</v>
+        <v>4407849</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -44424,22 +44424,22 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>2</v>
@@ -44452,7 +44452,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>['9', '51']</t>
+          <t>['90', '90+4']</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -44461,145 +44461,145 @@
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R217" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S217" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T217" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="U217" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="V217" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="W217" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="X217" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y217" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z217" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AA217" t="n">
-        <v>11</v>
+        <v>7.25</v>
       </c>
       <c r="AB217" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AC217" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="AD217" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE217" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="AF217" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG217" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AH217" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AI217" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ217" t="n">
         <v>2.4</v>
       </c>
-      <c r="AJ217" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK217" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL217" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM217" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN217" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO217" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP217" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ217" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AR217" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.08</v>
+        <v>2.45</v>
       </c>
       <c r="AT217" t="n">
         <v>1.08</v>
       </c>
       <c r="AU217" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="AV217" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AW217" t="n">
-        <v>2.26</v>
+        <v>2.92</v>
       </c>
       <c r="AX217" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AY217" t="n">
-        <v>8.9</v>
+        <v>10.25</v>
       </c>
       <c r="AZ217" t="n">
-        <v>2.53</v>
+        <v>4.2</v>
       </c>
       <c r="BA217" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BB217" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="BC217" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="BD217" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="BE217" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="BF217" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH217" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ217" t="n">
         <v>14</v>
       </c>
-      <c r="BJ217" t="n">
-        <v>11</v>
-      </c>
       <c r="BK217" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -44607,7 +44607,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>4407849</v>
+        <v>4407848</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -44627,22 +44627,22 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218" t="n">
         <v>2</v>
@@ -44655,7 +44655,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>['90', '90+4']</t>
+          <t>['9', '51']</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -44664,145 +44664,145 @@
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R218" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S218" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T218" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="U218" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="V218" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="W218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN218" t="n">
         <v>1.35</v>
       </c>
-      <c r="X218" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y218" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z218" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA218" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB218" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC218" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD218" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE218" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF218" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI218" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AJ218" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK218" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL218" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AM218" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AN218" t="n">
+      <c r="AO218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS218" t="n">
         <v>1.08</v>
       </c>
-      <c r="AO218" t="n">
+      <c r="AT218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV218" t="n">
         <v>1.14</v>
       </c>
-      <c r="AP218" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AQ218" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AR218" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS218" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AT218" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AU218" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AV218" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AW218" t="n">
-        <v>2.92</v>
+        <v>2.26</v>
       </c>
       <c r="AX218" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AY218" t="n">
-        <v>10.25</v>
+        <v>8.9</v>
       </c>
       <c r="AZ218" t="n">
-        <v>4.2</v>
+        <v>2.53</v>
       </c>
       <c r="BA218" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BB218" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="BC218" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BD218" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="BE218" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="BF218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH218" t="n">
         <v>6</v>
       </c>
-      <c r="BG218" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH218" t="n">
-        <v>8</v>
-      </c>
       <c r="BI218" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BJ218" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK218" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
@@ -44810,7 +44810,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>4407850</v>
+        <v>4407851</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -44830,35 +44830,35 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M219" t="n">
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>['22']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
@@ -44867,55 +44867,55 @@
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R219" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S219" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T219" t="n">
-        <v>2.9</v>
+        <v>4.73</v>
       </c>
       <c r="U219" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE219" t="n">
         <v>1.95</v>
       </c>
-      <c r="V219" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="W219" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X219" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y219" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z219" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA219" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB219" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC219" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD219" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE219" t="n">
-        <v>3.48</v>
-      </c>
       <c r="AF219" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG219" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH219" t="n">
         <v>1.44</v>
@@ -44924,85 +44924,85 @@
         <v>2.4</v>
       </c>
       <c r="AJ219" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="AK219" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AL219" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AM219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN219" t="n">
         <v>1.67</v>
-      </c>
-      <c r="AN219" t="n">
-        <v>1.31</v>
       </c>
       <c r="AO219" t="n">
         <v>1.33</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="AR219" t="n">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.46</v>
+        <v>2.15</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AV219" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AW219" t="n">
-        <v>2.6</v>
+        <v>2.79</v>
       </c>
       <c r="AX219" t="n">
-        <v>1.47</v>
+        <v>2.19</v>
       </c>
       <c r="AY219" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AZ219" t="n">
-        <v>3.28</v>
+        <v>1.89</v>
       </c>
       <c r="BA219" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="BB219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC219" t="n">
         <v>2.1</v>
       </c>
-      <c r="BC219" t="n">
-        <v>2.8</v>
-      </c>
       <c r="BD219" t="n">
-        <v>4.4</v>
+        <v>2.71</v>
       </c>
       <c r="BE219" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="BF219" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BG219" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH219" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI219" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ219" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BK219" t="n">
         <v>10</v>
@@ -45013,7 +45013,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>4407851</v>
+        <v>4407855</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -45033,179 +45033,179 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42', '66', '70']</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R220" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S220" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T220" t="n">
-        <v>4.73</v>
+        <v>2.87</v>
       </c>
       <c r="U220" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="V220" t="n">
-        <v>2.89</v>
+        <v>4.75</v>
       </c>
       <c r="W220" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="X220" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Y220" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AA220" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AB220" t="n">
         <v>1.03</v>
       </c>
       <c r="AC220" t="n">
-        <v>4.14</v>
+        <v>1.95</v>
       </c>
       <c r="AD220" t="n">
         <v>2.85</v>
       </c>
       <c r="AE220" t="n">
-        <v>1.95</v>
+        <v>4.14</v>
       </c>
       <c r="AF220" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AG220" t="n">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="AH220" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI220" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AJ220" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="AK220" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AL220" t="n">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="AM220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS220" t="n">
         <v>1.64</v>
       </c>
-      <c r="AN220" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO220" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP220" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ220" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AR220" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AS220" t="n">
-        <v>1.09</v>
-      </c>
       <c r="AT220" t="n">
-        <v>2.15</v>
+        <v>0.85</v>
       </c>
       <c r="AU220" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AV220" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="AW220" t="n">
-        <v>2.79</v>
+        <v>2.34</v>
       </c>
       <c r="AX220" t="n">
-        <v>2.19</v>
+        <v>1.73</v>
       </c>
       <c r="AY220" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ220" t="n">
-        <v>1.89</v>
+        <v>2.43</v>
       </c>
       <c r="BA220" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BB220" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="BC220" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="BD220" t="n">
-        <v>2.71</v>
+        <v>2.42</v>
       </c>
       <c r="BE220" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="BF220" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH220" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI220" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ220" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BK220" t="n">
         <v>10</v>
@@ -45216,7 +45216,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>4407855</v>
+        <v>4407850</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -45236,12 +45236,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="I221" t="n">
@@ -45254,161 +45254,161 @@
         <v>1</v>
       </c>
       <c r="L221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>['42', '66', '70']</t>
+          <t>['22']</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q221" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R221" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S221" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T221" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="U221" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V221" t="n">
-        <v>4.75</v>
+        <v>4.14</v>
       </c>
       <c r="W221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP221" t="n">
         <v>1.66</v>
       </c>
-      <c r="X221" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y221" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Z221" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA221" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB221" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC221" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD221" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AF221" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AG221" t="n">
+      <c r="AQ221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG221" t="n">
         <v>5</v>
       </c>
-      <c r="AH221" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI221" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AJ221" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AK221" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL221" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AM221" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AN221" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AO221" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP221" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ221" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR221" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS221" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT221" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AU221" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AV221" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW221" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AX221" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AY221" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ221" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BA221" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB221" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC221" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BD221" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BE221" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="BF221" t="n">
+      <c r="BH221" t="n">
         <v>5</v>
       </c>
-      <c r="BG221" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH221" t="n">
-        <v>9</v>
-      </c>
       <c r="BI221" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ221" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK221" t="n">
         <v>10</v>
@@ -45419,7 +45419,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>4407854</v>
+        <v>4407856</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -45439,12 +45439,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I222" t="n">
@@ -45457,164 +45457,164 @@
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>['73']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>['60', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q222" t="n">
+        <v>6</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2</v>
+      </c>
+      <c r="S222" t="n">
+        <v>8</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH222" t="n">
         <v>7</v>
       </c>
-      <c r="R222" t="n">
-        <v>5</v>
-      </c>
-      <c r="S222" t="n">
-        <v>12</v>
-      </c>
-      <c r="T222" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U222" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V222" t="n">
+      <c r="BI222" t="n">
         <v>4</v>
       </c>
-      <c r="W222" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X222" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Z222" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA222" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB222" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC222" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AD222" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE222" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF222" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AG222" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH222" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI222" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AJ222" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AK222" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL222" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AM222" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN222" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AO222" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP222" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ222" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AR222" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AS222" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT222" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AU222" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AV222" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AW222" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AX222" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AY222" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ222" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="BA222" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BB222" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BC222" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BD222" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BE222" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF222" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG222" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH222" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI222" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ222" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK222" t="n">
         <v>6</v>
-      </c>
-      <c r="BK222" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="223">
@@ -45622,7 +45622,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>4407856</v>
+        <v>4407854</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -45642,12 +45642,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="I223" t="n">
@@ -45660,164 +45660,164 @@
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N223" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['73']</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60', '64']</t>
         </is>
       </c>
       <c r="Q223" t="n">
+        <v>7</v>
+      </c>
+      <c r="R223" t="n">
+        <v>5</v>
+      </c>
+      <c r="S223" t="n">
+        <v>12</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V223" t="n">
+        <v>4</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ223" t="n">
         <v>6</v>
       </c>
-      <c r="R223" t="n">
-        <v>2</v>
-      </c>
-      <c r="S223" t="n">
+      <c r="BK223" t="n">
         <v>8</v>
-      </c>
-      <c r="T223" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="U223" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V223" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="W223" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X223" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Y223" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Z223" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA223" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB223" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC223" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD223" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE223" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AF223" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG223" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH223" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI223" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ223" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK223" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL223" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM223" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AN223" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AO223" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP223" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ223" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AR223" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS223" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT223" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AU223" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AV223" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AW223" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AX223" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY223" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AZ223" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BA223" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB223" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC223" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BD223" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE223" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="BF223" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG223" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH223" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI223" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ223" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK223" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="224">
@@ -45882,13 +45882,13 @@
         </is>
       </c>
       <c r="Q224" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S224" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T224" t="n">
         <v>3.4</v>
@@ -46005,22 +46005,631 @@
         <v>4.1</v>
       </c>
       <c r="BF224" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG224" t="n">
         <v>4</v>
       </c>
       <c r="BH224" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4407816</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45041.64583333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>22</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>9</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>11</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V225" t="n">
+        <v>6</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4407833</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45042.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>24</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2</v>
+      </c>
+      <c r="S226" t="n">
+        <v>7</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V226" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4407786</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45042.64583333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>19</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>7</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1</v>
+      </c>
+      <c r="S227" t="n">
+        <v>8</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V227" t="n">
         <v>4</v>
       </c>
-      <c r="BJ224" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK224" t="n">
-        <v>8</v>
+      <c r="W227" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK227"/>
+  <dimension ref="A1:BK228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>0.91</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -8211,7 +8211,7 @@
         <v>0.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT43" t="n">
         <v>2.78</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT49" t="n">
         <v>1.08</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>0.85</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>2.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU99" t="n">
         <v>1.26</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT114" t="n">
         <v>1.38</v>
@@ -26075,7 +26075,7 @@
         <v>1.29</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -27696,7 +27696,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT134" t="n">
         <v>1.46</v>
@@ -29120,7 +29120,7 @@
         <v>1.08</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU141" t="n">
         <v>1.11</v>
@@ -30132,7 +30132,7 @@
         <v>0.38</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT146" t="n">
         <v>0.46</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT154" t="n">
         <v>1.21</v>
@@ -33180,7 +33180,7 @@
         <v>1.54</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU161" t="n">
         <v>1.46</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT170" t="n">
         <v>1.08</v>
@@ -37646,7 +37646,7 @@
         <v>1.58</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -39267,7 +39267,7 @@
         <v>1.6</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT191" t="n">
         <v>1.31</v>
@@ -39879,7 +39879,7 @@
         <v>1.08</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU194" t="n">
         <v>1.36</v>
@@ -42515,7 +42515,7 @@
         <v>2.18</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT207" t="n">
         <v>2.15</v>
@@ -43736,7 +43736,7 @@
         <v>1.92</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU213" t="n">
         <v>1.6</v>
@@ -46630,6 +46630,209 @@
       </c>
       <c r="BK227" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4407863</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45048.54166666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>27</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['17', '85']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>7</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2</v>
+      </c>
+      <c r="S228" t="n">
+        <v>9</v>
+      </c>
+      <c r="T228" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U228" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK228"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT2" t="n">
         <v>1.31</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -2730,7 +2730,7 @@
         <v>2.45</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT20" t="n">
         <v>0.85</v>
@@ -4760,7 +4760,7 @@
         <v>1.46</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT26" t="n">
         <v>2.78</v>
@@ -6993,7 +6993,7 @@
         <v>1.54</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT34" t="n">
         <v>2.15</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -10850,7 +10850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT58" t="n">
         <v>1.62</v>
@@ -12677,7 +12677,7 @@
         <v>1.58</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13083,7 +13083,7 @@
         <v>0.91</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT75" t="n">
         <v>1.46</v>
@@ -15922,10 +15922,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16737,7 +16737,7 @@
         <v>0.92</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -19170,7 +19170,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT92" t="n">
         <v>1.46</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU93" t="n">
         <v>0.92</v>
@@ -19579,7 +19579,7 @@
         <v>1.92</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU94" t="n">
         <v>1.76</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT110" t="n">
         <v>0.31</v>
@@ -23639,7 +23639,7 @@
         <v>1.36</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.48</v>
@@ -23842,7 +23842,7 @@
         <v>2.33</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT116" t="n">
         <v>0.46</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT128" t="n">
         <v>1.21</v>
@@ -26684,7 +26684,7 @@
         <v>1.64</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU129" t="n">
         <v>1.05</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT130" t="n">
         <v>1.25</v>
@@ -27496,7 +27496,7 @@
         <v>1.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU133" t="n">
         <v>1.21</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT137" t="n">
         <v>0.5</v>
@@ -29929,7 +29929,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT145" t="n">
         <v>1.08</v>
@@ -30541,7 +30541,7 @@
         <v>1.29</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU148" t="n">
         <v>1.52</v>
@@ -30947,7 +30947,7 @@
         <v>0.93</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU150" t="n">
         <v>1.29</v>
@@ -32368,7 +32368,7 @@
         <v>1.29</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU157" t="n">
         <v>1.56</v>
@@ -32977,7 +32977,7 @@
         <v>2.45</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33380,7 +33380,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT162" t="n">
         <v>1.31</v>
@@ -33786,7 +33786,7 @@
         <v>2.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT164" t="n">
         <v>2.78</v>
@@ -35413,7 +35413,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU172" t="n">
         <v>1.09</v>
@@ -36831,7 +36831,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT179" t="n">
         <v>0.85</v>
@@ -37846,7 +37846,7 @@
         <v>2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT184" t="n">
         <v>2.15</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU185" t="n">
         <v>1.47</v>
@@ -39473,7 +39473,7 @@
         <v>0.91</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU192" t="n">
         <v>0.96</v>
@@ -39876,7 +39876,7 @@
         <v>1.7</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT194" t="n">
         <v>1.62</v>
@@ -40079,7 +40079,7 @@
         <v>1.1</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT195" t="n">
         <v>1</v>
@@ -41094,7 +41094,7 @@
         <v>1.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT200" t="n">
         <v>1</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AT206" t="n">
         <v>1</v>
@@ -42924,7 +42924,7 @@
         <v>0.92</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU209" t="n">
         <v>1.27</v>
@@ -43127,7 +43127,7 @@
         <v>1.58</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU210" t="n">
         <v>1.59</v>
@@ -43327,7 +43327,7 @@
         <v>1.33</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT211" t="n">
         <v>1.46</v>
@@ -45969,7 +45969,7 @@
         <v>1.54</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU224" t="n">
         <v>1.37</v>
@@ -46694,13 +46694,13 @@
         </is>
       </c>
       <c r="Q228" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S228" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T228" t="n">
         <v>4.44</v>
@@ -46817,22 +46817,428 @@
         <v>2.75</v>
       </c>
       <c r="BF228" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG228" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4407857</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45048.64583333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>27</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>7</v>
+      </c>
+      <c r="R229" t="n">
+        <v>4</v>
+      </c>
+      <c r="S229" t="n">
+        <v>11</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH229" t="n">
         <v>5</v>
       </c>
-      <c r="BI228" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ228" t="n">
+      <c r="BI229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4407864</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45049.58333333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>27</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>3</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>4</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['20', '38', '45+4']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
         <v>7</v>
       </c>
-      <c r="BK228" t="n">
-        <v>2</v>
+      <c r="S230" t="n">
+        <v>10</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT8" t="n">
         <v>0.85</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT9" t="n">
         <v>2.15</v>
@@ -2527,7 +2527,7 @@
         <v>0.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT16" t="n">
         <v>1.21</v>
@@ -3948,7 +3948,7 @@
         <v>0.93</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT24" t="n">
         <v>1.62</v>
@@ -6181,7 +6181,7 @@
         <v>2.45</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT29" t="n">
         <v>1.08</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT31" t="n">
         <v>1.46</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -8617,7 +8617,7 @@
         <v>1.46</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT47" t="n">
         <v>1.31</v>
@@ -11865,7 +11865,7 @@
         <v>1.36</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT60" t="n">
         <v>1.36</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT62" t="n">
         <v>1.21</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT66" t="n">
         <v>0.85</v>
@@ -14707,7 +14707,7 @@
         <v>1.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -16328,10 +16328,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU78" t="n">
         <v>0.93</v>
@@ -16531,10 +16531,10 @@
         <v>0.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU79" t="n">
         <v>1.41</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT81" t="n">
         <v>1.46</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT97" t="n">
         <v>0.46</v>
@@ -20391,7 +20391,7 @@
         <v>0.92</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU98" t="n">
         <v>1.18</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT99" t="n">
         <v>1.62</v>
@@ -20797,7 +20797,7 @@
         <v>1.64</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.11</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT106" t="n">
         <v>1.25</v>
@@ -22827,7 +22827,7 @@
         <v>0.86</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU110" t="n">
         <v>0.93</v>
@@ -23030,7 +23030,7 @@
         <v>0.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT112" t="n">
         <v>1.46</v>
@@ -24651,7 +24651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT119" t="n">
         <v>1.08</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT122" t="n">
         <v>1.08</v>
@@ -27293,7 +27293,7 @@
         <v>1.29</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU132" t="n">
         <v>1.5</v>
@@ -27493,7 +27493,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT133" t="n">
         <v>1.21</v>
@@ -28105,7 +28105,7 @@
         <v>2.33</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU136" t="n">
         <v>1.54</v>
@@ -28308,7 +28308,7 @@
         <v>1.21</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU137" t="n">
         <v>1.4</v>
@@ -28711,7 +28711,7 @@
         <v>1.29</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT139" t="n">
         <v>1.31</v>
@@ -31350,10 +31350,10 @@
         <v>0.5</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU152" t="n">
         <v>1.22</v>
@@ -31962,7 +31962,7 @@
         <v>1.64</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU155" t="n">
         <v>1.09</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT159" t="n">
         <v>0.46</v>
@@ -33586,7 +33586,7 @@
         <v>1.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU163" t="n">
         <v>1.14</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34395,7 +34395,7 @@
         <v>2.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT167" t="n">
         <v>2.15</v>
@@ -35616,7 +35616,7 @@
         <v>1.29</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU173" t="n">
         <v>1.56</v>
@@ -36222,7 +36222,7 @@
         <v>0.89</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT176" t="n">
         <v>1.25</v>
@@ -36628,7 +36628,7 @@
         <v>1.14</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.46</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU180" t="n">
         <v>1.62</v>
@@ -37643,7 +37643,7 @@
         <v>1.56</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT183" t="n">
         <v>1.62</v>
@@ -38661,7 +38661,7 @@
         <v>1.08</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU188" t="n">
         <v>1.11</v>
@@ -39470,7 +39470,7 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT192" t="n">
         <v>1.36</v>
@@ -40688,7 +40688,7 @@
         <v>1.36</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT198" t="n">
         <v>1.46</v>
@@ -41706,7 +41706,7 @@
         <v>2</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AU203" t="n">
         <v>1.52</v>
@@ -42718,7 +42718,7 @@
         <v>1.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT208" t="n">
         <v>1.46</v>
@@ -43124,7 +43124,7 @@
         <v>1.36</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT210" t="n">
         <v>1.21</v>
@@ -43939,7 +43939,7 @@
         <v>1.54</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU214" t="n">
         <v>1.37</v>
@@ -46169,7 +46169,7 @@
         <v>0.92</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT225" t="n">
         <v>1.08</v>
@@ -47239,6 +47239,615 @@
       </c>
       <c r="BK230" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4407859</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45050.54166666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>27</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>3</v>
+      </c>
+      <c r="S231" t="n">
+        <v>8</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V231" t="n">
+        <v>5</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4407858</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45050.54166666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>27</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>2</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>3</v>
+      </c>
+      <c r="N232" t="n">
+        <v>5</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['6', '15']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['48', '78', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>6</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>9</v>
+      </c>
+      <c r="T232" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V232" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4407865</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45050.64583333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>27</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>7</v>
+      </c>
+      <c r="R233" t="n">
+        <v>4</v>
+      </c>
+      <c r="S233" t="n">
+        <v>11</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V233" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.21</v>
@@ -3339,7 +3339,7 @@
         <v>1.36</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.36</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.21</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1.08</v>
@@ -14504,7 +14504,7 @@
         <v>1.08</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.31</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -21403,7 +21403,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT103" t="n">
         <v>0.85</v>
@@ -22015,7 +22015,7 @@
         <v>0.83</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -24857,7 +24857,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU120" t="n">
         <v>1.29</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -26887,7 +26887,7 @@
         <v>1.21</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU130" t="n">
         <v>1.41</v>
@@ -29320,7 +29320,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -30338,7 +30338,7 @@
         <v>1.92</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU147" t="n">
         <v>1.63</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT160" t="n">
         <v>1.36</v>
@@ -36225,7 +36225,7 @@
         <v>1.69</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU176" t="n">
         <v>1.32</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT177" t="n">
         <v>1.46</v>
@@ -38458,7 +38458,7 @@
         <v>0.93</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU187" t="n">
         <v>1.45</v>
@@ -44545,7 +44545,7 @@
         <v>1</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT217" t="n">
         <v>1.08</v>
@@ -45766,7 +45766,7 @@
         <v>1.46</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU223" t="n">
         <v>1.67</v>
@@ -47848,6 +47848,209 @@
       </c>
       <c r="BK233" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4407838</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45055.54166666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>24</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2</v>
+      </c>
+      <c r="L234" t="n">
+        <v>3</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>4</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['14', '40', '77']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>2</v>
+      </c>
+      <c r="R234" t="n">
+        <v>9</v>
+      </c>
+      <c r="S234" t="n">
+        <v>11</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V234" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -48035,22 +48035,22 @@
         <v>3.04</v>
       </c>
       <c r="BF234" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH234" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI234" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ234" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK234" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT5" t="n">
         <v>2.78</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT6" t="n">
         <v>1.46</v>
@@ -2121,7 +2121,7 @@
         <v>1.54</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT9" t="n">
         <v>2.15</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.69</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT21" t="n">
         <v>1.36</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT24" t="n">
         <v>1.62</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT31" t="n">
         <v>1.46</v>
@@ -7196,7 +7196,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT38" t="n">
         <v>1.62</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT40" t="n">
         <v>0.36</v>
@@ -8820,7 +8820,7 @@
         <v>2.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9429,7 +9429,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT45" t="n">
         <v>0.46</v>
@@ -10038,7 +10038,7 @@
         <v>1.69</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT48" t="n">
         <v>1.15</v>
@@ -10444,7 +10444,7 @@
         <v>1.36</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10647,7 +10647,7 @@
         <v>0.93</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT53" t="n">
         <v>0.46</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT54" t="n">
         <v>2.15</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT57" t="n">
         <v>1.08</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT61" t="n">
         <v>1.46</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT62" t="n">
         <v>1.21</v>
@@ -13286,7 +13286,7 @@
         <v>1.54</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -13895,7 +13895,7 @@
         <v>1.69</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -14098,7 +14098,7 @@
         <v>0.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT69" t="n">
         <v>1.15</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT78" t="n">
         <v>0.36</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT80" t="n">
         <v>1.21</v>
@@ -16940,7 +16940,7 @@
         <v>1.54</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -17346,7 +17346,7 @@
         <v>2.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17546,10 +17546,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT87" t="n">
         <v>2.78</v>
@@ -18358,7 +18358,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT88" t="n">
         <v>1.08</v>
@@ -18767,7 +18767,7 @@
         <v>0.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -18970,7 +18970,7 @@
         <v>1.54</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -19173,7 +19173,7 @@
         <v>1.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU92" t="n">
         <v>1.39</v>
@@ -20388,7 +20388,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT98" t="n">
         <v>0.36</v>
@@ -20997,7 +20997,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT101" t="n">
         <v>2.78</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -21406,7 +21406,7 @@
         <v>2.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU103" t="n">
         <v>1.68</v>
@@ -21606,10 +21606,10 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -21809,7 +21809,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT105" t="n">
         <v>2.15</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT106" t="n">
         <v>1.15</v>
@@ -22624,7 +22624,7 @@
         <v>1.25</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU109" t="n">
         <v>1.21</v>
@@ -23436,7 +23436,7 @@
         <v>1.92</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU113" t="n">
         <v>1.68</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24651,10 +24651,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU119" t="n">
         <v>1</v>
@@ -25057,7 +25057,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT121" t="n">
         <v>2.15</v>
@@ -25466,7 +25466,7 @@
         <v>1.54</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU123" t="n">
         <v>1.59</v>
@@ -25869,10 +25869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU125" t="n">
         <v>1.61</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT126" t="n">
         <v>1.62</v>
@@ -26481,7 +26481,7 @@
         <v>0.86</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU128" t="n">
         <v>0.98</v>
@@ -27290,7 +27290,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT132" t="n">
         <v>0.6899999999999999</v>
@@ -27699,7 +27699,7 @@
         <v>1.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU134" t="n">
         <v>1.39</v>
@@ -28508,10 +28508,10 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU138" t="n">
         <v>1.28</v>
@@ -28714,7 +28714,7 @@
         <v>1.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU139" t="n">
         <v>1.64</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT140" t="n">
         <v>1</v>
@@ -29117,7 +29117,7 @@
         <v>1.43</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT141" t="n">
         <v>1.62</v>
@@ -29729,7 +29729,7 @@
         <v>1.54</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -30538,7 +30538,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT148" t="n">
         <v>1.36</v>
@@ -30744,7 +30744,7 @@
         <v>1.64</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU149" t="n">
         <v>1.07</v>
@@ -31759,7 +31759,7 @@
         <v>1.36</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU154" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>1.25</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU156" t="n">
         <v>1.27</v>
@@ -32365,7 +32365,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT157" t="n">
         <v>1.21</v>
@@ -32571,7 +32571,7 @@
         <v>0.93</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU158" t="n">
         <v>1.31</v>
@@ -33383,7 +33383,7 @@
         <v>0.86</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU162" t="n">
         <v>1.15</v>
@@ -33583,7 +33583,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT163" t="n">
         <v>0.6899999999999999</v>
@@ -33989,10 +33989,10 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34598,7 +34598,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT168" t="n">
         <v>1.46</v>
@@ -35210,7 +35210,7 @@
         <v>1.25</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35410,7 +35410,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT172" t="n">
         <v>1.21</v>
@@ -35613,7 +35613,7 @@
         <v>0.4</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT173" t="n">
         <v>0.36</v>
@@ -35819,7 +35819,7 @@
         <v>2.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU174" t="n">
         <v>1.62</v>
@@ -36022,7 +36022,7 @@
         <v>1.64</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.09</v>
@@ -36428,7 +36428,7 @@
         <v>2.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU177" t="n">
         <v>1.67</v>
@@ -36628,7 +36628,7 @@
         <v>1.14</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT178" t="n">
         <v>1</v>
@@ -36834,7 +36834,7 @@
         <v>0.86</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU179" t="n">
         <v>1.2</v>
@@ -37034,7 +37034,7 @@
         <v>0.6</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT180" t="n">
         <v>0.6899999999999999</v>
@@ -37240,7 +37240,7 @@
         <v>2.33</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU181" t="n">
         <v>1.67</v>
@@ -37440,7 +37440,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -38658,7 +38658,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT188" t="n">
         <v>0.36</v>
@@ -38861,10 +38861,10 @@
         <v>1.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU189" t="n">
         <v>1.58</v>
@@ -39270,7 +39270,7 @@
         <v>1.36</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU191" t="n">
         <v>1.43</v>
@@ -39470,7 +39470,7 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT192" t="n">
         <v>1.36</v>
@@ -39673,7 +39673,7 @@
         <v>1.13</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT193" t="n">
         <v>1</v>
@@ -40282,10 +40282,10 @@
         <v>1.45</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU196" t="n">
         <v>1.6</v>
@@ -40488,7 +40488,7 @@
         <v>2.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU197" t="n">
         <v>1.6</v>
@@ -41297,7 +41297,7 @@
         <v>0.55</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT201" t="n">
         <v>0.46</v>
@@ -41503,7 +41503,7 @@
         <v>0.93</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU202" t="n">
         <v>1.45</v>
@@ -41906,10 +41906,10 @@
         <v>1.33</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU204" t="n">
         <v>1.08</v>
@@ -42112,7 +42112,7 @@
         <v>1.64</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU205" t="n">
         <v>1.18</v>
@@ -42718,10 +42718,10 @@
         <v>1.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU208" t="n">
         <v>1.02</v>
@@ -42921,7 +42921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT209" t="n">
         <v>1.36</v>
@@ -44142,7 +44142,7 @@
         <v>2</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU215" t="n">
         <v>1.51</v>
@@ -44548,7 +44548,7 @@
         <v>2.5</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU217" t="n">
         <v>1.63</v>
@@ -44748,7 +44748,7 @@
         <v>1.17</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT218" t="n">
         <v>1.08</v>
@@ -45157,7 +45157,7 @@
         <v>1.64</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU220" t="n">
         <v>1.19</v>
@@ -45560,10 +45560,10 @@
         <v>1.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU222" t="n">
         <v>1.51</v>
@@ -45763,7 +45763,7 @@
         <v>1.09</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT223" t="n">
         <v>1.15</v>
@@ -46172,7 +46172,7 @@
         <v>1.69</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU225" t="n">
         <v>1.34</v>
@@ -46375,7 +46375,7 @@
         <v>1.25</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU226" t="n">
         <v>1.34</v>
@@ -47590,7 +47590,7 @@
         <v>0.5</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT232" t="n">
         <v>0.6899999999999999</v>
@@ -48051,6 +48051,1021 @@
       </c>
       <c r="BK234" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4407861</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45059.54166666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>27</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['19', '57']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>6</v>
+      </c>
+      <c r="R235" t="n">
+        <v>7</v>
+      </c>
+      <c r="S235" t="n">
+        <v>13</v>
+      </c>
+      <c r="T235" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4407872</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>28</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>4</v>
+      </c>
+      <c r="R236" t="n">
+        <v>4</v>
+      </c>
+      <c r="S236" t="n">
+        <v>8</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V236" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4407870</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45061.54166666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>28</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>6</v>
+      </c>
+      <c r="R237" t="n">
+        <v>9</v>
+      </c>
+      <c r="S237" t="n">
+        <v>15</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V237" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4407868</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45061.64583333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>28</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>7</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2</v>
+      </c>
+      <c r="S238" t="n">
+        <v>9</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4407866</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45062.45833333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>28</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['6', '43']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>6</v>
+      </c>
+      <c r="R239" t="n">
+        <v>1</v>
+      </c>
+      <c r="S239" t="n">
+        <v>7</v>
+      </c>
+      <c r="T239" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U239" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK239"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT7" t="n">
         <v>1.62</v>
@@ -2324,7 +2324,7 @@
         <v>0.77</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.36</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT18" t="n">
         <v>1.36</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>1.69</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT32" t="n">
         <v>1.36</v>
@@ -7399,7 +7399,7 @@
         <v>0.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT36" t="n">
         <v>1.21</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT44" t="n">
         <v>1.36</v>
@@ -9835,7 +9835,7 @@
         <v>0.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10241,7 +10241,7 @@
         <v>1.27</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT51" t="n">
         <v>1.21</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT52" t="n">
         <v>1.46</v>
@@ -11459,7 +11459,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -12068,7 +12068,7 @@
         <v>1.27</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
         <v>1.36</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -14301,7 +14301,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.51</v>
@@ -14504,7 +14504,7 @@
         <v>1.21</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT70" t="n">
         <v>0.36</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT72" t="n">
         <v>0.46</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT85" t="n">
         <v>0.46</v>
@@ -17955,7 +17955,7 @@
         <v>1.64</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -18361,7 +18361,7 @@
         <v>1.43</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18561,10 +18561,10 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
         <v>1.33</v>
@@ -21200,7 +21200,7 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT102" t="n">
         <v>1.07</v>
@@ -21812,7 +21812,7 @@
         <v>1.27</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -22015,7 +22015,7 @@
         <v>0.77</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT109" t="n">
         <v>1.33</v>
@@ -24854,10 +24854,10 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU120" t="n">
         <v>1.29</v>
@@ -25060,7 +25060,7 @@
         <v>1.21</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU121" t="n">
         <v>1.04</v>
@@ -25263,7 +25263,7 @@
         <v>1.54</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.73</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT123" t="n">
         <v>1.21</v>
@@ -26275,7 +26275,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT127" t="n">
         <v>2.78</v>
@@ -26887,7 +26887,7 @@
         <v>1.21</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU130" t="n">
         <v>1.41</v>
@@ -29523,10 +29523,10 @@
         <v>2.43</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29726,7 +29726,7 @@
         <v>1.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT144" t="n">
         <v>0.86</v>
@@ -29932,7 +29932,7 @@
         <v>0.86</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>0.9399999999999999</v>
@@ -30338,7 +30338,7 @@
         <v>1.92</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU147" t="n">
         <v>1.63</v>
@@ -31147,7 +31147,7 @@
         <v>1.38</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT151" t="n">
         <v>1.46</v>
@@ -31556,7 +31556,7 @@
         <v>1.92</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.6</v>
@@ -32162,7 +32162,7 @@
         <v>0.88</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT156" t="n">
         <v>1.07</v>
@@ -33177,7 +33177,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT161" t="n">
         <v>1.62</v>
@@ -34398,7 +34398,7 @@
         <v>1.54</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -35007,7 +35007,7 @@
         <v>1.36</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU170" t="n">
         <v>1.44</v>
@@ -35207,7 +35207,7 @@
         <v>1.44</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT171" t="n">
         <v>1.21</v>
@@ -36225,7 +36225,7 @@
         <v>1.69</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU176" t="n">
         <v>1.32</v>
@@ -37849,7 +37849,7 @@
         <v>1.21</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU184" t="n">
         <v>1.35</v>
@@ -38049,7 +38049,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT185" t="n">
         <v>1.36</v>
@@ -38252,7 +38252,7 @@
         <v>1.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT186" t="n">
         <v>1.46</v>
@@ -38458,7 +38458,7 @@
         <v>0.93</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU187" t="n">
         <v>1.45</v>
@@ -39067,7 +39067,7 @@
         <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.15</v>
@@ -40894,7 +40894,7 @@
         <v>1.92</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU199" t="n">
         <v>1.64</v>
@@ -41703,7 +41703,7 @@
         <v>0.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT203" t="n">
         <v>0.36</v>
@@ -42518,7 +42518,7 @@
         <v>1.36</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU207" t="n">
         <v>1.44</v>
@@ -43936,7 +43936,7 @@
         <v>0.55</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT214" t="n">
         <v>0.6899999999999999</v>
@@ -44139,7 +44139,7 @@
         <v>1.23</v>
       </c>
       <c r="AS215" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT215" t="n">
         <v>1.33</v>
@@ -44751,7 +44751,7 @@
         <v>1.21</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
         <v>1.12</v>
@@ -44951,10 +44951,10 @@
         <v>2.25</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT219" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AU219" t="n">
         <v>1.42</v>
@@ -45357,7 +45357,7 @@
         <v>0.5</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT221" t="n">
         <v>0.46</v>
@@ -45766,7 +45766,7 @@
         <v>1.43</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU223" t="n">
         <v>1.67</v>
@@ -45966,7 +45966,7 @@
         <v>1.33</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT224" t="n">
         <v>1.21</v>
@@ -46372,7 +46372,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT226" t="n">
         <v>0.86</v>
@@ -46575,7 +46575,7 @@
         <v>1.09</v>
       </c>
       <c r="AS227" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT227" t="n">
         <v>1</v>
@@ -47999,7 +47999,7 @@
         <v>2.5</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU234" t="n">
         <v>1.65</v>
@@ -48644,22 +48644,22 @@
         <v>0</v>
       </c>
       <c r="BF237" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH237" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI237" t="n">
         <v>8</v>
       </c>
       <c r="BJ237" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BK237" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
@@ -49053,19 +49053,831 @@
         <v>3</v>
       </c>
       <c r="BG239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH239" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI239" t="n">
         <v>5</v>
       </c>
       <c r="BJ239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4407873</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45062.54166666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>28</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2</v>
+      </c>
+      <c r="R240" t="n">
+        <v>10</v>
+      </c>
+      <c r="S240" t="n">
+        <v>12</v>
+      </c>
+      <c r="T240" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG240" t="n">
         <v>6</v>
       </c>
-      <c r="BK239" t="n">
+      <c r="BH240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4407869</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45062.64583333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>28</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>2</v>
+      </c>
+      <c r="N241" t="n">
+        <v>4</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['2', '67']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['33', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>1</v>
+      </c>
+      <c r="R241" t="n">
+        <v>5</v>
+      </c>
+      <c r="S241" t="n">
+        <v>6</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V241" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ241" t="n">
         <v>7</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4407867</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45063.58333333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>28</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>2</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['34', '63']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>9</v>
+      </c>
+      <c r="R242" t="n">
+        <v>5</v>
+      </c>
+      <c r="S242" t="n">
+        <v>14</v>
+      </c>
+      <c r="T242" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4407871</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45064.58333333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>28</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>3</v>
+      </c>
+      <c r="R243" t="n">
+        <v>4</v>
+      </c>
+      <c r="S243" t="n">
+        <v>7</v>
+      </c>
+      <c r="T243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -49659,7 +49659,7 @@
         <v>3.42</v>
       </c>
       <c r="BF242" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG242" t="n">
         <v>4</v>
@@ -49671,7 +49671,7 @@
         <v>3</v>
       </c>
       <c r="BJ242" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK242" t="n">
         <v>7</v>
@@ -49739,13 +49739,13 @@
         </is>
       </c>
       <c r="Q243" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R243" t="n">
         <v>4</v>
       </c>
       <c r="S243" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T243" t="n">
         <v>2.6</v>
@@ -49862,22 +49862,22 @@
         <v>2.41</v>
       </c>
       <c r="BF243" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH243" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BI243" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BJ243" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK243" t="n">
         <v>13</v>
-      </c>
-      <c r="BK243" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT5" t="n">
         <v>2.78</v>
@@ -1715,7 +1715,7 @@
         <v>1.21</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT14" t="n">
         <v>1.07</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT15" t="n">
         <v>1.07</v>
@@ -4354,7 +4354,7 @@
         <v>1.64</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -6790,7 +6790,7 @@
         <v>0.77</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT33" t="n">
         <v>0.86</v>
@@ -7805,7 +7805,7 @@
         <v>2.08</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT38" t="n">
         <v>1.62</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT43" t="n">
         <v>2.78</v>
@@ -9632,7 +9632,7 @@
         <v>1.21</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT49" t="n">
         <v>1.07</v>
@@ -10850,7 +10850,7 @@
         <v>1.23</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11053,7 +11053,7 @@
         <v>2.08</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11256,7 +11256,7 @@
         <v>1.27</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT54" t="n">
         <v>2.07</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT56" t="n">
         <v>0.6899999999999999</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13083,7 +13083,7 @@
         <v>0.77</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -15113,7 +15113,7 @@
         <v>2.08</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15722,7 +15722,7 @@
         <v>0.86</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16734,10 +16734,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -17752,7 +17752,7 @@
         <v>1.23</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -19376,7 +19376,7 @@
         <v>0.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU93" t="n">
         <v>0.92</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT94" t="n">
         <v>1.36</v>
@@ -19782,7 +19782,7 @@
         <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>1.54</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20388,7 +20388,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT98" t="n">
         <v>0.36</v>
@@ -23233,7 +23233,7 @@
         <v>1.69</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT113" t="n">
         <v>1.36</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT114" t="n">
         <v>1.36</v>
@@ -23842,7 +23842,7 @@
         <v>2.33</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24045,7 +24045,7 @@
         <v>1.21</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU116" t="n">
         <v>1.42</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT118" t="n">
         <v>1.33</v>
@@ -27087,10 +27087,10 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU131" t="n">
         <v>1.62</v>
@@ -27496,7 +27496,7 @@
         <v>1.69</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU133" t="n">
         <v>1.21</v>
@@ -27696,7 +27696,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT134" t="n">
         <v>1.36</v>
@@ -27902,7 +27902,7 @@
         <v>0.93</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU135" t="n">
         <v>1.31</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT138" t="n">
         <v>1.07</v>
@@ -30132,10 +30132,10 @@
         <v>0.38</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU146" t="n">
         <v>1.38</v>
@@ -30335,7 +30335,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT147" t="n">
         <v>1.07</v>
@@ -30947,7 +30947,7 @@
         <v>0.93</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.29</v>
@@ -31150,7 +31150,7 @@
         <v>1.23</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT154" t="n">
         <v>1.33</v>
@@ -32368,7 +32368,7 @@
         <v>1.27</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU157" t="n">
         <v>1.56</v>
@@ -32774,7 +32774,7 @@
         <v>1.69</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU159" t="n">
         <v>1.25</v>
@@ -33989,7 +33989,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT165" t="n">
         <v>0.86</v>
@@ -34601,7 +34601,7 @@
         <v>1.43</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU168" t="n">
         <v>1.74</v>
@@ -34804,7 +34804,7 @@
         <v>0.93</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT170" t="n">
         <v>1</v>
@@ -35413,7 +35413,7 @@
         <v>1.21</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU172" t="n">
         <v>1.09</v>
@@ -37440,7 +37440,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -38255,7 +38255,7 @@
         <v>1.64</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU186" t="n">
         <v>1.39</v>
@@ -38314,7 +38314,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>4407820</v>
+        <v>4407812</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -38334,182 +38334,182 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
         <v>3</v>
       </c>
-      <c r="K187" t="n">
+      <c r="U187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V187" t="n">
         <v>4</v>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="n">
-        <v>3</v>
-      </c>
-      <c r="N187" t="n">
-        <v>4</v>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>['41']</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>['20', '38', '40']</t>
-        </is>
-      </c>
-      <c r="Q187" t="n">
-        <v>10</v>
-      </c>
-      <c r="R187" t="n">
-        <v>4</v>
-      </c>
-      <c r="S187" t="n">
-        <v>14</v>
-      </c>
-      <c r="T187" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U187" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V187" t="n">
-        <v>3.9</v>
-      </c>
       <c r="W187" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="X187" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="Y187" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="Z187" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AA187" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AB187" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC187" t="n">
         <v>2.45</v>
       </c>
       <c r="AD187" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AE187" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AF187" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AG187" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH187" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AI187" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AJ187" t="n">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="AK187" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AL187" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AM187" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AN187" t="n">
         <v>1.25</v>
       </c>
       <c r="AO187" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="AR187" t="n">
-        <v>0.9</v>
+        <v>1.36</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.93</v>
+        <v>1.27</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="AU187" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AV187" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="AW187" t="n">
-        <v>2.8</v>
+        <v>2.71</v>
       </c>
       <c r="AX187" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AY187" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AZ187" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="BA187" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB187" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="BC187" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="BD187" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="BE187" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BF187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ187" t="n">
         <v>4</v>
       </c>
-      <c r="BG187" t="n">
+      <c r="BK187" t="n">
         <v>7</v>
-      </c>
-      <c r="BH187" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI187" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ187" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK187" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -38517,7 +38517,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>4407818</v>
+        <v>4407820</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -38537,161 +38537,161 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="I188" t="n">
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>['14', '61']</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['20', '38', '40']</t>
         </is>
       </c>
       <c r="Q188" t="n">
+        <v>10</v>
+      </c>
+      <c r="R188" t="n">
         <v>4</v>
       </c>
-      <c r="R188" t="n">
-        <v>3</v>
-      </c>
       <c r="S188" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T188" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U188" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="V188" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="W188" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="X188" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="Y188" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA188" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB188" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC188" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AD188" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AE188" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW188" t="n">
         <v>2.8</v>
       </c>
-      <c r="AF188" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG188" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH188" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI188" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AJ188" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK188" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL188" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM188" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN188" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO188" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AP188" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AQ188" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR188" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AS188" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT188" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AU188" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AV188" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW188" t="n">
-        <v>2.29</v>
-      </c>
       <c r="AX188" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="AY188" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AZ188" t="n">
-        <v>2.05</v>
+        <v>2.66</v>
       </c>
       <c r="BA188" t="n">
         <v>1.3</v>
       </c>
       <c r="BB188" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="BC188" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="BD188" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="BE188" t="n">
         <v>3.75</v>
@@ -38700,19 +38700,19 @@
         <v>4</v>
       </c>
       <c r="BG188" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH188" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BI188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ188" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK188" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -38720,7 +38720,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>4407812</v>
+        <v>4407818</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -38740,182 +38740,182 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '61']</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R189" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S189" t="n">
         <v>7</v>
       </c>
       <c r="T189" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U189" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V189" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W189" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X189" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Z189" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AA189" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB189" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC189" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AD189" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AE189" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AF189" t="n">
         <v>1.1</v>
       </c>
       <c r="AG189" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AH189" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AI189" t="n">
-        <v>2.45</v>
+        <v>2.87</v>
       </c>
       <c r="AJ189" t="n">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AK189" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AL189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ189" t="n">
         <v>2.05</v>
       </c>
-      <c r="AM189" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN189" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO189" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP189" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ189" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR189" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS189" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AT189" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU189" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AV189" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW189" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AX189" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AY189" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AZ189" t="n">
-        <v>2.68</v>
-      </c>
       <c r="BA189" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BB189" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="BC189" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="BD189" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BE189" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BF189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI189" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK189" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -38923,7 +38923,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>4407817</v>
+        <v>4407819</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -38943,182 +38943,182 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M190" t="n">
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
+          <t>['22', '89']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q190" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S190" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T190" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="U190" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V190" t="n">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="W190" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X190" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE190" t="n">
         <v>2.3</v>
       </c>
-      <c r="Y190" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Z190" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA190" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB190" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC190" t="n">
+      <c r="AF190" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ190" t="n">
         <v>2.3</v>
       </c>
-      <c r="AD190" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE190" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF190" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG190" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH190" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI190" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ190" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AK190" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AL190" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AM190" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="AN190" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="AO190" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.45</v>
       </c>
       <c r="AR190" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AT190" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AU190" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="AV190" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AW190" t="n">
-        <v>2.31</v>
+        <v>2.87</v>
       </c>
       <c r="AX190" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AY190" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AZ190" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="BA190" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="BB190" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="BC190" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="BD190" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="BE190" t="n">
-        <v>3.56</v>
+        <v>2.79</v>
       </c>
       <c r="BF190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG190" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH190" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI190" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BJ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK190" t="n">
         <v>14</v>
-      </c>
-      <c r="BK190" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="191">
@@ -39126,7 +39126,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>4407819</v>
+        <v>4407817</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -39146,35 +39146,35 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M191" t="n">
         <v>0</v>
       </c>
       <c r="N191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>['22', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -39183,145 +39183,145 @@
         </is>
       </c>
       <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1</v>
+      </c>
+      <c r="S191" t="n">
         <v>7</v>
       </c>
-      <c r="R191" t="n">
-        <v>3</v>
-      </c>
-      <c r="S191" t="n">
-        <v>10</v>
-      </c>
       <c r="T191" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="U191" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V191" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD191" t="n">
         <v>2.8</v>
       </c>
-      <c r="W191" t="n">
+      <c r="AE191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH191" t="n">
         <v>1.5</v>
       </c>
-      <c r="X191" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y191" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Z191" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA191" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB191" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC191" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD191" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE191" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AF191" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG191" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH191" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AI191" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="AJ191" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AK191" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AL191" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AM191" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AN191" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="AO191" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.45</v>
       </c>
       <c r="AR191" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AU191" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="AV191" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AW191" t="n">
-        <v>2.87</v>
+        <v>2.31</v>
       </c>
       <c r="AX191" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AY191" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ191" t="n">
-        <v>1.96</v>
+        <v>2.28</v>
       </c>
       <c r="BA191" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BB191" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BC191" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BD191" t="n">
-        <v>2.15</v>
+        <v>2.36</v>
       </c>
       <c r="BE191" t="n">
-        <v>2.79</v>
+        <v>3.56</v>
       </c>
       <c r="BF191" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG191" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH191" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI191" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ191" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK191" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -39329,7 +39329,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>4407821</v>
+        <v>4407825</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -39349,182 +39349,182 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="Q192" t="n">
+        <v>1</v>
+      </c>
+      <c r="R192" t="n">
         <v>3</v>
       </c>
-      <c r="R192" t="n">
-        <v>2</v>
-      </c>
       <c r="S192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T192" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="U192" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V192" t="n">
-        <v>3.6</v>
+        <v>3.29</v>
       </c>
       <c r="W192" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="X192" t="n">
-        <v>2.15</v>
+        <v>2.53</v>
       </c>
       <c r="Y192" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Z192" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AA192" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AB192" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AC192" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AD192" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AE192" t="n">
         <v>2.37</v>
       </c>
       <c r="AF192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR192" t="n">
         <v>1.13</v>
       </c>
-      <c r="AG192" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH192" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI192" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AJ192" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK192" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL192" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM192" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN192" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO192" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AP192" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ192" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AR192" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AS192" t="n">
-        <v>0.77</v>
+        <v>1.21</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
-        <v>0.96</v>
+        <v>1.29</v>
       </c>
       <c r="AV192" t="n">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="AW192" t="n">
-        <v>2.11</v>
+        <v>2.91</v>
       </c>
       <c r="AX192" t="n">
         <v>2.1</v>
       </c>
       <c r="AY192" t="n">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="AZ192" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BA192" t="n">
-        <v>1.56</v>
+        <v>1.26</v>
       </c>
       <c r="BB192" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="BC192" t="n">
-        <v>2.55</v>
+        <v>1.87</v>
       </c>
       <c r="BD192" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="BE192" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BF192" t="n">
         <v>4</v>
       </c>
       <c r="BG192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK192" t="n">
         <v>11</v>
-      </c>
-      <c r="BI192" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ192" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK192" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -39532,7 +39532,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>4407825</v>
+        <v>4407821</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -39552,182 +39552,182 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
       <c r="N193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R193" t="n">
+        <v>2</v>
+      </c>
+      <c r="S193" t="n">
+        <v>5</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC193" t="n">
         <v>3</v>
       </c>
-      <c r="S193" t="n">
-        <v>4</v>
-      </c>
-      <c r="T193" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="U193" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V193" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="W193" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X193" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA193" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB193" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC193" t="n">
-        <v>2.87</v>
-      </c>
       <c r="AD193" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AE193" t="n">
         <v>2.37</v>
       </c>
       <c r="AF193" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AG193" t="n">
-        <v>7.75</v>
+        <v>5.5</v>
       </c>
       <c r="AH193" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AI193" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="AJ193" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AK193" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AL193" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="AM193" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="AN193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO193" t="n">
         <v>1.41</v>
       </c>
-      <c r="AO193" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AP193" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.7</v>
+        <v>1.11</v>
       </c>
       <c r="AR193" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.08</v>
+        <v>0.77</v>
       </c>
       <c r="AT193" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AU193" t="n">
-        <v>1.29</v>
+        <v>0.96</v>
       </c>
       <c r="AV193" t="n">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AW193" t="n">
-        <v>2.91</v>
+        <v>2.11</v>
       </c>
       <c r="AX193" t="n">
         <v>2.1</v>
       </c>
       <c r="AY193" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="AZ193" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BA193" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="BB193" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="BC193" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="BD193" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="BE193" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="BF193" t="n">
         <v>4</v>
       </c>
       <c r="BG193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH193" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BI193" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ193" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
@@ -39735,7 +39735,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>4407824</v>
+        <v>4407823</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -39755,164 +39755,164 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>['37']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q194" t="n">
         <v>2</v>
       </c>
       <c r="R194" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T194" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="U194" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V194" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="W194" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="X194" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="Y194" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Z194" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AA194" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB194" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC194" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AD194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE194" t="n">
         <v>2.87</v>
       </c>
-      <c r="AE194" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AF194" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AG194" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH194" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AI194" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AJ194" t="n">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="AK194" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AL194" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="AM194" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="AN194" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AO194" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.2</v>
+        <v>0.82</v>
       </c>
       <c r="AR194" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.21</v>
+        <v>0.86</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="AU194" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AV194" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AW194" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AX194" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="AY194" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ194" t="n">
-        <v>1.97</v>
+        <v>2.37</v>
       </c>
       <c r="BA194" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="BB194" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="BC194" t="n">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="BD194" t="n">
-        <v>2.19</v>
+        <v>2.71</v>
       </c>
       <c r="BE194" t="n">
-        <v>2.93</v>
+        <v>3.74</v>
       </c>
       <c r="BF194" t="n">
         <v>3</v>
@@ -39921,13 +39921,13 @@
         <v>4</v>
       </c>
       <c r="BH194" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI194" t="n">
         <v>5</v>
       </c>
       <c r="BJ194" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK194" t="n">
         <v>9</v>
@@ -39938,7 +39938,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>4407823</v>
+        <v>4407824</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -39958,164 +39958,164 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="Q195" t="n">
         <v>2</v>
       </c>
       <c r="R195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S195" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T195" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="U195" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V195" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="W195" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="X195" t="n">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="Y195" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Z195" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ195" t="n">
         <v>1.2</v>
       </c>
-      <c r="AA195" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB195" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC195" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AD195" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE195" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AF195" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG195" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH195" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI195" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ195" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK195" t="n">
+      <c r="AR195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU195" t="n">
         <v>1.36</v>
       </c>
-      <c r="AL195" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM195" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN195" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO195" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP195" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ195" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AR195" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AS195" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AT195" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU195" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AV195" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AW195" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AX195" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AY195" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="AZ195" t="n">
-        <v>2.37</v>
+        <v>1.97</v>
       </c>
       <c r="BA195" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="BB195" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="BC195" t="n">
-        <v>2.07</v>
+        <v>1.76</v>
       </c>
       <c r="BD195" t="n">
-        <v>2.71</v>
+        <v>2.19</v>
       </c>
       <c r="BE195" t="n">
-        <v>3.74</v>
+        <v>2.93</v>
       </c>
       <c r="BF195" t="n">
         <v>3</v>
@@ -40124,13 +40124,13 @@
         <v>4</v>
       </c>
       <c r="BH195" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI195" t="n">
         <v>5</v>
       </c>
       <c r="BJ195" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK195" t="n">
         <v>9</v>
@@ -40691,7 +40691,7 @@
         <v>1.54</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU198" t="n">
         <v>1.68</v>
@@ -40891,7 +40891,7 @@
         <v>2.1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT199" t="n">
         <v>2.07</v>
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>4407831</v>
+        <v>4407830</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40973,182 +40973,182 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
         <v>7</v>
       </c>
-      <c r="R200" t="n">
-        <v>5</v>
-      </c>
-      <c r="S200" t="n">
-        <v>12</v>
-      </c>
-      <c r="T200" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U200" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V200" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X200" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AH200" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI200" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ200" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK200" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL200" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM200" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN200" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO200" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AW200" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AX200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE200" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF200" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG200" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH200" t="n">
+      <c r="BI200" t="n">
         <v>10</v>
       </c>
-      <c r="BI200" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ200" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK200" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
@@ -41156,7 +41156,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>4407830</v>
+        <v>4407831</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -41176,182 +41176,182 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R201" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S201" t="n">
+        <v>12</v>
+      </c>
+      <c r="T201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
         <v>6</v>
       </c>
-      <c r="T201" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U201" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V201" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W201" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X201" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="Y201" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="Z201" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA201" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB201" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC201" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AD201" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE201" t="n">
+      <c r="BG201" t="n">
         <v>6</v>
       </c>
-      <c r="AF201" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG201" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="AH201" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI201" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AJ201" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AK201" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL201" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AM201" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AN201" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO201" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP201" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AQ201" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AR201" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AS201" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AT201" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AU201" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AV201" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AW201" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AX201" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY201" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ201" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="BA201" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BB201" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BC201" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BD201" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE201" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF201" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG201" t="n">
+      <c r="BH201" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI201" t="n">
         <v>5</v>
       </c>
-      <c r="BH201" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI201" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ201" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK201" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>4407832</v>
+        <v>4407836</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,182 +41379,182 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
         <v>4</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1</v>
-      </c>
-      <c r="K202" t="n">
-        <v>5</v>
-      </c>
-      <c r="L202" t="n">
-        <v>4</v>
-      </c>
-      <c r="M202" t="n">
-        <v>3</v>
-      </c>
-      <c r="N202" t="n">
-        <v>7</v>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>['2', '21', '33', '43']</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>['24', '71', '88']</t>
-        </is>
-      </c>
-      <c r="Q202" t="n">
-        <v>1</v>
       </c>
       <c r="R202" t="n">
         <v>5</v>
       </c>
       <c r="S202" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T202" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="U202" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V202" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W202" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X202" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="Y202" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Z202" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA202" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB202" t="n">
         <v>1.05</v>
       </c>
       <c r="AC202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC202" t="n">
         <v>1.94</v>
       </c>
-      <c r="AD202" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP202" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AQ202" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AR202" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AS202" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AT202" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AU202" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AV202" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AW202" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AX202" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AY202" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ202" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="BA202" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BB202" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BC202" t="n">
-        <v>2.15</v>
-      </c>
       <c r="BD202" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="BE202" t="n">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="BF202" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG202" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH202" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI202" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ202" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK202" t="n">
         <v>12</v>
-      </c>
-      <c r="BK202" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="203">
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>4407836</v>
+        <v>4407832</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41582,182 +41582,182 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N203" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['2', '21', '33', '43']</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['24', '71', '88']</t>
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R203" t="n">
         <v>5</v>
       </c>
       <c r="S203" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T203" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="U203" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V203" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W203" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X203" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="Y203" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Z203" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AA203" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB203" t="n">
         <v>1.05</v>
       </c>
       <c r="AC203" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="AD203" t="n">
-        <v>3.22</v>
+        <v>3.19</v>
       </c>
       <c r="AE203" t="n">
-        <v>4.59</v>
+        <v>4.08</v>
       </c>
       <c r="AF203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR203" t="n">
         <v>1.1</v>
       </c>
-      <c r="AG203" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH203" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI203" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AJ203" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK203" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL203" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP203" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AR203" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AS203" t="n">
-        <v>2.08</v>
+        <v>0.93</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.36</v>
+        <v>1.07</v>
       </c>
       <c r="AU203" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AV203" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AW203" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AX203" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AY203" t="n">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="AZ203" t="n">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="BA203" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="BB203" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="BC203" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="BD203" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="BE203" t="n">
-        <v>3.42</v>
+        <v>3.8</v>
       </c>
       <c r="BF203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH203" t="n">
         <v>5</v>
       </c>
-      <c r="BG203" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH203" t="n">
-        <v>6</v>
-      </c>
       <c r="BI203" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK203" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
@@ -42171,7 +42171,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>4407839</v>
+        <v>4407842</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -42191,12 +42191,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="I206" t="n">
@@ -42212,10 +42212,10 @@
         <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -42224,134 +42224,134 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q206" t="n">
         <v>5</v>
       </c>
       <c r="R206" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S206" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T206" t="n">
-        <v>4.72</v>
+        <v>5.43</v>
       </c>
       <c r="U206" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="V206" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="W206" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X206" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD206" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y206" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z206" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA206" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB206" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC206" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AD206" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE206" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AF206" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG206" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH206" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI206" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AJ206" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AK206" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AL206" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM206" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN206" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AO206" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP206" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AQ206" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AR206" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AS206" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AT206" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU206" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AV206" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AW206" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX206" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AY206" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ206" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BA206" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BB206" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BC206" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BD206" t="n">
-        <v>3.08</v>
-      </c>
       <c r="BE206" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="BF206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG206" t="n">
         <v>6</v>
@@ -42360,13 +42360,13 @@
         <v>7</v>
       </c>
       <c r="BI206" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ206" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK206" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -42374,7 +42374,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>4407842</v>
+        <v>4407839</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -42394,12 +42394,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="I207" t="n">
@@ -42415,10 +42415,10 @@
         <v>0</v>
       </c>
       <c r="M207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -42427,134 +42427,134 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q207" t="n">
         <v>5</v>
       </c>
       <c r="R207" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S207" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T207" t="n">
-        <v>5.43</v>
+        <v>4.72</v>
       </c>
       <c r="U207" t="n">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="V207" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="W207" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA207" t="n">
         <v>1.46</v>
       </c>
-      <c r="X207" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Y207" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Z207" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA207" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB207" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC207" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AD207" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE207" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AF207" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG207" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH207" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI207" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AJ207" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK207" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AL207" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AM207" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN207" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AO207" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP207" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AQ207" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AR207" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AS207" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AT207" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU207" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AV207" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AW207" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AX207" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AY207" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ207" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BA207" t="n">
-        <v>1.31</v>
-      </c>
       <c r="BB207" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="BC207" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="BD207" t="n">
-        <v>2.5</v>
+        <v>3.08</v>
       </c>
       <c r="BE207" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="BF207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG207" t="n">
         <v>6</v>
@@ -42563,13 +42563,13 @@
         <v>7</v>
       </c>
       <c r="BI207" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ207" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK207" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
@@ -42577,7 +42577,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>4407843</v>
+        <v>4407845</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -42597,182 +42597,182 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>0</v>
       </c>
       <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>5</v>
+      </c>
+      <c r="R208" t="n">
+        <v>4</v>
+      </c>
+      <c r="S208" t="n">
+        <v>9</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF208" t="n">
         <v>3</v>
       </c>
-      <c r="N208" t="n">
-        <v>3</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P208" t="inlineStr">
-        <is>
-          <t>['14', '45+2', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q208" t="n">
-        <v>7</v>
-      </c>
-      <c r="R208" t="n">
-        <v>0</v>
-      </c>
-      <c r="S208" t="n">
-        <v>7</v>
-      </c>
-      <c r="T208" t="n">
-        <v>5</v>
-      </c>
-      <c r="U208" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V208" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W208" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X208" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y208" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Z208" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA208" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB208" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC208" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD208" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE208" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AF208" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG208" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AH208" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AI208" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ208" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AK208" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL208" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM208" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN208" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AO208" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP208" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AQ208" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR208" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS208" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AT208" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AU208" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AV208" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AW208" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AX208" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AY208" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ208" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BA208" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BB208" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="BC208" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="BD208" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="BE208" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF208" t="n">
+      <c r="BG208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI208" t="n">
         <v>4</v>
       </c>
-      <c r="BG208" t="n">
+      <c r="BJ208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK208" t="n">
         <v>6</v>
-      </c>
-      <c r="BH208" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI208" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ208" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK208" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="209">
@@ -42921,7 +42921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT209" t="n">
         <v>1.36</v>
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>4407845</v>
+        <v>4407843</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,31 +43003,31 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L210" t="n">
         <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
@@ -43036,149 +43036,149 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '45+2', '90+1']</t>
         </is>
       </c>
       <c r="Q210" t="n">
+        <v>7</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" t="n">
+        <v>7</v>
+      </c>
+      <c r="T210" t="n">
         <v>5</v>
       </c>
-      <c r="R210" t="n">
+      <c r="U210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" t="n">
         <v>4</v>
       </c>
-      <c r="S210" t="n">
+      <c r="BG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH210" t="n">
         <v>9</v>
       </c>
-      <c r="T210" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U210" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V210" t="n">
-        <v>4</v>
-      </c>
-      <c r="W210" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X210" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Z210" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA210" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB210" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC210" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD210" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE210" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AF210" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH210" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI210" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ210" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK210" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL210" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM210" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN210" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO210" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP210" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ210" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR210" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS210" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT210" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AU210" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ210" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BA210" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB210" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BC210" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BD210" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BE210" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="BF210" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG210" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH210" t="n">
-        <v>8</v>
-      </c>
       <c r="BI210" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ210" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK210" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211">
@@ -43186,7 +43186,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>4407840</v>
+        <v>4407847</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -43206,182 +43206,182 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" t="n">
         <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '81', '90']</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>['31', '90+1', '90+3']</t>
+          <t>['90+3']</t>
         </is>
       </c>
       <c r="Q211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R211" t="n">
+        <v>11</v>
+      </c>
+      <c r="S211" t="n">
+        <v>15</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF211" t="n">
         <v>5</v>
       </c>
-      <c r="S211" t="n">
-        <v>8</v>
-      </c>
-      <c r="T211" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="U211" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V211" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W211" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X211" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y211" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Z211" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA211" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB211" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC211" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD211" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE211" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AF211" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG211" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH211" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI211" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ211" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AK211" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL211" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AM211" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN211" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AO211" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP211" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AQ211" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR211" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS211" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT211" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AU211" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV211" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AW211" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX211" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AY211" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ211" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BA211" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB211" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BC211" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BD211" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BE211" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BF211" t="n">
-        <v>3</v>
-      </c>
       <c r="BG211" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH211" t="n">
         <v>1</v>
       </c>
       <c r="BI211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ211" t="n">
         <v>6</v>
       </c>
-      <c r="BJ211" t="n">
-        <v>4</v>
-      </c>
       <c r="BK211" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212">
@@ -43592,7 +43592,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>4407847</v>
+        <v>4407840</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -43612,182 +43612,182 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213" t="n">
         <v>1</v>
       </c>
       <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
         <v>3</v>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
       <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['31', '90+1', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>5</v>
+      </c>
+      <c r="S213" t="n">
+        <v>8</v>
+      </c>
+      <c r="T213" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC213" t="n">
         <v>4</v>
       </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>['6', '81', '90']</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>['90+3']</t>
-        </is>
-      </c>
-      <c r="Q213" t="n">
+      <c r="AD213" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ213" t="n">
         <v>4</v>
       </c>
-      <c r="R213" t="n">
+      <c r="BK213" t="n">
         <v>11</v>
-      </c>
-      <c r="S213" t="n">
-        <v>15</v>
-      </c>
-      <c r="T213" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U213" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V213" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="W213" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X213" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y213" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z213" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA213" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB213" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC213" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AD213" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AF213" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG213" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH213" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI213" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ213" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AK213" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AL213" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AM213" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN213" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO213" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP213" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AQ213" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AR213" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AS213" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AT213" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AU213" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV213" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW213" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX213" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY213" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AZ213" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BA213" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB213" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC213" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BD213" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE213" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="BF213" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG213" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH213" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI213" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ213" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK213" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="214">
@@ -44404,7 +44404,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>4407849</v>
+        <v>4407848</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -44424,22 +44424,22 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217" t="n">
         <v>2</v>
@@ -44452,7 +44452,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>['90', '90+4']</t>
+          <t>['9', '51']</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -44461,145 +44461,145 @@
         </is>
       </c>
       <c r="Q217" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R217" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S217" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T217" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="U217" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="V217" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="W217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN217" t="n">
         <v>1.35</v>
       </c>
-      <c r="X217" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y217" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z217" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA217" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB217" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC217" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD217" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE217" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF217" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG217" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH217" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI217" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AJ217" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK217" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL217" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AM217" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AN217" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AO217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV217" t="n">
         <v>1.14</v>
       </c>
-      <c r="AP217" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AQ217" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AR217" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS217" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT217" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AU217" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AV217" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AW217" t="n">
-        <v>2.92</v>
+        <v>2.26</v>
       </c>
       <c r="AX217" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AY217" t="n">
-        <v>10.25</v>
+        <v>8.9</v>
       </c>
       <c r="AZ217" t="n">
-        <v>4.2</v>
+        <v>2.53</v>
       </c>
       <c r="BA217" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BB217" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="BC217" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BD217" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="BE217" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="BF217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH217" t="n">
         <v>6</v>
       </c>
-      <c r="BG217" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH217" t="n">
-        <v>8</v>
-      </c>
       <c r="BI217" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BJ217" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK217" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218">
@@ -44607,7 +44607,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>4407848</v>
+        <v>4407849</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -44627,22 +44627,22 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>2</v>
@@ -44655,7 +44655,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>['9', '51']</t>
+          <t>['90', '90+4']</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -44664,145 +44664,145 @@
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R218" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S218" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T218" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="U218" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="V218" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="W218" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="X218" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS218" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y218" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z218" t="n">
+      <c r="AT218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV218" t="n">
         <v>1.29</v>
       </c>
-      <c r="AA218" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB218" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC218" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD218" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE218" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AF218" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI218" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ218" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK218" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL218" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM218" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN218" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO218" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP218" t="n">
+      <c r="AW218" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB218" t="n">
         <v>1.6</v>
       </c>
-      <c r="AQ218" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR218" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AS218" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT218" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU218" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AV218" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW218" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AX218" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AY218" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ218" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BA218" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB218" t="n">
-        <v>1.45</v>
-      </c>
       <c r="BC218" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="BD218" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="BE218" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="BF218" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH218" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ218" t="n">
         <v>14</v>
       </c>
-      <c r="BJ218" t="n">
-        <v>11</v>
-      </c>
       <c r="BK218" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -44810,7 +44810,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>4407851</v>
+        <v>4407855</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -44830,179 +44830,179 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42', '66', '70']</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="Q219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R219" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S219" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T219" t="n">
-        <v>4.73</v>
+        <v>2.87</v>
       </c>
       <c r="U219" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="V219" t="n">
-        <v>2.89</v>
+        <v>4.75</v>
       </c>
       <c r="W219" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="X219" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Y219" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Z219" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AA219" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AB219" t="n">
         <v>1.03</v>
       </c>
       <c r="AC219" t="n">
-        <v>4.14</v>
+        <v>1.95</v>
       </c>
       <c r="AD219" t="n">
         <v>2.85</v>
       </c>
       <c r="AE219" t="n">
-        <v>1.95</v>
+        <v>4.14</v>
       </c>
       <c r="AF219" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AG219" t="n">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="AH219" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI219" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AJ219" t="n">
-        <v>2.44</v>
+        <v>2.73</v>
       </c>
       <c r="AK219" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AL219" t="n">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="AM219" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS219" t="n">
         <v>1.64</v>
       </c>
-      <c r="AN219" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO219" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP219" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ219" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AR219" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AS219" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AT219" t="n">
-        <v>2.07</v>
+        <v>0.86</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AV219" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="AW219" t="n">
-        <v>2.79</v>
+        <v>2.34</v>
       </c>
       <c r="AX219" t="n">
-        <v>2.19</v>
+        <v>1.73</v>
       </c>
       <c r="AY219" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ219" t="n">
-        <v>1.89</v>
+        <v>2.43</v>
       </c>
       <c r="BA219" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BB219" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="BC219" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="BD219" t="n">
-        <v>2.71</v>
+        <v>2.42</v>
       </c>
       <c r="BE219" t="n">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
       <c r="BF219" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH219" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI219" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ219" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BK219" t="n">
         <v>10</v>
@@ -45013,7 +45013,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>4407855</v>
+        <v>4407851</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -45033,179 +45033,179 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
       </c>
       <c r="K220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
         <v>3</v>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="n">
-        <v>4</v>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>['42', '66', '70']</t>
-        </is>
-      </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>['82']</t>
-        </is>
-      </c>
-      <c r="Q220" t="n">
-        <v>4</v>
-      </c>
       <c r="R220" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S220" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T220" t="n">
-        <v>2.87</v>
+        <v>4.73</v>
       </c>
       <c r="U220" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V220" t="n">
-        <v>4.75</v>
+        <v>2.89</v>
       </c>
       <c r="W220" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X220" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Y220" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Z220" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AA220" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AB220" t="n">
         <v>1.03</v>
       </c>
       <c r="AC220" t="n">
-        <v>1.95</v>
+        <v>4.14</v>
       </c>
       <c r="AD220" t="n">
         <v>2.85</v>
       </c>
       <c r="AE220" t="n">
-        <v>4.14</v>
+        <v>1.95</v>
       </c>
       <c r="AF220" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AG220" t="n">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="AH220" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AI220" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AJ220" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="AK220" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AL220" t="n">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="AM220" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="AN220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS220" t="n">
         <v>1.23</v>
       </c>
-      <c r="AO220" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AP220" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ220" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AR220" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS220" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AT220" t="n">
-        <v>0.86</v>
+        <v>2.07</v>
       </c>
       <c r="AU220" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AV220" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AW220" t="n">
-        <v>2.34</v>
+        <v>2.79</v>
       </c>
       <c r="AX220" t="n">
-        <v>1.73</v>
+        <v>2.19</v>
       </c>
       <c r="AY220" t="n">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AZ220" t="n">
-        <v>2.43</v>
+        <v>1.89</v>
       </c>
       <c r="BA220" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BB220" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="BC220" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="BD220" t="n">
-        <v>2.42</v>
+        <v>2.71</v>
       </c>
       <c r="BE220" t="n">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
       <c r="BF220" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
         <v>4</v>
       </c>
-      <c r="BH220" t="n">
-        <v>9</v>
-      </c>
       <c r="BI220" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ220" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BK220" t="n">
         <v>10</v>
@@ -45360,7 +45360,7 @@
         <v>1.64</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AU221" t="n">
         <v>1.36</v>
@@ -45969,7 +45969,7 @@
         <v>1.64</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU224" t="n">
         <v>1.37</v>
@@ -46778,7 +46778,7 @@
         <v>1.5</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT228" t="n">
         <v>1.62</v>
@@ -47187,7 +47187,7 @@
         <v>1.21</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU230" t="n">
         <v>1.36</v>
@@ -47246,7 +47246,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>4407859</v>
+        <v>4407858</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -47266,182 +47266,182 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K231" t="n">
         <v>2</v>
       </c>
       <c r="L231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N231" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>['45+3']</t>
+          <t>['6', '15']</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>['14']</t>
+          <t>['48', '78', '90+5']</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R231" t="n">
         <v>3</v>
       </c>
       <c r="S231" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T231" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="U231" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="V231" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI231" t="n">
         <v>5</v>
       </c>
-      <c r="W231" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X231" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z231" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA231" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB231" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC231" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AD231" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE231" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF231" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG231" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AH231" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI231" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ231" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AK231" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AL231" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM231" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN231" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO231" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AP231" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AQ231" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AR231" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AS231" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT231" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AU231" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AV231" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AW231" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AX231" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AY231" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ231" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BA231" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB231" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC231" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BD231" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BE231" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF231" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG231" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH231" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI231" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ231" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BK231" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -47449,7 +47449,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>4407858</v>
+        <v>4407859</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -47469,182 +47469,182 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232" t="n">
         <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N232" t="n">
+        <v>2</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
         <v>5</v>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>['6', '15']</t>
-        </is>
-      </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t>['48', '78', '90+5']</t>
-        </is>
-      </c>
-      <c r="Q232" t="n">
-        <v>6</v>
       </c>
       <c r="R232" t="n">
         <v>3</v>
       </c>
       <c r="S232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T232" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="U232" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="V232" t="n">
-        <v>2.83</v>
+        <v>5</v>
       </c>
       <c r="W232" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X232" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="Y232" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="Z232" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AA232" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB232" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AC232" t="n">
-        <v>3.6</v>
+        <v>2.39</v>
       </c>
       <c r="AD232" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AE232" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AF232" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AG232" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AH232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM232" t="n">
         <v>1.57</v>
       </c>
-      <c r="AI232" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ232" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AK232" t="n">
+      <c r="AN232" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO232" t="n">
         <v>1.42</v>
       </c>
-      <c r="AL232" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AM232" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AN232" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AO232" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AP232" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.91</v>
+        <v>1.58</v>
       </c>
       <c r="AR232" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.77</v>
+        <v>1.54</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="AU232" t="n">
-        <v>1.07</v>
+        <v>1.58</v>
       </c>
       <c r="AV232" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AW232" t="n">
-        <v>2.27</v>
+        <v>2.77</v>
       </c>
       <c r="AX232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ232" t="n">
         <v>2.4</v>
       </c>
-      <c r="AY232" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AZ232" t="n">
-        <v>1.87</v>
-      </c>
       <c r="BA232" t="n">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="BB232" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="BC232" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="BD232" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BE232" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BF232" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG232" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BH232" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BI232" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ232" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BK232" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
@@ -48199,7 +48199,7 @@
         <v>1.46</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT235" t="n">
         <v>1.36</v>
@@ -49878,6 +49878,615 @@
       </c>
       <c r="BK243" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4407875</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45067.54166666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>29</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>6</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2</v>
+      </c>
+      <c r="S244" t="n">
+        <v>8</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V244" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4407880</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45067.64583333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>29</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['29', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>6</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>9</v>
+      </c>
+      <c r="T245" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4407878</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45068.54166666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>29</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>3</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['34', '73']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>4</v>
+      </c>
+      <c r="R246" t="n">
+        <v>5</v>
+      </c>
+      <c r="S246" t="n">
+        <v>9</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U246" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.21</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.21</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT15" t="n">
         <v>1.07</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT18" t="n">
         <v>1.27</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT22" t="n">
         <v>0.71</v>
@@ -5775,7 +5775,7 @@
         <v>0.87</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -6790,7 +6790,7 @@
         <v>0.77</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT33" t="n">
         <v>0.86</v>
@@ -9226,7 +9226,7 @@
         <v>1.27</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU43" t="n">
         <v>1.83</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT50" t="n">
         <v>1.33</v>
@@ -11053,7 +11053,7 @@
         <v>2.08</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>1.21</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.21</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT70" t="n">
         <v>0.53</v>
@@ -14910,7 +14910,7 @@
         <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
         <v>0.92</v>
@@ -15722,7 +15722,7 @@
         <v>0.87</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT85" t="n">
         <v>0.4</v>
@@ -18158,7 +18158,7 @@
         <v>1.27</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU87" t="n">
         <v>1.71</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT94" t="n">
         <v>1.27</v>
@@ -19782,7 +19782,7 @@
         <v>2.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -21000,7 +21000,7 @@
         <v>1.21</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU101" t="n">
         <v>0.99</v>
@@ -22418,7 +22418,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT108" t="n">
         <v>1.33</v>
@@ -23233,7 +23233,7 @@
         <v>1.79</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT113" t="n">
         <v>1.33</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT120" t="n">
         <v>1.07</v>
@@ -26278,7 +26278,7 @@
         <v>2.08</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -27290,7 +27290,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT132" t="n">
         <v>0.4</v>
@@ -28105,7 +28105,7 @@
         <v>0.93</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.31</v>
@@ -30335,7 +30335,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT147" t="n">
         <v>1.07</v>
@@ -31147,10 +31147,10 @@
         <v>1.38</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -32162,7 +32162,7 @@
         <v>0.88</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT156" t="n">
         <v>1.07</v>
@@ -33789,7 +33789,7 @@
         <v>1.13</v>
       </c>
       <c r="AT164" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU164" t="n">
         <v>1.43</v>
@@ -34601,7 +34601,7 @@
         <v>1.43</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU168" t="n">
         <v>1.74</v>
@@ -35207,7 +35207,7 @@
         <v>1.44</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT171" t="n">
         <v>1.21</v>
@@ -38255,7 +38255,7 @@
         <v>1.64</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU186" t="n">
         <v>1.39</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU198" t="n">
         <v>1.68</v>
@@ -40891,7 +40891,7 @@
         <v>2.1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT199" t="n">
         <v>2.07</v>
@@ -43327,7 +43327,7 @@
         <v>1.64</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT211" t="n">
         <v>1.5</v>
@@ -43533,7 +43533,7 @@
         <v>1.13</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU212" t="n">
         <v>1.4</v>
@@ -44345,7 +44345,7 @@
         <v>0.93</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AU216" t="n">
         <v>1.47</v>
@@ -45357,7 +45357,7 @@
         <v>2.25</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT221" t="n">
         <v>2.07</v>
@@ -46372,7 +46372,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT226" t="n">
         <v>0.86</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT241" t="n">
         <v>1</v>
@@ -50232,7 +50232,7 @@
         <v>1.27</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU245" t="n">
         <v>1.51</v>
@@ -50432,7 +50432,7 @@
         <v>1.21</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT246" t="n">
         <v>1.33</v>
@@ -51908,6 +51908,412 @@
       </c>
       <c r="BK253" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4407814</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45072.58333333334</v>
+      </c>
+      <c r="F254" t="n">
+        <v>22</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>2</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['46', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="n">
+        <v>5</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V254" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4407860</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45075.54166666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>27</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['19', '71']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>6</v>
+      </c>
+      <c r="S255" t="n">
+        <v>8</v>
+      </c>
+      <c r="T255" t="n">
+        <v>5</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V255" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,24 @@
     <t>['88', '90+2']</t>
   </si>
   <si>
+    <t>['22', '32', '61']</t>
+  </si>
+  <si>
+    <t>['17', '79']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['18', '45']</t>
+  </si>
+  <si>
+    <t>['23', '49']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -728,9 +746,6 @@
   </si>
   <si>
     <t>['36', '60']</t>
-  </si>
-  <si>
-    <t>['66']</t>
   </si>
   <si>
     <t>['68']</t>
@@ -977,6 +992,9 @@
   </si>
   <si>
     <t>['19', '71']</t>
+  </si>
+  <si>
+    <t>['42', '90+19']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1582,7 +1600,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1672,7 +1690,7 @@
         <v>1.13</v>
       </c>
       <c r="AT2">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1860,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1964,7 +1982,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2346,7 +2364,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2433,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>1.67</v>
@@ -2624,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2728,7 +2746,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2815,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2919,7 +2937,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3006,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT9">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3388,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT11">
         <v>1.33</v>
@@ -3492,7 +3510,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3579,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -3773,7 +3791,7 @@
         <v>2.43</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3874,7 +3892,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4155,7 +4173,7 @@
         <v>1.64</v>
       </c>
       <c r="AT15">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4725,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
         <v>1.27</v>
@@ -5110,7 +5128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT20">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>1.11</v>
@@ -5680,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5871,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>0.68</v>
@@ -5975,7 +5993,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6062,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT25">
         <v>0.86</v>
@@ -6166,7 +6184,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6444,7 +6462,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>1.33</v>
@@ -6635,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT28">
         <v>0.53</v>
@@ -7020,7 +7038,7 @@
         <v>1.79</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU30">
         <v>1.91</v>
@@ -7208,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT31">
         <v>1.67</v>
@@ -7312,7 +7330,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7399,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT32">
         <v>1.27</v>
@@ -7503,7 +7521,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7593,7 +7611,7 @@
         <v>1.64</v>
       </c>
       <c r="AT33">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7885,7 +7903,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7975,7 +7993,7 @@
         <v>0.87</v>
       </c>
       <c r="AT35">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -8076,7 +8094,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8163,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT36">
         <v>1.33</v>
@@ -8267,7 +8285,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8354,7 +8372,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT37">
         <v>0.86</v>
@@ -8548,7 +8566,7 @@
         <v>1.21</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU38">
         <v>0.54</v>
@@ -9118,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT41">
         <v>1.33</v>
@@ -9222,7 +9240,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9312,7 +9330,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9413,7 +9431,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9604,7 +9622,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9691,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT44">
         <v>1.33</v>
@@ -9882,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>0.4</v>
@@ -9986,7 +10004,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10076,7 +10094,7 @@
         <v>0.93</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU46">
         <v>0.89</v>
@@ -10267,7 +10285,7 @@
         <v>1.79</v>
       </c>
       <c r="AT47">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU47">
         <v>1.74</v>
@@ -10455,7 +10473,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT48">
         <v>1.07</v>
@@ -10559,7 +10577,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10649,7 +10667,7 @@
         <v>1.27</v>
       </c>
       <c r="AT49">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.38</v>
@@ -10750,7 +10768,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10837,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT50">
         <v>1.33</v>
@@ -11219,7 +11237,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT52">
         <v>1.67</v>
@@ -11323,7 +11341,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11410,7 +11428,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
         <v>0.4</v>
@@ -11604,7 +11622,7 @@
         <v>1.21</v>
       </c>
       <c r="AT54">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU54">
         <v>0.89</v>
@@ -11795,7 +11813,7 @@
         <v>2.43</v>
       </c>
       <c r="AT55">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11896,7 +11914,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12087,7 +12105,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12174,10 +12192,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12368,7 +12386,7 @@
         <v>0.87</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU58">
         <v>0.97</v>
@@ -12660,7 +12678,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12747,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
         <v>1.27</v>
@@ -12938,7 +12956,7 @@
         <v>0.67</v>
       </c>
       <c r="AS61">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT61">
         <v>1.33</v>
@@ -13042,7 +13060,7 @@
         <v>119</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -13320,7 +13338,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT63">
         <v>1.33</v>
@@ -13514,7 +13532,7 @@
         <v>2.43</v>
       </c>
       <c r="AT64">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -13702,10 +13720,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13806,7 +13824,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13896,7 +13914,7 @@
         <v>0.93</v>
       </c>
       <c r="AT66">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -14087,7 +14105,7 @@
         <v>1.79</v>
       </c>
       <c r="AT67">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14275,10 +14293,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU68">
         <v>1.51</v>
@@ -14379,7 +14397,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14466,7 +14484,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT69">
         <v>1.07</v>
@@ -14657,7 +14675,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT70">
         <v>0.53</v>
@@ -14761,7 +14779,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15039,7 +15057,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT72">
         <v>0.4</v>
@@ -15143,7 +15161,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16098,7 +16116,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16185,7 +16203,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT78">
         <v>0.53</v>
@@ -16480,7 +16498,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16758,7 +16776,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT81">
         <v>1.33</v>
@@ -16952,7 +16970,7 @@
         <v>2.43</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -17140,10 +17158,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT83">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17331,10 +17349,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.04</v>
@@ -17435,7 +17453,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17522,7 +17540,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT85">
         <v>0.4</v>
@@ -17626,7 +17644,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17716,7 +17734,7 @@
         <v>1.73</v>
       </c>
       <c r="AT86">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU86">
         <v>1.01</v>
@@ -17817,7 +17835,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17904,7 +17922,7 @@
         <v>3</v>
       </c>
       <c r="AS87">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
         <v>2.8</v>
@@ -18008,7 +18026,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18098,7 +18116,7 @@
         <v>1.43</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18199,7 +18217,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18286,7 +18304,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT89">
         <v>1.07</v>
@@ -18480,7 +18498,7 @@
         <v>0.93</v>
       </c>
       <c r="AT90">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18581,7 +18599,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18668,7 +18686,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT91">
         <v>1.33</v>
@@ -18963,7 +18981,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19154,7 +19172,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19536,7 +19554,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19727,7 +19745,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19814,7 +19832,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT97">
         <v>0.4</v>
@@ -20199,7 +20217,7 @@
         <v>1.79</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU99">
         <v>1.26</v>
@@ -20491,7 +20509,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20578,7 +20596,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
         <v>2.8</v>
@@ -20769,10 +20787,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT102">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20960,10 +20978,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT103">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU103">
         <v>1.68</v>
@@ -21154,7 +21172,7 @@
         <v>1.43</v>
       </c>
       <c r="AT104">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU104">
         <v>1.64</v>
@@ -21255,7 +21273,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21342,10 +21360,10 @@
         <v>2.2</v>
       </c>
       <c r="AS105">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT105">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21533,7 +21551,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT106">
         <v>1.07</v>
@@ -21724,10 +21742,10 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21828,7 +21846,7 @@
         <v>146</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21915,7 +21933,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
         <v>1.33</v>
@@ -22019,7 +22037,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22210,7 +22228,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23738,7 +23756,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24016,10 +24034,10 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT119">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU119">
         <v>1</v>
@@ -24207,7 +24225,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
         <v>1.07</v>
@@ -24311,7 +24329,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24398,10 +24416,10 @@
         <v>2.33</v>
       </c>
       <c r="AS121">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU121">
         <v>1.04</v>
@@ -24589,10 +24607,10 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU122">
         <v>1.73</v>
@@ -24693,7 +24711,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24780,10 +24798,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT123">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU123">
         <v>1.59</v>
@@ -24971,7 +24989,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -25075,7 +25093,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25165,7 +25183,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU125">
         <v>1.61</v>
@@ -25266,7 +25284,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25353,10 +25371,10 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25457,7 +25475,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25544,7 +25562,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT127">
         <v>2.8</v>
@@ -25648,7 +25666,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26308,7 +26326,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -26603,7 +26621,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26794,7 +26812,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27176,7 +27194,7 @@
         <v>160</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27367,7 +27385,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27558,7 +27576,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27648,7 +27666,7 @@
         <v>1.21</v>
       </c>
       <c r="AT138">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>1.28</v>
@@ -27836,10 +27854,10 @@
         <v>1.29</v>
       </c>
       <c r="AS139">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT139">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU139">
         <v>1.64</v>
@@ -27940,7 +27958,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28131,7 +28149,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28218,10 +28236,10 @@
         <v>1.43</v>
       </c>
       <c r="AS141">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU141">
         <v>1.11</v>
@@ -28322,7 +28340,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28409,7 +28427,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT142">
         <v>0.86</v>
@@ -28513,7 +28531,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28600,10 +28618,10 @@
         <v>2.43</v>
       </c>
       <c r="AS143">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT143">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -28704,7 +28722,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28791,10 +28809,10 @@
         <v>1.29</v>
       </c>
       <c r="AS144">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT144">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28895,7 +28913,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28985,7 +29003,7 @@
         <v>0.87</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU145">
         <v>0.9399999999999999</v>
@@ -29086,7 +29104,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29277,7 +29295,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29555,7 +29573,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT148">
         <v>1.27</v>
@@ -30041,7 +30059,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30128,7 +30146,7 @@
         <v>1.38</v>
       </c>
       <c r="AS151">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT151">
         <v>1.67</v>
@@ -30513,7 +30531,7 @@
         <v>1.64</v>
       </c>
       <c r="AT153">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU153">
         <v>1.6</v>
@@ -30614,7 +30632,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31083,10 +31101,10 @@
         <v>0.88</v>
       </c>
       <c r="AS156">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT156">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.27</v>
@@ -31274,7 +31292,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT157">
         <v>1.33</v>
@@ -31378,7 +31396,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31847,7 +31865,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT160">
         <v>1.27</v>
@@ -31951,7 +31969,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32038,10 +32056,10 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT161">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32142,7 +32160,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32232,7 +32250,7 @@
         <v>0.87</v>
       </c>
       <c r="AT162">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU162">
         <v>1.15</v>
@@ -32420,7 +32438,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT163">
         <v>0.67</v>
@@ -32524,7 +32542,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32805,7 +32823,7 @@
         <v>1.21</v>
       </c>
       <c r="AT165">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -32993,7 +33011,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33184,10 +33202,10 @@
         <v>2.13</v>
       </c>
       <c r="AS167">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT167">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -33670,7 +33688,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33760,7 +33778,7 @@
         <v>1.27</v>
       </c>
       <c r="AT170">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU170">
         <v>1.44</v>
@@ -33861,7 +33879,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -33948,10 +33966,10 @@
         <v>1.44</v>
       </c>
       <c r="AS171">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT171">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU171">
         <v>1.32</v>
@@ -34052,7 +34070,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34139,7 +34157,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT172">
         <v>1.33</v>
@@ -34330,7 +34348,7 @@
         <v>0.4</v>
       </c>
       <c r="AS173">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT173">
         <v>0.53</v>
@@ -34524,7 +34542,7 @@
         <v>2.43</v>
       </c>
       <c r="AT174">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU174">
         <v>1.62</v>
@@ -35094,7 +35112,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT177">
         <v>1.33</v>
@@ -35285,7 +35303,7 @@
         <v>1.14</v>
       </c>
       <c r="AS178">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT178">
         <v>0.86</v>
@@ -35389,7 +35407,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35479,7 +35497,7 @@
         <v>0.87</v>
       </c>
       <c r="AT179">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU179">
         <v>1.2</v>
@@ -36153,7 +36171,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36240,10 +36258,10 @@
         <v>1.56</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT183">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -36344,7 +36362,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36434,7 +36452,7 @@
         <v>1.13</v>
       </c>
       <c r="AT184">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU184">
         <v>1.35</v>
@@ -36535,7 +36553,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36622,7 +36640,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT185">
         <v>1.27</v>
@@ -36813,7 +36831,7 @@
         <v>1.5</v>
       </c>
       <c r="AS186">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT186">
         <v>1.67</v>
@@ -36917,7 +36935,7 @@
         <v>191</v>
       </c>
       <c r="P187" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37195,7 +37213,7 @@
         <v>1.36</v>
       </c>
       <c r="AS188">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT188">
         <v>1.33</v>
@@ -37386,7 +37404,7 @@
         <v>0.36</v>
       </c>
       <c r="AS189">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT189">
         <v>0.53</v>
@@ -37580,7 +37598,7 @@
         <v>1.27</v>
       </c>
       <c r="AT190">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU190">
         <v>1.43</v>
@@ -37771,7 +37789,7 @@
         <v>1.73</v>
       </c>
       <c r="AT191">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU191">
         <v>1.15</v>
@@ -38150,7 +38168,7 @@
         <v>1.36</v>
       </c>
       <c r="AS193">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT193">
         <v>1.27</v>
@@ -38254,7 +38272,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38344,7 +38362,7 @@
         <v>1.13</v>
       </c>
       <c r="AT194">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU194">
         <v>1.36</v>
@@ -38445,7 +38463,7 @@
         <v>194</v>
       </c>
       <c r="P195" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q195">
         <v>11</v>
@@ -38917,7 +38935,7 @@
         <v>2.43</v>
       </c>
       <c r="AT197">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU197">
         <v>1.6</v>
@@ -39105,7 +39123,7 @@
         <v>1.36</v>
       </c>
       <c r="AS198">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT198">
         <v>1.67</v>
@@ -39299,7 +39317,7 @@
         <v>1.64</v>
       </c>
       <c r="AT199">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU199">
         <v>1.64</v>
@@ -39591,7 +39609,7 @@
         <v>197</v>
       </c>
       <c r="P201" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39869,7 +39887,7 @@
         <v>0.33</v>
       </c>
       <c r="AS202">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT202">
         <v>0.53</v>
@@ -39973,7 +39991,7 @@
         <v>198</v>
       </c>
       <c r="P203" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -40063,7 +40081,7 @@
         <v>0.93</v>
       </c>
       <c r="AT203">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU203">
         <v>1.45</v>
@@ -40164,7 +40182,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40251,7 +40269,7 @@
         <v>1.33</v>
       </c>
       <c r="AS204">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT204">
         <v>1.33</v>
@@ -40355,7 +40373,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40445,7 +40463,7 @@
         <v>1.73</v>
       </c>
       <c r="AT205">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU205">
         <v>1.18</v>
@@ -40636,7 +40654,7 @@
         <v>1.27</v>
       </c>
       <c r="AT206">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU206">
         <v>1.44</v>
@@ -40928,7 +40946,7 @@
         <v>83</v>
       </c>
       <c r="P208" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41015,7 +41033,7 @@
         <v>1.33</v>
       </c>
       <c r="AS208">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT208">
         <v>1.33</v>
@@ -41397,7 +41415,7 @@
         <v>1.36</v>
       </c>
       <c r="AS210">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT210">
         <v>1.33</v>
@@ -41591,7 +41609,7 @@
         <v>1.64</v>
       </c>
       <c r="AT211">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU211">
         <v>1.6</v>
@@ -41692,7 +41710,7 @@
         <v>83</v>
       </c>
       <c r="P212" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42161,7 +42179,7 @@
         <v>0.55</v>
       </c>
       <c r="AS214">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT214">
         <v>0.67</v>
@@ -42265,7 +42283,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42352,7 +42370,7 @@
         <v>1.23</v>
       </c>
       <c r="AS215">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT215">
         <v>1.33</v>
@@ -42456,7 +42474,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42734,10 +42752,10 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT217">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU217">
         <v>1.63</v>
@@ -42925,10 +42943,10 @@
         <v>1.17</v>
       </c>
       <c r="AS218">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT218">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU218">
         <v>1.12</v>
@@ -43116,7 +43134,7 @@
         <v>0.5</v>
       </c>
       <c r="AS219">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT219">
         <v>0.4</v>
@@ -43310,7 +43328,7 @@
         <v>1.73</v>
       </c>
       <c r="AT220">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU220">
         <v>1.19</v>
@@ -43498,10 +43516,10 @@
         <v>2.25</v>
       </c>
       <c r="AS221">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT221">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU221">
         <v>1.42</v>
@@ -43602,7 +43620,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43880,10 +43898,10 @@
         <v>1.33</v>
       </c>
       <c r="AS223">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT223">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU223">
         <v>1.51</v>
@@ -44071,7 +44089,7 @@
         <v>1.33</v>
       </c>
       <c r="AS224">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT224">
         <v>1.33</v>
@@ -44175,7 +44193,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44265,7 +44283,7 @@
         <v>1.79</v>
       </c>
       <c r="AT225">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU225">
         <v>1.34</v>
@@ -44453,10 +44471,10 @@
         <v>0.92</v>
       </c>
       <c r="AS226">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT226">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU226">
         <v>1.34</v>
@@ -44644,7 +44662,7 @@
         <v>1.09</v>
       </c>
       <c r="AS227">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT227">
         <v>0.86</v>
@@ -44748,7 +44766,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44838,7 +44856,7 @@
         <v>1.27</v>
       </c>
       <c r="AT228">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU228">
         <v>1.42</v>
@@ -44939,7 +44957,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45130,7 +45148,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45321,7 +45339,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45408,7 +45426,7 @@
         <v>0.31</v>
       </c>
       <c r="AS231">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT231">
         <v>0.53</v>
@@ -45512,7 +45530,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -45599,7 +45617,7 @@
         <v>0.5</v>
       </c>
       <c r="AS232">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT232">
         <v>0.67</v>
@@ -45981,7 +45999,7 @@
         <v>1.25</v>
       </c>
       <c r="AS234">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT234">
         <v>1.07</v>
@@ -46085,7 +46103,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46363,10 +46381,10 @@
         <v>0.85</v>
       </c>
       <c r="AS236">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT236">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46467,7 +46485,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46557,7 +46575,7 @@
         <v>1.43</v>
       </c>
       <c r="AT237">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU237">
         <v>1.61</v>
@@ -46745,10 +46763,10 @@
         <v>1.31</v>
       </c>
       <c r="AS238">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT238">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU238">
         <v>1.14</v>
@@ -46849,7 +46867,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -46936,7 +46954,7 @@
         <v>1.21</v>
       </c>
       <c r="AS239">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AT239">
         <v>1.33</v>
@@ -47130,7 +47148,7 @@
         <v>0.93</v>
       </c>
       <c r="AT240">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AU240">
         <v>1.43</v>
@@ -47231,7 +47249,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47318,7 +47336,7 @@
         <v>1</v>
       </c>
       <c r="AS241">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT241">
         <v>1</v>
@@ -47509,7 +47527,7 @@
         <v>1.15</v>
       </c>
       <c r="AS242">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT242">
         <v>1.07</v>
@@ -47700,10 +47718,10 @@
         <v>1.08</v>
       </c>
       <c r="AS243">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT243">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU243">
         <v>1.52</v>
@@ -47995,7 +48013,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48186,7 +48204,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48464,7 +48482,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS247">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT247">
         <v>0.67</v>
@@ -48759,7 +48777,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49231,7 +49249,7 @@
         <v>1.73</v>
       </c>
       <c r="AT251">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU251">
         <v>1.22</v>
@@ -49610,7 +49628,7 @@
         <v>0.43</v>
       </c>
       <c r="AS253">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT253">
         <v>0.4</v>
@@ -49714,7 +49732,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49801,7 +49819,7 @@
         <v>2.78</v>
       </c>
       <c r="AS254">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT254">
         <v>2.8</v>
@@ -49905,7 +49923,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50374,7 +50392,7 @@
         <v>0.71</v>
       </c>
       <c r="AS257">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AT257">
         <v>0.67</v>
@@ -50429,6 +50447,1534 @@
       </c>
       <c r="BK257">
         <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>6206639</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45077.54166666666</v>
+      </c>
+      <c r="F258">
+        <v>30</v>
+      </c>
+      <c r="G258" t="s">
+        <v>66</v>
+      </c>
+      <c r="H258" t="s">
+        <v>73</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="L258">
+        <v>3</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>4</v>
+      </c>
+      <c r="O258" t="s">
+        <v>226</v>
+      </c>
+      <c r="P258" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q258">
+        <v>1</v>
+      </c>
+      <c r="R258">
+        <v>7</v>
+      </c>
+      <c r="S258">
+        <v>8</v>
+      </c>
+      <c r="T258">
+        <v>2.67</v>
+      </c>
+      <c r="U258">
+        <v>2.02</v>
+      </c>
+      <c r="V258">
+        <v>5.16</v>
+      </c>
+      <c r="W258">
+        <v>1.54</v>
+      </c>
+      <c r="X258">
+        <v>2.46</v>
+      </c>
+      <c r="Y258">
+        <v>3.54</v>
+      </c>
+      <c r="Z258">
+        <v>1.27</v>
+      </c>
+      <c r="AA258">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB258">
+        <v>1.04</v>
+      </c>
+      <c r="AC258">
+        <v>2.02</v>
+      </c>
+      <c r="AD258">
+        <v>3.2</v>
+      </c>
+      <c r="AE258">
+        <v>3.2</v>
+      </c>
+      <c r="AF258">
+        <v>1.1</v>
+      </c>
+      <c r="AG258">
+        <v>6.57</v>
+      </c>
+      <c r="AH258">
+        <v>1.48</v>
+      </c>
+      <c r="AI258">
+        <v>2.63</v>
+      </c>
+      <c r="AJ258">
+        <v>2.45</v>
+      </c>
+      <c r="AK258">
+        <v>1.5</v>
+      </c>
+      <c r="AL258">
+        <v>2.16</v>
+      </c>
+      <c r="AM258">
+        <v>1.66</v>
+      </c>
+      <c r="AN258">
+        <v>1.21</v>
+      </c>
+      <c r="AO258">
+        <v>1.34</v>
+      </c>
+      <c r="AP258">
+        <v>1.86</v>
+      </c>
+      <c r="AQ258">
+        <v>1.64</v>
+      </c>
+      <c r="AR258">
+        <v>1.07</v>
+      </c>
+      <c r="AS258">
+        <v>1.73</v>
+      </c>
+      <c r="AT258">
+        <v>1</v>
+      </c>
+      <c r="AU258">
+        <v>1.39</v>
+      </c>
+      <c r="AV258">
+        <v>1.22</v>
+      </c>
+      <c r="AW258">
+        <v>2.61</v>
+      </c>
+      <c r="AX258">
+        <v>1.63</v>
+      </c>
+      <c r="AY258">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ258">
+        <v>2.64</v>
+      </c>
+      <c r="BA258">
+        <v>1.3</v>
+      </c>
+      <c r="BB258">
+        <v>1.64</v>
+      </c>
+      <c r="BC258">
+        <v>2.03</v>
+      </c>
+      <c r="BD258">
+        <v>2.6</v>
+      </c>
+      <c r="BE258">
+        <v>3.56</v>
+      </c>
+      <c r="BF258">
+        <v>6</v>
+      </c>
+      <c r="BG258">
+        <v>6</v>
+      </c>
+      <c r="BH258">
+        <v>5</v>
+      </c>
+      <c r="BI258">
+        <v>10</v>
+      </c>
+      <c r="BJ258">
+        <v>11</v>
+      </c>
+      <c r="BK258">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>6206640</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45077.64583333334</v>
+      </c>
+      <c r="F259">
+        <v>30</v>
+      </c>
+      <c r="G259" t="s">
+        <v>71</v>
+      </c>
+      <c r="H259" t="s">
+        <v>68</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>4</v>
+      </c>
+      <c r="O259" t="s">
+        <v>227</v>
+      </c>
+      <c r="P259" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q259">
+        <v>6</v>
+      </c>
+      <c r="R259">
+        <v>9</v>
+      </c>
+      <c r="S259">
+        <v>15</v>
+      </c>
+      <c r="T259">
+        <v>3.12</v>
+      </c>
+      <c r="U259">
+        <v>1.95</v>
+      </c>
+      <c r="V259">
+        <v>4.18</v>
+      </c>
+      <c r="W259">
+        <v>1.59</v>
+      </c>
+      <c r="X259">
+        <v>2.24</v>
+      </c>
+      <c r="Y259">
+        <v>3.62</v>
+      </c>
+      <c r="Z259">
+        <v>1.26</v>
+      </c>
+      <c r="AA259">
+        <v>10</v>
+      </c>
+      <c r="AB259">
+        <v>1.03</v>
+      </c>
+      <c r="AC259">
+        <v>2.25</v>
+      </c>
+      <c r="AD259">
+        <v>2.8</v>
+      </c>
+      <c r="AE259">
+        <v>3.1</v>
+      </c>
+      <c r="AF259">
+        <v>1.11</v>
+      </c>
+      <c r="AG259">
+        <v>5.81</v>
+      </c>
+      <c r="AH259">
+        <v>1.5</v>
+      </c>
+      <c r="AI259">
+        <v>2.4</v>
+      </c>
+      <c r="AJ259">
+        <v>2.55</v>
+      </c>
+      <c r="AK259">
+        <v>1.45</v>
+      </c>
+      <c r="AL259">
+        <v>2.11</v>
+      </c>
+      <c r="AM259">
+        <v>1.69</v>
+      </c>
+      <c r="AN259">
+        <v>1.3</v>
+      </c>
+      <c r="AO259">
+        <v>1.41</v>
+      </c>
+      <c r="AP259">
+        <v>1.59</v>
+      </c>
+      <c r="AQ259">
+        <v>1.5</v>
+      </c>
+      <c r="AR259">
+        <v>1.07</v>
+      </c>
+      <c r="AS259">
+        <v>1.47</v>
+      </c>
+      <c r="AT259">
+        <v>1.07</v>
+      </c>
+      <c r="AU259">
+        <v>1.58</v>
+      </c>
+      <c r="AV259">
+        <v>1.33</v>
+      </c>
+      <c r="AW259">
+        <v>2.91</v>
+      </c>
+      <c r="AX259">
+        <v>1.63</v>
+      </c>
+      <c r="AY259">
+        <v>9</v>
+      </c>
+      <c r="AZ259">
+        <v>2.63</v>
+      </c>
+      <c r="BA259">
+        <v>1.23</v>
+      </c>
+      <c r="BB259">
+        <v>1.49</v>
+      </c>
+      <c r="BC259">
+        <v>1.81</v>
+      </c>
+      <c r="BD259">
+        <v>2.25</v>
+      </c>
+      <c r="BE259">
+        <v>3.04</v>
+      </c>
+      <c r="BF259">
+        <v>7</v>
+      </c>
+      <c r="BG259">
+        <v>7</v>
+      </c>
+      <c r="BH259">
+        <v>11</v>
+      </c>
+      <c r="BI259">
+        <v>2</v>
+      </c>
+      <c r="BJ259">
+        <v>18</v>
+      </c>
+      <c r="BK259">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>6206641</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45078.54166666666</v>
+      </c>
+      <c r="F260">
+        <v>30</v>
+      </c>
+      <c r="G260" t="s">
+        <v>72</v>
+      </c>
+      <c r="H260" t="s">
+        <v>65</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>228</v>
+      </c>
+      <c r="P260" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q260">
+        <v>2</v>
+      </c>
+      <c r="R260">
+        <v>5</v>
+      </c>
+      <c r="S260">
+        <v>7</v>
+      </c>
+      <c r="T260">
+        <v>3.99</v>
+      </c>
+      <c r="U260">
+        <v>1.98</v>
+      </c>
+      <c r="V260">
+        <v>3.15</v>
+      </c>
+      <c r="W260">
+        <v>1.56</v>
+      </c>
+      <c r="X260">
+        <v>2.28</v>
+      </c>
+      <c r="Y260">
+        <v>3.5</v>
+      </c>
+      <c r="Z260">
+        <v>1.25</v>
+      </c>
+      <c r="AA260">
+        <v>9.5</v>
+      </c>
+      <c r="AB260">
+        <v>1.04</v>
+      </c>
+      <c r="AC260">
+        <v>3.25</v>
+      </c>
+      <c r="AD260">
+        <v>2.75</v>
+      </c>
+      <c r="AE260">
+        <v>2.33</v>
+      </c>
+      <c r="AF260">
+        <v>1.1</v>
+      </c>
+      <c r="AG260">
+        <v>6.07</v>
+      </c>
+      <c r="AH260">
+        <v>1.47</v>
+      </c>
+      <c r="AI260">
+        <v>2.57</v>
+      </c>
+      <c r="AJ260">
+        <v>2.4</v>
+      </c>
+      <c r="AK260">
+        <v>1.5</v>
+      </c>
+      <c r="AL260">
+        <v>2</v>
+      </c>
+      <c r="AM260">
+        <v>1.77</v>
+      </c>
+      <c r="AN260">
+        <v>1.44</v>
+      </c>
+      <c r="AO260">
+        <v>1.34</v>
+      </c>
+      <c r="AP260">
+        <v>1.28</v>
+      </c>
+      <c r="AQ260">
+        <v>0.77</v>
+      </c>
+      <c r="AR260">
+        <v>1</v>
+      </c>
+      <c r="AS260">
+        <v>0.93</v>
+      </c>
+      <c r="AT260">
+        <v>0.93</v>
+      </c>
+      <c r="AU260">
+        <v>1.08</v>
+      </c>
+      <c r="AV260">
+        <v>1.19</v>
+      </c>
+      <c r="AW260">
+        <v>2.27</v>
+      </c>
+      <c r="AX260">
+        <v>1.9</v>
+      </c>
+      <c r="AY260">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ260">
+        <v>2.19</v>
+      </c>
+      <c r="BA260">
+        <v>1.51</v>
+      </c>
+      <c r="BB260">
+        <v>1.88</v>
+      </c>
+      <c r="BC260">
+        <v>2.38</v>
+      </c>
+      <c r="BD260">
+        <v>3.28</v>
+      </c>
+      <c r="BE260">
+        <v>0</v>
+      </c>
+      <c r="BF260">
+        <v>3</v>
+      </c>
+      <c r="BG260">
+        <v>3</v>
+      </c>
+      <c r="BH260">
+        <v>2</v>
+      </c>
+      <c r="BI260">
+        <v>9</v>
+      </c>
+      <c r="BJ260">
+        <v>5</v>
+      </c>
+      <c r="BK260">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>6206642</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45078.64583333334</v>
+      </c>
+      <c r="F261">
+        <v>30</v>
+      </c>
+      <c r="G261" t="s">
+        <v>69</v>
+      </c>
+      <c r="H261" t="s">
+        <v>77</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>1</v>
+      </c>
+      <c r="O261" t="s">
+        <v>97</v>
+      </c>
+      <c r="P261" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q261">
+        <v>2</v>
+      </c>
+      <c r="R261">
+        <v>4</v>
+      </c>
+      <c r="S261">
+        <v>6</v>
+      </c>
+      <c r="T261">
+        <v>3.02</v>
+      </c>
+      <c r="U261">
+        <v>1.99</v>
+      </c>
+      <c r="V261">
+        <v>4.39</v>
+      </c>
+      <c r="W261">
+        <v>1.55</v>
+      </c>
+      <c r="X261">
+        <v>2.43</v>
+      </c>
+      <c r="Y261">
+        <v>3.54</v>
+      </c>
+      <c r="Z261">
+        <v>1.27</v>
+      </c>
+      <c r="AA261">
+        <v>9.9</v>
+      </c>
+      <c r="AB261">
+        <v>1.03</v>
+      </c>
+      <c r="AC261">
+        <v>2</v>
+      </c>
+      <c r="AD261">
+        <v>2.95</v>
+      </c>
+      <c r="AE261">
+        <v>3.85</v>
+      </c>
+      <c r="AF261">
+        <v>1.11</v>
+      </c>
+      <c r="AG261">
+        <v>6.51</v>
+      </c>
+      <c r="AH261">
+        <v>1.49</v>
+      </c>
+      <c r="AI261">
+        <v>2.5</v>
+      </c>
+      <c r="AJ261">
+        <v>2.45</v>
+      </c>
+      <c r="AK261">
+        <v>1.48</v>
+      </c>
+      <c r="AL261">
+        <v>2.09</v>
+      </c>
+      <c r="AM261">
+        <v>1.7</v>
+      </c>
+      <c r="AN261">
+        <v>1.28</v>
+      </c>
+      <c r="AO261">
+        <v>1.38</v>
+      </c>
+      <c r="AP261">
+        <v>1.65</v>
+      </c>
+      <c r="AQ261">
+        <v>1.21</v>
+      </c>
+      <c r="AR261">
+        <v>0.86</v>
+      </c>
+      <c r="AS261">
+        <v>1.33</v>
+      </c>
+      <c r="AT261">
+        <v>0.8</v>
+      </c>
+      <c r="AU261">
+        <v>1.17</v>
+      </c>
+      <c r="AV261">
+        <v>1.16</v>
+      </c>
+      <c r="AW261">
+        <v>2.33</v>
+      </c>
+      <c r="AX261">
+        <v>1.7</v>
+      </c>
+      <c r="AY261">
+        <v>7.5</v>
+      </c>
+      <c r="AZ261">
+        <v>2.61</v>
+      </c>
+      <c r="BA261">
+        <v>1.22</v>
+      </c>
+      <c r="BB261">
+        <v>1.49</v>
+      </c>
+      <c r="BC261">
+        <v>1.8</v>
+      </c>
+      <c r="BD261">
+        <v>2.23</v>
+      </c>
+      <c r="BE261">
+        <v>3.04</v>
+      </c>
+      <c r="BF261">
+        <v>3</v>
+      </c>
+      <c r="BG261">
+        <v>2</v>
+      </c>
+      <c r="BH261">
+        <v>4</v>
+      </c>
+      <c r="BI261">
+        <v>7</v>
+      </c>
+      <c r="BJ261">
+        <v>7</v>
+      </c>
+      <c r="BK261">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>6206643</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45079.54166666666</v>
+      </c>
+      <c r="F262">
+        <v>30</v>
+      </c>
+      <c r="G262" t="s">
+        <v>75</v>
+      </c>
+      <c r="H262" t="s">
+        <v>82</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>83</v>
+      </c>
+      <c r="P262" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q262">
+        <v>6</v>
+      </c>
+      <c r="R262">
+        <v>5</v>
+      </c>
+      <c r="S262">
+        <v>11</v>
+      </c>
+      <c r="T262">
+        <v>2.55</v>
+      </c>
+      <c r="U262">
+        <v>1.9</v>
+      </c>
+      <c r="V262">
+        <v>4.55</v>
+      </c>
+      <c r="W262">
+        <v>1.5</v>
+      </c>
+      <c r="X262">
+        <v>2.34</v>
+      </c>
+      <c r="Y262">
+        <v>3.5</v>
+      </c>
+      <c r="Z262">
+        <v>1.27</v>
+      </c>
+      <c r="AA262">
+        <v>10.75</v>
+      </c>
+      <c r="AB262">
+        <v>1.05</v>
+      </c>
+      <c r="AC262">
+        <v>1.85</v>
+      </c>
+      <c r="AD262">
+        <v>3.05</v>
+      </c>
+      <c r="AE262">
+        <v>4.23</v>
+      </c>
+      <c r="AF262">
+        <v>1.09</v>
+      </c>
+      <c r="AG262">
+        <v>7.5</v>
+      </c>
+      <c r="AH262">
+        <v>1.5</v>
+      </c>
+      <c r="AI262">
+        <v>2.45</v>
+      </c>
+      <c r="AJ262">
+        <v>2.36</v>
+      </c>
+      <c r="AK262">
+        <v>1.52</v>
+      </c>
+      <c r="AL262">
+        <v>2.1</v>
+      </c>
+      <c r="AM262">
+        <v>1.68</v>
+      </c>
+      <c r="AN262">
+        <v>1.2</v>
+      </c>
+      <c r="AO262">
+        <v>1.35</v>
+      </c>
+      <c r="AP262">
+        <v>1.86</v>
+      </c>
+      <c r="AQ262">
+        <v>1.27</v>
+      </c>
+      <c r="AR262">
+        <v>1</v>
+      </c>
+      <c r="AS262">
+        <v>1.25</v>
+      </c>
+      <c r="AT262">
+        <v>1</v>
+      </c>
+      <c r="AU262">
+        <v>1.52</v>
+      </c>
+      <c r="AV262">
+        <v>1.16</v>
+      </c>
+      <c r="AW262">
+        <v>2.68</v>
+      </c>
+      <c r="AX262">
+        <v>1.47</v>
+      </c>
+      <c r="AY262">
+        <v>8.4</v>
+      </c>
+      <c r="AZ262">
+        <v>3.26</v>
+      </c>
+      <c r="BA262">
+        <v>1.33</v>
+      </c>
+      <c r="BB262">
+        <v>1.65</v>
+      </c>
+      <c r="BC262">
+        <v>2.04</v>
+      </c>
+      <c r="BD262">
+        <v>2.64</v>
+      </c>
+      <c r="BE262">
+        <v>3.65</v>
+      </c>
+      <c r="BF262">
+        <v>6</v>
+      </c>
+      <c r="BG262">
+        <v>9</v>
+      </c>
+      <c r="BH262">
+        <v>7</v>
+      </c>
+      <c r="BI262">
+        <v>5</v>
+      </c>
+      <c r="BJ262">
+        <v>13</v>
+      </c>
+      <c r="BK262">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>6206644</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45079.64583333334</v>
+      </c>
+      <c r="F263">
+        <v>30</v>
+      </c>
+      <c r="G263" t="s">
+        <v>74</v>
+      </c>
+      <c r="H263" t="s">
+        <v>79</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" t="s">
+        <v>229</v>
+      </c>
+      <c r="P263" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q263">
+        <v>5</v>
+      </c>
+      <c r="R263">
+        <v>3</v>
+      </c>
+      <c r="S263">
+        <v>8</v>
+      </c>
+      <c r="T263">
+        <v>2.55</v>
+      </c>
+      <c r="U263">
+        <v>1.95</v>
+      </c>
+      <c r="V263">
+        <v>4.3</v>
+      </c>
+      <c r="W263">
+        <v>1.45</v>
+      </c>
+      <c r="X263">
+        <v>2.6</v>
+      </c>
+      <c r="Y263">
+        <v>3.05</v>
+      </c>
+      <c r="Z263">
+        <v>1.34</v>
+      </c>
+      <c r="AA263">
+        <v>8.5</v>
+      </c>
+      <c r="AB263">
+        <v>1.07</v>
+      </c>
+      <c r="AC263">
+        <v>1.87</v>
+      </c>
+      <c r="AD263">
+        <v>3.2</v>
+      </c>
+      <c r="AE263">
+        <v>3.88</v>
+      </c>
+      <c r="AF263">
+        <v>1.06</v>
+      </c>
+      <c r="AG263">
+        <v>9</v>
+      </c>
+      <c r="AH263">
+        <v>1.35</v>
+      </c>
+      <c r="AI263">
+        <v>3</v>
+      </c>
+      <c r="AJ263">
+        <v>2.03</v>
+      </c>
+      <c r="AK263">
+        <v>1.7</v>
+      </c>
+      <c r="AL263">
+        <v>1.83</v>
+      </c>
+      <c r="AM263">
+        <v>1.9</v>
+      </c>
+      <c r="AN263">
+        <v>1.23</v>
+      </c>
+      <c r="AO263">
+        <v>1.36</v>
+      </c>
+      <c r="AP263">
+        <v>1.8</v>
+      </c>
+      <c r="AQ263">
+        <v>2.54</v>
+      </c>
+      <c r="AR263">
+        <v>2.07</v>
+      </c>
+      <c r="AS263">
+        <v>2.57</v>
+      </c>
+      <c r="AT263">
+        <v>1.93</v>
+      </c>
+      <c r="AU263">
+        <v>1.75</v>
+      </c>
+      <c r="AV263">
+        <v>1.41</v>
+      </c>
+      <c r="AW263">
+        <v>3.16</v>
+      </c>
+      <c r="AX263">
+        <v>1.61</v>
+      </c>
+      <c r="AY263">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ263">
+        <v>2.76</v>
+      </c>
+      <c r="BA263">
+        <v>1.32</v>
+      </c>
+      <c r="BB263">
+        <v>1.63</v>
+      </c>
+      <c r="BC263">
+        <v>2.02</v>
+      </c>
+      <c r="BD263">
+        <v>2.6</v>
+      </c>
+      <c r="BE263">
+        <v>3.56</v>
+      </c>
+      <c r="BF263">
+        <v>3</v>
+      </c>
+      <c r="BG263">
+        <v>3</v>
+      </c>
+      <c r="BH263">
+        <v>7</v>
+      </c>
+      <c r="BI263">
+        <v>3</v>
+      </c>
+      <c r="BJ263">
+        <v>10</v>
+      </c>
+      <c r="BK263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>6206645</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45080.58333333334</v>
+      </c>
+      <c r="F264">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
+        <v>81</v>
+      </c>
+      <c r="H264" t="s">
+        <v>80</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>2</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>2</v>
+      </c>
+      <c r="O264" t="s">
+        <v>230</v>
+      </c>
+      <c r="P264" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q264">
+        <v>3</v>
+      </c>
+      <c r="R264">
+        <v>3</v>
+      </c>
+      <c r="S264">
+        <v>6</v>
+      </c>
+      <c r="T264">
+        <v>3.2</v>
+      </c>
+      <c r="U264">
+        <v>1.82</v>
+      </c>
+      <c r="V264">
+        <v>3.8</v>
+      </c>
+      <c r="W264">
+        <v>1.58</v>
+      </c>
+      <c r="X264">
+        <v>2.2</v>
+      </c>
+      <c r="Y264">
+        <v>3.6</v>
+      </c>
+      <c r="Z264">
+        <v>1.25</v>
+      </c>
+      <c r="AA264">
+        <v>10.5</v>
+      </c>
+      <c r="AB264">
+        <v>1.04</v>
+      </c>
+      <c r="AC264">
+        <v>2.1</v>
+      </c>
+      <c r="AD264">
+        <v>2.9</v>
+      </c>
+      <c r="AE264">
+        <v>3.3</v>
+      </c>
+      <c r="AF264">
+        <v>1.08</v>
+      </c>
+      <c r="AG264">
+        <v>5.9</v>
+      </c>
+      <c r="AH264">
+        <v>1.5</v>
+      </c>
+      <c r="AI264">
+        <v>2.5</v>
+      </c>
+      <c r="AJ264">
+        <v>2.35</v>
+      </c>
+      <c r="AK264">
+        <v>1.53</v>
+      </c>
+      <c r="AL264">
+        <v>2.05</v>
+      </c>
+      <c r="AM264">
+        <v>1.68</v>
+      </c>
+      <c r="AN264">
+        <v>1.34</v>
+      </c>
+      <c r="AO264">
+        <v>1.39</v>
+      </c>
+      <c r="AP264">
+        <v>1.51</v>
+      </c>
+      <c r="AQ264">
+        <v>1.14</v>
+      </c>
+      <c r="AR264">
+        <v>1.5</v>
+      </c>
+      <c r="AS264">
+        <v>1.27</v>
+      </c>
+      <c r="AT264">
+        <v>1.4</v>
+      </c>
+      <c r="AU264">
+        <v>1.27</v>
+      </c>
+      <c r="AV264">
+        <v>1.18</v>
+      </c>
+      <c r="AW264">
+        <v>2.45</v>
+      </c>
+      <c r="AX264">
+        <v>1.7</v>
+      </c>
+      <c r="AY264">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ264">
+        <v>2.48</v>
+      </c>
+      <c r="BA264">
+        <v>1.25</v>
+      </c>
+      <c r="BB264">
+        <v>1.53</v>
+      </c>
+      <c r="BC264">
+        <v>1.88</v>
+      </c>
+      <c r="BD264">
+        <v>2.34</v>
+      </c>
+      <c r="BE264">
+        <v>3.2</v>
+      </c>
+      <c r="BF264">
+        <v>4</v>
+      </c>
+      <c r="BG264">
+        <v>3</v>
+      </c>
+      <c r="BH264">
+        <v>7</v>
+      </c>
+      <c r="BI264">
+        <v>4</v>
+      </c>
+      <c r="BJ264">
+        <v>11</v>
+      </c>
+      <c r="BK264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>6206646</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45082.58333333334</v>
+      </c>
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>70</v>
+      </c>
+      <c r="H265" t="s">
+        <v>78</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>2</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>3</v>
+      </c>
+      <c r="O265" t="s">
+        <v>231</v>
+      </c>
+      <c r="P265" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q265">
+        <v>2</v>
+      </c>
+      <c r="R265">
+        <v>5</v>
+      </c>
+      <c r="S265">
+        <v>7</v>
+      </c>
+      <c r="T265">
+        <v>2.26</v>
+      </c>
+      <c r="U265">
+        <v>2.09</v>
+      </c>
+      <c r="V265">
+        <v>5.45</v>
+      </c>
+      <c r="W265">
+        <v>1.43</v>
+      </c>
+      <c r="X265">
+        <v>2.7</v>
+      </c>
+      <c r="Y265">
+        <v>2.9</v>
+      </c>
+      <c r="Z265">
+        <v>1.38</v>
+      </c>
+      <c r="AA265">
+        <v>7.5</v>
+      </c>
+      <c r="AB265">
+        <v>1.07</v>
+      </c>
+      <c r="AC265">
+        <v>1.67</v>
+      </c>
+      <c r="AD265">
+        <v>3.3</v>
+      </c>
+      <c r="AE265">
+        <v>4.8</v>
+      </c>
+      <c r="AF265">
+        <v>1.03</v>
+      </c>
+      <c r="AG265">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH265">
+        <v>1.3</v>
+      </c>
+      <c r="AI265">
+        <v>3.08</v>
+      </c>
+      <c r="AJ265">
+        <v>2.05</v>
+      </c>
+      <c r="AK265">
+        <v>1.7</v>
+      </c>
+      <c r="AL265">
+        <v>1.92</v>
+      </c>
+      <c r="AM265">
+        <v>1.79</v>
+      </c>
+      <c r="AN265">
+        <v>1.16</v>
+      </c>
+      <c r="AO265">
+        <v>1.28</v>
+      </c>
+      <c r="AP265">
+        <v>2.11</v>
+      </c>
+      <c r="AQ265">
+        <v>2.14</v>
+      </c>
+      <c r="AR265">
+        <v>1.21</v>
+      </c>
+      <c r="AS265">
+        <v>2.2</v>
+      </c>
+      <c r="AT265">
+        <v>1.13</v>
+      </c>
+      <c r="AU265">
+        <v>1.62</v>
+      </c>
+      <c r="AV265">
+        <v>1.44</v>
+      </c>
+      <c r="AW265">
+        <v>3.06</v>
+      </c>
+      <c r="AX265">
+        <v>1.5</v>
+      </c>
+      <c r="AY265">
+        <v>9.5</v>
+      </c>
+      <c r="AZ265">
+        <v>3</v>
+      </c>
+      <c r="BA265">
+        <v>0</v>
+      </c>
+      <c r="BB265">
+        <v>1.35</v>
+      </c>
+      <c r="BC265">
+        <v>1.68</v>
+      </c>
+      <c r="BD265">
+        <v>2.06</v>
+      </c>
+      <c r="BE265">
+        <v>2.67</v>
+      </c>
+      <c r="BF265">
+        <v>4</v>
+      </c>
+      <c r="BG265">
+        <v>5</v>
+      </c>
+      <c r="BH265">
+        <v>8</v>
+      </c>
+      <c r="BI265">
+        <v>6</v>
+      </c>
+      <c r="BJ265">
+        <v>12</v>
+      </c>
+      <c r="BK265">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,9 @@
     <t>['23', '49']</t>
   </si>
   <si>
+    <t>['1', '14']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -995,6 +998,12 @@
   </si>
   <si>
     <t>['42', '90+19']</t>
+  </si>
+  <si>
+    <t>['41', '90+6']</t>
+  </si>
+  <si>
+    <t>['50']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK265"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1609,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1982,7 +1991,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2072,7 +2081,7 @@
         <v>1.43</v>
       </c>
       <c r="AT4">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT5">
         <v>2.8</v>
@@ -2364,7 +2373,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2454,7 +2463,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2746,7 +2755,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2937,7 +2946,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3215,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3409,7 +3418,7 @@
         <v>2.57</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3510,7 +3519,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3892,7 +3901,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3979,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT14">
         <v>1.07</v>
@@ -4361,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4552,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT17">
         <v>0.53</v>
@@ -4746,7 +4755,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4934,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT19">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5319,7 +5328,7 @@
         <v>1.43</v>
       </c>
       <c r="AT21">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5510,7 +5519,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5993,7 +6002,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6083,7 +6092,7 @@
         <v>1.73</v>
       </c>
       <c r="AT25">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU25">
         <v>1.34</v>
@@ -6184,7 +6193,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6271,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT26">
         <v>2.8</v>
@@ -6844,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT29">
         <v>1.07</v>
@@ -7035,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT30">
         <v>0.93</v>
@@ -7229,7 +7238,7 @@
         <v>0.93</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU31">
         <v>0.76</v>
@@ -7330,7 +7339,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7420,7 +7429,7 @@
         <v>1.73</v>
       </c>
       <c r="AT32">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU32">
         <v>1.48</v>
@@ -7521,7 +7530,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7903,7 +7912,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7990,7 +7999,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT35">
         <v>1.93</v>
@@ -8094,7 +8103,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8184,7 +8193,7 @@
         <v>2.2</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU36">
         <v>1.08</v>
@@ -8375,7 +8384,7 @@
         <v>1.47</v>
       </c>
       <c r="AT37">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU37">
         <v>1.66</v>
@@ -8563,7 +8572,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT38">
         <v>1.4</v>
@@ -8757,7 +8766,7 @@
         <v>2.43</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU39">
         <v>1.58</v>
@@ -9240,7 +9249,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9327,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9431,7 +9440,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9518,7 +9527,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
         <v>2.8</v>
@@ -9622,7 +9631,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9903,7 +9912,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU45">
         <v>0.95</v>
@@ -10004,7 +10013,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10091,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT46">
         <v>0.93</v>
@@ -10282,7 +10291,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT47">
         <v>1.13</v>
@@ -10577,7 +10586,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10664,7 +10673,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10768,7 +10777,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10858,7 +10867,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11046,7 +11055,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT51">
         <v>1.33</v>
@@ -11240,7 +11249,7 @@
         <v>2.2</v>
       </c>
       <c r="AT52">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU52">
         <v>1.24</v>
@@ -11341,7 +11350,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11431,7 +11440,7 @@
         <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU53">
         <v>1.6</v>
@@ -11619,7 +11628,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT54">
         <v>1.93</v>
@@ -11914,7 +11923,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12001,10 +12010,10 @@
         <v>0.33</v>
       </c>
       <c r="AS56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU56">
         <v>1.51</v>
@@ -12105,7 +12114,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12383,7 +12392,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT58">
         <v>1.4</v>
@@ -12678,7 +12687,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12768,7 +12777,7 @@
         <v>1.47</v>
       </c>
       <c r="AT60">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12959,7 +12968,7 @@
         <v>0.93</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU61">
         <v>0.76</v>
@@ -13060,7 +13069,7 @@
         <v>119</v>
       </c>
       <c r="P62" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -13147,10 +13156,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU62">
         <v>1.21</v>
@@ -13824,7 +13833,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13911,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT66">
         <v>1.13</v>
@@ -14102,7 +14111,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT67">
         <v>0.8</v>
@@ -14397,7 +14406,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14779,7 +14788,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14866,7 +14875,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT71">
         <v>2.8</v>
@@ -15060,7 +15069,7 @@
         <v>2.2</v>
       </c>
       <c r="AT72">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU72">
         <v>1.07</v>
@@ -15161,7 +15170,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15442,7 +15451,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -15630,10 +15639,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT75">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU75">
         <v>0.92</v>
@@ -15824,7 +15833,7 @@
         <v>1.13</v>
       </c>
       <c r="AT76">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU76">
         <v>1.36</v>
@@ -16012,7 +16021,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -16116,7 +16125,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16394,10 +16403,10 @@
         <v>0.25</v>
       </c>
       <c r="AS79">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU79">
         <v>1.41</v>
@@ -16498,7 +16507,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16585,10 +16594,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU80">
         <v>1.19</v>
@@ -17453,7 +17462,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17543,7 +17552,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU85">
         <v>1.1</v>
@@ -17644,7 +17653,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17731,7 +17740,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT86">
         <v>1.93</v>
@@ -17835,7 +17844,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18026,7 +18035,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18217,7 +18226,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18495,7 +18504,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT90">
         <v>0.8</v>
@@ -18599,7 +18608,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18981,7 +18990,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19068,10 +19077,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU93">
         <v>0.92</v>
@@ -19172,7 +19181,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19262,7 +19271,7 @@
         <v>1.64</v>
       </c>
       <c r="AT94">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU94">
         <v>1.76</v>
@@ -19453,7 +19462,7 @@
         <v>2.43</v>
       </c>
       <c r="AT95">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19554,7 +19563,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19641,10 +19650,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT96">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19745,7 +19754,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19835,7 +19844,7 @@
         <v>1.47</v>
       </c>
       <c r="AT97">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU97">
         <v>1.6</v>
@@ -20023,7 +20032,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT98">
         <v>0.53</v>
@@ -20214,7 +20223,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT99">
         <v>1.4</v>
@@ -20405,10 +20414,10 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT100">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU100">
         <v>1.11</v>
@@ -20509,7 +20518,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -21273,7 +21282,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21846,7 +21855,7 @@
         <v>146</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -22037,7 +22046,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22124,7 +22133,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22228,7 +22237,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22315,7 +22324,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT110">
         <v>0.53</v>
@@ -22506,10 +22515,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT111">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -22697,10 +22706,10 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT112">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -23079,10 +23088,10 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT114">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU114">
         <v>1.48</v>
@@ -23273,7 +23282,7 @@
         <v>2.43</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23464,7 +23473,7 @@
         <v>1.13</v>
       </c>
       <c r="AT116">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU116">
         <v>1.42</v>
@@ -23652,10 +23661,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT117">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU117">
         <v>1.09</v>
@@ -23756,7 +23765,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23843,7 +23852,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT118">
         <v>1.33</v>
@@ -24329,7 +24338,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24711,7 +24720,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25093,7 +25102,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25284,7 +25293,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25475,7 +25484,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25666,7 +25675,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25753,7 +25762,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT128">
         <v>1.33</v>
@@ -25944,10 +25953,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT129">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU129">
         <v>1.05</v>
@@ -26329,7 +26338,7 @@
         <v>1.25</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU131">
         <v>1.5</v>
@@ -26520,7 +26529,7 @@
         <v>1.64</v>
       </c>
       <c r="AT132">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU132">
         <v>1.62</v>
@@ -26621,7 +26630,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26708,10 +26717,10 @@
         <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT133">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU133">
         <v>1.21</v>
@@ -26812,7 +26821,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26899,7 +26908,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -27194,7 +27203,7 @@
         <v>160</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27281,10 +27290,10 @@
         <v>1.14</v>
       </c>
       <c r="AS136">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT136">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU136">
         <v>1.31</v>
@@ -27385,7 +27394,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27475,7 +27484,7 @@
         <v>1.13</v>
       </c>
       <c r="AT137">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU137">
         <v>1.4</v>
@@ -27576,7 +27585,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27663,7 +27672,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27958,7 +27967,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28149,7 +28158,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28340,7 +28349,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28430,7 +28439,7 @@
         <v>2.57</v>
       </c>
       <c r="AT142">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU142">
         <v>1.83</v>
@@ -28531,7 +28540,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28722,7 +28731,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28913,7 +28922,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29000,7 +29009,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT145">
         <v>0.93</v>
@@ -29104,7 +29113,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29191,10 +29200,10 @@
         <v>0.38</v>
       </c>
       <c r="AS146">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT146">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -29295,7 +29304,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29576,7 +29585,7 @@
         <v>1.25</v>
       </c>
       <c r="AT148">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU148">
         <v>1.52</v>
@@ -29764,7 +29773,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT149">
         <v>1.33</v>
@@ -29955,10 +29964,10 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -30059,7 +30068,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30149,7 +30158,7 @@
         <v>1.27</v>
       </c>
       <c r="AT151">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30337,7 +30346,7 @@
         <v>0.5</v>
       </c>
       <c r="AS152">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT152">
         <v>0.53</v>
@@ -30632,7 +30641,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30719,7 +30728,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT154">
         <v>1.33</v>
@@ -30910,7 +30919,7 @@
         <v>0.44</v>
       </c>
       <c r="AS155">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT155">
         <v>0.53</v>
@@ -31295,7 +31304,7 @@
         <v>1.25</v>
       </c>
       <c r="AT157">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU157">
         <v>1.56</v>
@@ -31396,7 +31405,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31483,7 +31492,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT158">
         <v>1.33</v>
@@ -31674,10 +31683,10 @@
         <v>0.67</v>
       </c>
       <c r="AS159">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT159">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU159">
         <v>1.25</v>
@@ -31868,7 +31877,7 @@
         <v>2.57</v>
       </c>
       <c r="AT160">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU160">
         <v>1.72</v>
@@ -31969,7 +31978,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32160,7 +32169,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32247,7 +32256,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT162">
         <v>1.13</v>
@@ -32441,7 +32450,7 @@
         <v>1.33</v>
       </c>
       <c r="AT163">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU163">
         <v>1.14</v>
@@ -32542,7 +32551,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32820,7 +32829,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT165">
         <v>0.8</v>
@@ -33396,7 +33405,7 @@
         <v>1.43</v>
       </c>
       <c r="AT168">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU168">
         <v>1.74</v>
@@ -33584,10 +33593,10 @@
         <v>0.6</v>
       </c>
       <c r="AS169">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT169">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU169">
         <v>1.41</v>
@@ -33688,7 +33697,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33775,7 +33784,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT170">
         <v>0.93</v>
@@ -33879,7 +33888,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34070,7 +34079,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34160,7 +34169,7 @@
         <v>1.33</v>
       </c>
       <c r="AT172">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU172">
         <v>1.09</v>
@@ -34730,7 +34739,7 @@
         <v>1.67</v>
       </c>
       <c r="AS175">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT175">
         <v>1.33</v>
@@ -34921,7 +34930,7 @@
         <v>0.89</v>
       </c>
       <c r="AS176">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT176">
         <v>1.07</v>
@@ -35306,7 +35315,7 @@
         <v>0.93</v>
       </c>
       <c r="AT178">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU178">
         <v>0.95</v>
@@ -35407,7 +35416,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35494,7 +35503,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT179">
         <v>0.8</v>
@@ -35688,7 +35697,7 @@
         <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU180">
         <v>1.62</v>
@@ -36067,7 +36076,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT182">
         <v>1</v>
@@ -36171,7 +36180,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36362,7 +36371,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36553,7 +36562,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36643,7 +36652,7 @@
         <v>2.2</v>
       </c>
       <c r="AT185">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU185">
         <v>1.47</v>
@@ -36834,7 +36843,7 @@
         <v>1.73</v>
       </c>
       <c r="AT186">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU186">
         <v>1.39</v>
@@ -36935,7 +36944,7 @@
         <v>191</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37022,7 +37031,7 @@
         <v>0.9</v>
       </c>
       <c r="AS187">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT187">
         <v>1.07</v>
@@ -37595,7 +37604,7 @@
         <v>1.6</v>
       </c>
       <c r="AS190">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT190">
         <v>1.13</v>
@@ -37786,7 +37795,7 @@
         <v>1.18</v>
       </c>
       <c r="AS191">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT191">
         <v>0.93</v>
@@ -37977,10 +37986,10 @@
         <v>1.13</v>
       </c>
       <c r="AS192">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT192">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU192">
         <v>1.29</v>
@@ -38171,7 +38180,7 @@
         <v>0.93</v>
       </c>
       <c r="AT193">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU193">
         <v>0.96</v>
@@ -38272,7 +38281,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38463,7 +38472,7 @@
         <v>194</v>
       </c>
       <c r="P195" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q195">
         <v>11</v>
@@ -38741,7 +38750,7 @@
         <v>1.1</v>
       </c>
       <c r="AS196">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -39126,7 +39135,7 @@
         <v>1.47</v>
       </c>
       <c r="AT198">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU198">
         <v>1.68</v>
@@ -39508,7 +39517,7 @@
         <v>1.43</v>
       </c>
       <c r="AT200">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU200">
         <v>1.64</v>
@@ -39609,7 +39618,7 @@
         <v>197</v>
       </c>
       <c r="P201" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39699,7 +39708,7 @@
         <v>1.13</v>
       </c>
       <c r="AT201">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU201">
         <v>1.37</v>
@@ -39991,7 +40000,7 @@
         <v>198</v>
       </c>
       <c r="P203" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -40078,7 +40087,7 @@
         <v>1.1</v>
       </c>
       <c r="AS203">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT203">
         <v>1</v>
@@ -40182,7 +40191,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40373,7 +40382,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40460,7 +40469,7 @@
         <v>1.45</v>
       </c>
       <c r="AS205">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT205">
         <v>1.13</v>
@@ -40651,7 +40660,7 @@
         <v>2.18</v>
       </c>
       <c r="AS206">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT206">
         <v>1.93</v>
@@ -40842,10 +40851,10 @@
         <v>1.1</v>
       </c>
       <c r="AS207">
+        <v>0.88</v>
+      </c>
+      <c r="AT207">
         <v>0.87</v>
-      </c>
-      <c r="AT207">
-        <v>0.86</v>
       </c>
       <c r="AU207">
         <v>1.24</v>
@@ -40946,7 +40955,7 @@
         <v>83</v>
       </c>
       <c r="P208" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41224,10 +41233,10 @@
         <v>1.5</v>
       </c>
       <c r="AS209">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT209">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU209">
         <v>1.27</v>
@@ -41418,7 +41427,7 @@
         <v>1.47</v>
       </c>
       <c r="AT210">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU210">
         <v>1.59</v>
@@ -41710,7 +41719,7 @@
         <v>83</v>
       </c>
       <c r="P212" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -41800,7 +41809,7 @@
         <v>1.13</v>
       </c>
       <c r="AT212">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU212">
         <v>1.4</v>
@@ -42182,7 +42191,7 @@
         <v>1.73</v>
       </c>
       <c r="AT214">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU214">
         <v>1.37</v>
@@ -42283,7 +42292,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42474,7 +42483,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42561,7 +42570,7 @@
         <v>2.75</v>
       </c>
       <c r="AS216">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT216">
         <v>2.8</v>
@@ -43137,7 +43146,7 @@
         <v>1.73</v>
       </c>
       <c r="AT219">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU219">
         <v>1.36</v>
@@ -43325,7 +43334,7 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT220">
         <v>0.8</v>
@@ -43620,7 +43629,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44092,7 +44101,7 @@
         <v>1.73</v>
       </c>
       <c r="AT224">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU224">
         <v>1.37</v>
@@ -44193,7 +44202,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44280,7 +44289,7 @@
         <v>0.92</v>
       </c>
       <c r="AS225">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT225">
         <v>1</v>
@@ -44665,7 +44674,7 @@
         <v>2.2</v>
       </c>
       <c r="AT227">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU227">
         <v>1.5</v>
@@ -44766,7 +44775,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44853,7 +44862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS228">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT228">
         <v>1.4</v>
@@ -44957,7 +44966,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45044,10 +45053,10 @@
         <v>1.38</v>
       </c>
       <c r="AS229">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT229">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU229">
         <v>1.22</v>
@@ -45148,7 +45157,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45238,7 +45247,7 @@
         <v>1.13</v>
       </c>
       <c r="AT230">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU230">
         <v>1.36</v>
@@ -45339,7 +45348,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45530,7 +45539,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -45620,7 +45629,7 @@
         <v>0.93</v>
       </c>
       <c r="AT232">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU232">
         <v>1.07</v>
@@ -45808,7 +45817,7 @@
         <v>1</v>
       </c>
       <c r="AS233">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT233">
         <v>1</v>
@@ -46103,7 +46112,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46190,7 +46199,7 @@
         <v>1.46</v>
       </c>
       <c r="AS235">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT235">
         <v>1.33</v>
@@ -46485,7 +46494,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46867,7 +46876,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47145,7 +47154,7 @@
         <v>2.15</v>
       </c>
       <c r="AS240">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT240">
         <v>1.93</v>
@@ -47249,7 +47258,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47909,10 +47918,10 @@
         <v>0.46</v>
       </c>
       <c r="AS244">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT244">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU244">
         <v>1.28</v>
@@ -48013,7 +48022,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48100,10 +48109,10 @@
         <v>1.46</v>
       </c>
       <c r="AS245">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT245">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU245">
         <v>1.51</v>
@@ -48204,7 +48213,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48294,7 +48303,7 @@
         <v>1.64</v>
       </c>
       <c r="AT246">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU246">
         <v>1.54</v>
@@ -48485,7 +48494,7 @@
         <v>1.47</v>
       </c>
       <c r="AT247">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU247">
         <v>1.64</v>
@@ -48673,7 +48682,7 @@
         <v>1.36</v>
       </c>
       <c r="AS248">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT248">
         <v>1.33</v>
@@ -48777,7 +48786,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49058,7 +49067,7 @@
         <v>2.43</v>
       </c>
       <c r="AT250">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AU250">
         <v>1.7</v>
@@ -49246,7 +49255,7 @@
         <v>1.62</v>
       </c>
       <c r="AS251">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT251">
         <v>1.4</v>
@@ -49437,10 +49446,10 @@
         <v>1</v>
       </c>
       <c r="AS252">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AT252">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU252">
         <v>1.44</v>
@@ -49631,7 +49640,7 @@
         <v>2.57</v>
       </c>
       <c r="AT253">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU253">
         <v>1.65</v>
@@ -49732,7 +49741,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49923,7 +49932,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50013,7 +50022,7 @@
         <v>1.64</v>
       </c>
       <c r="AT255">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU255">
         <v>1.55</v>
@@ -50204,7 +50213,7 @@
         <v>2.43</v>
       </c>
       <c r="AT256">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AU256">
         <v>1.76</v>
@@ -50395,7 +50404,7 @@
         <v>2.2</v>
       </c>
       <c r="AT257">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU257">
         <v>1.61</v>
@@ -50687,7 +50696,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51833,7 +51842,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q265">
         <v>2</v>
@@ -51975,6 +51984,1152 @@
       </c>
       <c r="BK265">
         <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>6206649</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45083.54166666666</v>
+      </c>
+      <c r="F266">
+        <v>31</v>
+      </c>
+      <c r="G266" t="s">
+        <v>82</v>
+      </c>
+      <c r="H266" t="s">
+        <v>74</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
+        <v>83</v>
+      </c>
+      <c r="P266" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q266">
+        <v>5</v>
+      </c>
+      <c r="R266">
+        <v>4</v>
+      </c>
+      <c r="S266">
+        <v>9</v>
+      </c>
+      <c r="T266">
+        <v>5.54</v>
+      </c>
+      <c r="U266">
+        <v>2.09</v>
+      </c>
+      <c r="V266">
+        <v>2.48</v>
+      </c>
+      <c r="W266">
+        <v>1.5</v>
+      </c>
+      <c r="X266">
+        <v>2.56</v>
+      </c>
+      <c r="Y266">
+        <v>3.2</v>
+      </c>
+      <c r="Z266">
+        <v>1.3</v>
+      </c>
+      <c r="AA266">
+        <v>8.5</v>
+      </c>
+      <c r="AB266">
+        <v>1.05</v>
+      </c>
+      <c r="AC266">
+        <v>5</v>
+      </c>
+      <c r="AD266">
+        <v>3.2</v>
+      </c>
+      <c r="AE266">
+        <v>1.67</v>
+      </c>
+      <c r="AF266">
+        <v>1.05</v>
+      </c>
+      <c r="AG266">
+        <v>8</v>
+      </c>
+      <c r="AH266">
+        <v>1.52</v>
+      </c>
+      <c r="AI266">
+        <v>2.35</v>
+      </c>
+      <c r="AJ266">
+        <v>2.3</v>
+      </c>
+      <c r="AK266">
+        <v>1.53</v>
+      </c>
+      <c r="AL266">
+        <v>2.1</v>
+      </c>
+      <c r="AM266">
+        <v>1.65</v>
+      </c>
+      <c r="AN266">
+        <v>2</v>
+      </c>
+      <c r="AO266">
+        <v>1.25</v>
+      </c>
+      <c r="AP266">
+        <v>1.12</v>
+      </c>
+      <c r="AQ266">
+        <v>1.73</v>
+      </c>
+      <c r="AR266">
+        <v>1.67</v>
+      </c>
+      <c r="AS266">
+        <v>1.63</v>
+      </c>
+      <c r="AT266">
+        <v>1.75</v>
+      </c>
+      <c r="AU266">
+        <v>1.25</v>
+      </c>
+      <c r="AV266">
+        <v>1.47</v>
+      </c>
+      <c r="AW266">
+        <v>2.72</v>
+      </c>
+      <c r="AX266">
+        <v>2.96</v>
+      </c>
+      <c r="AY266">
+        <v>9.1</v>
+      </c>
+      <c r="AZ266">
+        <v>1.52</v>
+      </c>
+      <c r="BA266">
+        <v>1.28</v>
+      </c>
+      <c r="BB266">
+        <v>1.59</v>
+      </c>
+      <c r="BC266">
+        <v>1.97</v>
+      </c>
+      <c r="BD266">
+        <v>2.48</v>
+      </c>
+      <c r="BE266">
+        <v>3.42</v>
+      </c>
+      <c r="BF266">
+        <v>2</v>
+      </c>
+      <c r="BG266">
+        <v>6</v>
+      </c>
+      <c r="BH266">
+        <v>7</v>
+      </c>
+      <c r="BI266">
+        <v>6</v>
+      </c>
+      <c r="BJ266">
+        <v>9</v>
+      </c>
+      <c r="BK266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>6206648</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45083.54166666666</v>
+      </c>
+      <c r="F267">
+        <v>31</v>
+      </c>
+      <c r="G267" t="s">
+        <v>73</v>
+      </c>
+      <c r="H267" t="s">
+        <v>72</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="O267" t="s">
+        <v>187</v>
+      </c>
+      <c r="P267" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q267">
+        <v>6</v>
+      </c>
+      <c r="R267">
+        <v>7</v>
+      </c>
+      <c r="S267">
+        <v>13</v>
+      </c>
+      <c r="T267">
+        <v>2.78</v>
+      </c>
+      <c r="U267">
+        <v>2.02</v>
+      </c>
+      <c r="V267">
+        <v>4.79</v>
+      </c>
+      <c r="W267">
+        <v>1.53</v>
+      </c>
+      <c r="X267">
+        <v>2.49</v>
+      </c>
+      <c r="Y267">
+        <v>3.4</v>
+      </c>
+      <c r="Z267">
+        <v>1.3</v>
+      </c>
+      <c r="AA267">
+        <v>8.5</v>
+      </c>
+      <c r="AB267">
+        <v>1.05</v>
+      </c>
+      <c r="AC267">
+        <v>2</v>
+      </c>
+      <c r="AD267">
+        <v>2.9</v>
+      </c>
+      <c r="AE267">
+        <v>3.7</v>
+      </c>
+      <c r="AF267">
+        <v>1.1</v>
+      </c>
+      <c r="AG267">
+        <v>6.68</v>
+      </c>
+      <c r="AH267">
+        <v>1.46</v>
+      </c>
+      <c r="AI267">
+        <v>2.68</v>
+      </c>
+      <c r="AJ267">
+        <v>2.45</v>
+      </c>
+      <c r="AK267">
+        <v>1.5</v>
+      </c>
+      <c r="AL267">
+        <v>2.28</v>
+      </c>
+      <c r="AM267">
+        <v>1.6</v>
+      </c>
+      <c r="AN267">
+        <v>1.22</v>
+      </c>
+      <c r="AO267">
+        <v>1.38</v>
+      </c>
+      <c r="AP267">
+        <v>1.72</v>
+      </c>
+      <c r="AQ267">
+        <v>0.87</v>
+      </c>
+      <c r="AR267">
+        <v>0.4</v>
+      </c>
+      <c r="AS267">
+        <v>0.88</v>
+      </c>
+      <c r="AT267">
+        <v>0.44</v>
+      </c>
+      <c r="AU267">
+        <v>1.25</v>
+      </c>
+      <c r="AV267">
+        <v>1.22</v>
+      </c>
+      <c r="AW267">
+        <v>2.47</v>
+      </c>
+      <c r="AX267">
+        <v>1.61</v>
+      </c>
+      <c r="AY267">
+        <v>8.1</v>
+      </c>
+      <c r="AZ267">
+        <v>2.77</v>
+      </c>
+      <c r="BA267">
+        <v>1.61</v>
+      </c>
+      <c r="BB267">
+        <v>2.05</v>
+      </c>
+      <c r="BC267">
+        <v>2.37</v>
+      </c>
+      <c r="BD267">
+        <v>3.84</v>
+      </c>
+      <c r="BE267">
+        <v>0</v>
+      </c>
+      <c r="BF267">
+        <v>3</v>
+      </c>
+      <c r="BG267">
+        <v>4</v>
+      </c>
+      <c r="BH267">
+        <v>7</v>
+      </c>
+      <c r="BI267">
+        <v>6</v>
+      </c>
+      <c r="BJ267">
+        <v>10</v>
+      </c>
+      <c r="BK267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>6206650</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45083.64583333334</v>
+      </c>
+      <c r="F268">
+        <v>31</v>
+      </c>
+      <c r="G268" t="s">
+        <v>79</v>
+      </c>
+      <c r="H268" t="s">
+        <v>69</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
+        <v>179</v>
+      </c>
+      <c r="P268" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q268">
+        <v>4</v>
+      </c>
+      <c r="R268">
+        <v>5</v>
+      </c>
+      <c r="S268">
+        <v>9</v>
+      </c>
+      <c r="T268">
+        <v>2.39</v>
+      </c>
+      <c r="U268">
+        <v>2.11</v>
+      </c>
+      <c r="V268">
+        <v>5.49</v>
+      </c>
+      <c r="W268">
+        <v>1.51</v>
+      </c>
+      <c r="X268">
+        <v>2.38</v>
+      </c>
+      <c r="Y268">
+        <v>3.2</v>
+      </c>
+      <c r="Z268">
+        <v>1.3</v>
+      </c>
+      <c r="AA268">
+        <v>8.5</v>
+      </c>
+      <c r="AB268">
+        <v>1.05</v>
+      </c>
+      <c r="AC268">
+        <v>1.75</v>
+      </c>
+      <c r="AD268">
+        <v>3.62</v>
+      </c>
+      <c r="AE268">
+        <v>4.7</v>
+      </c>
+      <c r="AF268">
+        <v>1.05</v>
+      </c>
+      <c r="AG268">
+        <v>8</v>
+      </c>
+      <c r="AH268">
+        <v>1.36</v>
+      </c>
+      <c r="AI268">
+        <v>2.88</v>
+      </c>
+      <c r="AJ268">
+        <v>2.3</v>
+      </c>
+      <c r="AK268">
+        <v>1.57</v>
+      </c>
+      <c r="AL268">
+        <v>2.1</v>
+      </c>
+      <c r="AM268">
+        <v>1.65</v>
+      </c>
+      <c r="AN268">
+        <v>1.12</v>
+      </c>
+      <c r="AO268">
+        <v>1.25</v>
+      </c>
+      <c r="AP268">
+        <v>2</v>
+      </c>
+      <c r="AQ268">
+        <v>1.79</v>
+      </c>
+      <c r="AR268">
+        <v>1.27</v>
+      </c>
+      <c r="AS268">
+        <v>1.87</v>
+      </c>
+      <c r="AT268">
+        <v>1.19</v>
+      </c>
+      <c r="AU268">
+        <v>1.42</v>
+      </c>
+      <c r="AV268">
+        <v>1.11</v>
+      </c>
+      <c r="AW268">
+        <v>2.53</v>
+      </c>
+      <c r="AX268">
+        <v>1.45</v>
+      </c>
+      <c r="AY268">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ268">
+        <v>3.26</v>
+      </c>
+      <c r="BA268">
+        <v>1.32</v>
+      </c>
+      <c r="BB268">
+        <v>1.65</v>
+      </c>
+      <c r="BC268">
+        <v>2.04</v>
+      </c>
+      <c r="BD268">
+        <v>2.67</v>
+      </c>
+      <c r="BE268">
+        <v>3.65</v>
+      </c>
+      <c r="BF268">
+        <v>4</v>
+      </c>
+      <c r="BG268">
+        <v>3</v>
+      </c>
+      <c r="BH268">
+        <v>5</v>
+      </c>
+      <c r="BI268">
+        <v>4</v>
+      </c>
+      <c r="BJ268">
+        <v>9</v>
+      </c>
+      <c r="BK268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>6206651</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45084.54166666666</v>
+      </c>
+      <c r="F269">
+        <v>31</v>
+      </c>
+      <c r="G269" t="s">
+        <v>77</v>
+      </c>
+      <c r="H269" t="s">
+        <v>67</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+      <c r="N269">
+        <v>2</v>
+      </c>
+      <c r="O269" t="s">
+        <v>108</v>
+      </c>
+      <c r="P269" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q269">
+        <v>6</v>
+      </c>
+      <c r="R269">
+        <v>3</v>
+      </c>
+      <c r="S269">
+        <v>9</v>
+      </c>
+      <c r="T269">
+        <v>4.57</v>
+      </c>
+      <c r="U269">
+        <v>2.08</v>
+      </c>
+      <c r="V269">
+        <v>2.75</v>
+      </c>
+      <c r="W269">
+        <v>1.48</v>
+      </c>
+      <c r="X269">
+        <v>2.62</v>
+      </c>
+      <c r="Y269">
+        <v>3.27</v>
+      </c>
+      <c r="Z269">
+        <v>1.33</v>
+      </c>
+      <c r="AA269">
+        <v>8.6</v>
+      </c>
+      <c r="AB269">
+        <v>1.05</v>
+      </c>
+      <c r="AC269">
+        <v>3.9</v>
+      </c>
+      <c r="AD269">
+        <v>3.05</v>
+      </c>
+      <c r="AE269">
+        <v>1.94</v>
+      </c>
+      <c r="AF269">
+        <v>1.06</v>
+      </c>
+      <c r="AG269">
+        <v>6.85</v>
+      </c>
+      <c r="AH269">
+        <v>1.38</v>
+      </c>
+      <c r="AI269">
+        <v>2.9</v>
+      </c>
+      <c r="AJ269">
+        <v>2.22</v>
+      </c>
+      <c r="AK269">
+        <v>1.61</v>
+      </c>
+      <c r="AL269">
+        <v>1.95</v>
+      </c>
+      <c r="AM269">
+        <v>1.81</v>
+      </c>
+      <c r="AN269">
+        <v>1.78</v>
+      </c>
+      <c r="AO269">
+        <v>1.35</v>
+      </c>
+      <c r="AP269">
+        <v>1.24</v>
+      </c>
+      <c r="AQ269">
+        <v>1.27</v>
+      </c>
+      <c r="AR269">
+        <v>1.33</v>
+      </c>
+      <c r="AS269">
+        <v>1.25</v>
+      </c>
+      <c r="AT269">
+        <v>1.31</v>
+      </c>
+      <c r="AU269">
+        <v>1.49</v>
+      </c>
+      <c r="AV269">
+        <v>1.34</v>
+      </c>
+      <c r="AW269">
+        <v>2.83</v>
+      </c>
+      <c r="AX269">
+        <v>2.08</v>
+      </c>
+      <c r="AY269">
+        <v>6.7</v>
+      </c>
+      <c r="AZ269">
+        <v>2.08</v>
+      </c>
+      <c r="BA269">
+        <v>1.29</v>
+      </c>
+      <c r="BB269">
+        <v>1.6</v>
+      </c>
+      <c r="BC269">
+        <v>1.99</v>
+      </c>
+      <c r="BD269">
+        <v>2.5</v>
+      </c>
+      <c r="BE269">
+        <v>3.1</v>
+      </c>
+      <c r="BF269">
+        <v>10</v>
+      </c>
+      <c r="BG269">
+        <v>4</v>
+      </c>
+      <c r="BH269">
+        <v>3</v>
+      </c>
+      <c r="BI269">
+        <v>5</v>
+      </c>
+      <c r="BJ269">
+        <v>13</v>
+      </c>
+      <c r="BK269">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>6206652</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45084.64583333334</v>
+      </c>
+      <c r="F270">
+        <v>31</v>
+      </c>
+      <c r="G270" t="s">
+        <v>80</v>
+      </c>
+      <c r="H270" t="s">
+        <v>75</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>3</v>
+      </c>
+      <c r="L270">
+        <v>2</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+      <c r="N270">
+        <v>4</v>
+      </c>
+      <c r="O270" t="s">
+        <v>232</v>
+      </c>
+      <c r="P270" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q270">
+        <v>1</v>
+      </c>
+      <c r="R270">
+        <v>8</v>
+      </c>
+      <c r="S270">
+        <v>9</v>
+      </c>
+      <c r="T270">
+        <v>3.6</v>
+      </c>
+      <c r="U270">
+        <v>1.95</v>
+      </c>
+      <c r="V270">
+        <v>3</v>
+      </c>
+      <c r="W270">
+        <v>1.48</v>
+      </c>
+      <c r="X270">
+        <v>2.5</v>
+      </c>
+      <c r="Y270">
+        <v>3.1</v>
+      </c>
+      <c r="Z270">
+        <v>1.33</v>
+      </c>
+      <c r="AA270">
+        <v>8.75</v>
+      </c>
+      <c r="AB270">
+        <v>1.07</v>
+      </c>
+      <c r="AC270">
+        <v>2.7</v>
+      </c>
+      <c r="AD270">
+        <v>2.8</v>
+      </c>
+      <c r="AE270">
+        <v>2.6</v>
+      </c>
+      <c r="AF270">
+        <v>1.05</v>
+      </c>
+      <c r="AG270">
+        <v>8.4</v>
+      </c>
+      <c r="AH270">
+        <v>1.36</v>
+      </c>
+      <c r="AI270">
+        <v>3.07</v>
+      </c>
+      <c r="AJ270">
+        <v>2.5</v>
+      </c>
+      <c r="AK270">
+        <v>1.5</v>
+      </c>
+      <c r="AL270">
+        <v>1.87</v>
+      </c>
+      <c r="AM270">
+        <v>1.87</v>
+      </c>
+      <c r="AN270">
+        <v>1.47</v>
+      </c>
+      <c r="AO270">
+        <v>1.3</v>
+      </c>
+      <c r="AP270">
+        <v>1.3</v>
+      </c>
+      <c r="AQ270">
+        <v>0.93</v>
+      </c>
+      <c r="AR270">
+        <v>0.86</v>
+      </c>
+      <c r="AS270">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT270">
+        <v>0.87</v>
+      </c>
+      <c r="AU270">
+        <v>1.39</v>
+      </c>
+      <c r="AV270">
+        <v>1.56</v>
+      </c>
+      <c r="AW270">
+        <v>2.95</v>
+      </c>
+      <c r="AX270">
+        <v>2.18</v>
+      </c>
+      <c r="AY270">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ270">
+        <v>1.88</v>
+      </c>
+      <c r="BA270">
+        <v>1.24</v>
+      </c>
+      <c r="BB270">
+        <v>1.52</v>
+      </c>
+      <c r="BC270">
+        <v>1.85</v>
+      </c>
+      <c r="BD270">
+        <v>2.31</v>
+      </c>
+      <c r="BE270">
+        <v>3.08</v>
+      </c>
+      <c r="BF270">
+        <v>6</v>
+      </c>
+      <c r="BG270">
+        <v>8</v>
+      </c>
+      <c r="BH270">
+        <v>2</v>
+      </c>
+      <c r="BI270">
+        <v>4</v>
+      </c>
+      <c r="BJ270">
+        <v>8</v>
+      </c>
+      <c r="BK270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>6206653</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45085.54166666666</v>
+      </c>
+      <c r="F271">
+        <v>31</v>
+      </c>
+      <c r="G271" t="s">
+        <v>68</v>
+      </c>
+      <c r="H271" t="s">
+        <v>81</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>83</v>
+      </c>
+      <c r="P271" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q271">
+        <v>5</v>
+      </c>
+      <c r="R271">
+        <v>2</v>
+      </c>
+      <c r="S271">
+        <v>7</v>
+      </c>
+      <c r="T271">
+        <v>3.4</v>
+      </c>
+      <c r="U271">
+        <v>1.8</v>
+      </c>
+      <c r="V271">
+        <v>3.75</v>
+      </c>
+      <c r="W271">
+        <v>1.56</v>
+      </c>
+      <c r="X271">
+        <v>2.2</v>
+      </c>
+      <c r="Y271">
+        <v>3.65</v>
+      </c>
+      <c r="Z271">
+        <v>1.25</v>
+      </c>
+      <c r="AA271">
+        <v>11</v>
+      </c>
+      <c r="AB271">
+        <v>1.04</v>
+      </c>
+      <c r="AC271">
+        <v>2.6</v>
+      </c>
+      <c r="AD271">
+        <v>2.6</v>
+      </c>
+      <c r="AE271">
+        <v>2.9</v>
+      </c>
+      <c r="AF271">
+        <v>1.12</v>
+      </c>
+      <c r="AG271">
+        <v>5.5</v>
+      </c>
+      <c r="AH271">
+        <v>1.53</v>
+      </c>
+      <c r="AI271">
+        <v>2.38</v>
+      </c>
+      <c r="AJ271">
+        <v>2.55</v>
+      </c>
+      <c r="AK271">
+        <v>1.47</v>
+      </c>
+      <c r="AL271">
+        <v>2.1</v>
+      </c>
+      <c r="AM271">
+        <v>1.7</v>
+      </c>
+      <c r="AN271">
+        <v>1.28</v>
+      </c>
+      <c r="AO271">
+        <v>1.36</v>
+      </c>
+      <c r="AP271">
+        <v>1.42</v>
+      </c>
+      <c r="AQ271">
+        <v>1.21</v>
+      </c>
+      <c r="AR271">
+        <v>0.67</v>
+      </c>
+      <c r="AS271">
+        <v>1.13</v>
+      </c>
+      <c r="AT271">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU271">
+        <v>1.28</v>
+      </c>
+      <c r="AV271">
+        <v>1.32</v>
+      </c>
+      <c r="AW271">
+        <v>2.6</v>
+      </c>
+      <c r="AX271">
+        <v>1.8</v>
+      </c>
+      <c r="AY271">
+        <v>8.5</v>
+      </c>
+      <c r="AZ271">
+        <v>2.31</v>
+      </c>
+      <c r="BA271">
+        <v>1.33</v>
+      </c>
+      <c r="BB271">
+        <v>1.69</v>
+      </c>
+      <c r="BC271">
+        <v>2.11</v>
+      </c>
+      <c r="BD271">
+        <v>2.75</v>
+      </c>
+      <c r="BE271">
+        <v>3.84</v>
+      </c>
+      <c r="BF271">
+        <v>6</v>
+      </c>
+      <c r="BG271">
+        <v>5</v>
+      </c>
+      <c r="BH271">
+        <v>9</v>
+      </c>
+      <c r="BI271">
+        <v>5</v>
+      </c>
+      <c r="BJ271">
+        <v>15</v>
+      </c>
+      <c r="BK271">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1365,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>1.87</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT17">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT22">
         <v>0.8100000000000001</v>
@@ -6665,7 +6665,7 @@
         <v>2.57</v>
       </c>
       <c r="AT28">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU28">
         <v>0.8</v>
@@ -7617,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT33">
         <v>0.8</v>
@@ -8957,7 +8957,7 @@
         <v>1.43</v>
       </c>
       <c r="AT40">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU40">
         <v>1.74</v>
@@ -9148,7 +9148,7 @@
         <v>2.57</v>
       </c>
       <c r="AT41">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU41">
         <v>1.38</v>
@@ -11058,7 +11058,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU51">
         <v>1.39</v>
@@ -12583,7 +12583,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT59">
         <v>1</v>
@@ -14687,7 +14687,7 @@
         <v>1.27</v>
       </c>
       <c r="AT70">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU70">
         <v>1.17</v>
@@ -15260,7 +15260,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15448,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT74">
         <v>0.87</v>
@@ -16215,7 +16215,7 @@
         <v>0.93</v>
       </c>
       <c r="AT78">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU78">
         <v>0.93</v>
@@ -18698,7 +18698,7 @@
         <v>1.73</v>
       </c>
       <c r="AT91">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU91">
         <v>1.72</v>
@@ -19268,7 +19268,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT94">
         <v>1.19</v>
@@ -20035,7 +20035,7 @@
         <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU98">
         <v>1.18</v>
@@ -21945,7 +21945,7 @@
         <v>1.27</v>
       </c>
       <c r="AT108">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU108">
         <v>1.21</v>
@@ -22327,7 +22327,7 @@
         <v>0.88</v>
       </c>
       <c r="AT110">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU110">
         <v>0.93</v>
@@ -22897,7 +22897,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT113">
         <v>1.33</v>
@@ -23855,7 +23855,7 @@
         <v>1.13</v>
       </c>
       <c r="AT118">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -25765,7 +25765,7 @@
         <v>0.88</v>
       </c>
       <c r="AT128">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU128">
         <v>0.98</v>
@@ -26526,7 +26526,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT132">
         <v>0.44</v>
@@ -27102,7 +27102,7 @@
         <v>2.43</v>
       </c>
       <c r="AT135">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU135">
         <v>1.54</v>
@@ -29391,7 +29391,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT147">
         <v>1.07</v>
@@ -30349,7 +30349,7 @@
         <v>1.87</v>
       </c>
       <c r="AT152">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU152">
         <v>1.22</v>
@@ -30537,7 +30537,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT153">
         <v>0.93</v>
@@ -30731,7 +30731,7 @@
         <v>1.25</v>
       </c>
       <c r="AT154">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU154">
         <v>1.45</v>
@@ -30922,7 +30922,7 @@
         <v>1.63</v>
       </c>
       <c r="AT155">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU155">
         <v>1.09</v>
@@ -34360,7 +34360,7 @@
         <v>1.25</v>
       </c>
       <c r="AT173">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU173">
         <v>1.56</v>
@@ -34742,7 +34742,7 @@
         <v>1.63</v>
       </c>
       <c r="AT175">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU175">
         <v>1.09</v>
@@ -35888,7 +35888,7 @@
         <v>2.43</v>
       </c>
       <c r="AT181">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU181">
         <v>1.67</v>
@@ -37225,7 +37225,7 @@
         <v>1.25</v>
       </c>
       <c r="AT188">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU188">
         <v>1.58</v>
@@ -37416,7 +37416,7 @@
         <v>1.33</v>
       </c>
       <c r="AT189">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU189">
         <v>1.11</v>
@@ -39323,7 +39323,7 @@
         <v>2.1</v>
       </c>
       <c r="AS199">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT199">
         <v>1.93</v>
@@ -39899,7 +39899,7 @@
         <v>2.2</v>
       </c>
       <c r="AT202">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU202">
         <v>1.52</v>
@@ -40281,7 +40281,7 @@
         <v>1.33</v>
       </c>
       <c r="AT204">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU204">
         <v>1.08</v>
@@ -41615,7 +41615,7 @@
         <v>1.64</v>
       </c>
       <c r="AS211">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT211">
         <v>1.4</v>
@@ -42382,7 +42382,7 @@
         <v>2.2</v>
       </c>
       <c r="AT215">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU215">
         <v>1.51</v>
@@ -45438,7 +45438,7 @@
         <v>1.47</v>
       </c>
       <c r="AT231">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -46966,7 +46966,7 @@
         <v>0.93</v>
       </c>
       <c r="AT239">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU239">
         <v>1.07</v>
@@ -48300,7 +48300,7 @@
         <v>1.21</v>
       </c>
       <c r="AS246">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT246">
         <v>1.31</v>
@@ -48876,7 +48876,7 @@
         <v>1.13</v>
       </c>
       <c r="AT249">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU249">
         <v>1.37</v>
@@ -50019,7 +50019,7 @@
         <v>1.57</v>
       </c>
       <c r="AS255">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT255">
         <v>1.75</v>
@@ -52735,19 +52735,19 @@
         <v>10</v>
       </c>
       <c r="BG269">
+        <v>5</v>
+      </c>
+      <c r="BH269">
         <v>4</v>
       </c>
-      <c r="BH269">
-        <v>3</v>
-      </c>
       <c r="BI269">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ269">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK269">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:63">
@@ -52923,22 +52923,22 @@
         <v>3.08</v>
       </c>
       <c r="BF270">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG270">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BH270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI270">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ270">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK270">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:63">
@@ -52991,13 +52991,13 @@
         <v>329</v>
       </c>
       <c r="Q271">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R271">
         <v>2</v>
       </c>
       <c r="S271">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T271">
         <v>3.4</v>
@@ -53117,19 +53117,401 @@
         <v>6</v>
       </c>
       <c r="BG271">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH271">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI271">
         <v>5</v>
       </c>
       <c r="BJ271">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK271">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:63">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>6206654</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>64</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45085.64583333334</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>65</v>
+      </c>
+      <c r="H272" t="s">
+        <v>71</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>223</v>
+      </c>
+      <c r="P272" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q272">
+        <v>12</v>
+      </c>
+      <c r="R272">
+        <v>5</v>
+      </c>
+      <c r="S272">
+        <v>17</v>
+      </c>
+      <c r="T272">
+        <v>4.54</v>
+      </c>
+      <c r="U272">
+        <v>1.85</v>
+      </c>
+      <c r="V272">
+        <v>2.99</v>
+      </c>
+      <c r="W272">
+        <v>1.58</v>
+      </c>
+      <c r="X272">
+        <v>2.29</v>
+      </c>
+      <c r="Y272">
+        <v>3.54</v>
+      </c>
+      <c r="Z272">
+        <v>1.27</v>
+      </c>
+      <c r="AA272">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB272">
+        <v>1.04</v>
+      </c>
+      <c r="AC272">
+        <v>3.3</v>
+      </c>
+      <c r="AD272">
+        <v>2.82</v>
+      </c>
+      <c r="AE272">
+        <v>2.16</v>
+      </c>
+      <c r="AF272">
+        <v>1.08</v>
+      </c>
+      <c r="AG272">
+        <v>6.1</v>
+      </c>
+      <c r="AH272">
+        <v>1.48</v>
+      </c>
+      <c r="AI272">
+        <v>2.45</v>
+      </c>
+      <c r="AJ272">
+        <v>2.24</v>
+      </c>
+      <c r="AK272">
+        <v>1.48</v>
+      </c>
+      <c r="AL272">
+        <v>2.04</v>
+      </c>
+      <c r="AM272">
+        <v>1.74</v>
+      </c>
+      <c r="AN272">
+        <v>1.5</v>
+      </c>
+      <c r="AO272">
+        <v>1.32</v>
+      </c>
+      <c r="AP272">
+        <v>1.25</v>
+      </c>
+      <c r="AQ272">
+        <v>1.13</v>
+      </c>
+      <c r="AR272">
+        <v>1.33</v>
+      </c>
+      <c r="AS272">
+        <v>1.13</v>
+      </c>
+      <c r="AT272">
+        <v>1.31</v>
+      </c>
+      <c r="AU272">
+        <v>1.39</v>
+      </c>
+      <c r="AV272">
+        <v>1.15</v>
+      </c>
+      <c r="AW272">
+        <v>2.54</v>
+      </c>
+      <c r="AX272">
+        <v>2.01</v>
+      </c>
+      <c r="AY272">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ272">
+        <v>2.03</v>
+      </c>
+      <c r="BA272">
+        <v>1.27</v>
+      </c>
+      <c r="BB272">
+        <v>1.55</v>
+      </c>
+      <c r="BC272">
+        <v>1.94</v>
+      </c>
+      <c r="BD272">
+        <v>2.4</v>
+      </c>
+      <c r="BE272">
+        <v>3.34</v>
+      </c>
+      <c r="BF272">
+        <v>5</v>
+      </c>
+      <c r="BG272">
+        <v>7</v>
+      </c>
+      <c r="BH272">
+        <v>6</v>
+      </c>
+      <c r="BI272">
+        <v>4</v>
+      </c>
+      <c r="BJ272">
+        <v>11</v>
+      </c>
+      <c r="BK272">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:63">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>6206656</v>
+      </c>
+      <c r="C273" t="s">
+        <v>63</v>
+      </c>
+      <c r="D273" t="s">
+        <v>64</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45086.58333333334</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>78</v>
+      </c>
+      <c r="H273" t="s">
+        <v>66</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273" t="s">
+        <v>83</v>
+      </c>
+      <c r="P273" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q273">
+        <v>4</v>
+      </c>
+      <c r="R273">
+        <v>4</v>
+      </c>
+      <c r="S273">
+        <v>8</v>
+      </c>
+      <c r="T273">
+        <v>3.4</v>
+      </c>
+      <c r="U273">
+        <v>1.87</v>
+      </c>
+      <c r="V273">
+        <v>3.4</v>
+      </c>
+      <c r="W273">
+        <v>1.52</v>
+      </c>
+      <c r="X273">
+        <v>2.35</v>
+      </c>
+      <c r="Y273">
+        <v>3.25</v>
+      </c>
+      <c r="Z273">
+        <v>1.3</v>
+      </c>
+      <c r="AA273">
+        <v>9</v>
+      </c>
+      <c r="AB273">
+        <v>1.06</v>
+      </c>
+      <c r="AC273">
+        <v>2.65</v>
+      </c>
+      <c r="AD273">
+        <v>2.88</v>
+      </c>
+      <c r="AE273">
+        <v>2.92</v>
+      </c>
+      <c r="AF273">
+        <v>1.06</v>
+      </c>
+      <c r="AG273">
+        <v>7.5</v>
+      </c>
+      <c r="AH273">
+        <v>1.42</v>
+      </c>
+      <c r="AI273">
+        <v>2.75</v>
+      </c>
+      <c r="AJ273">
+        <v>2.25</v>
+      </c>
+      <c r="AK273">
+        <v>1.53</v>
+      </c>
+      <c r="AL273">
+        <v>1.87</v>
+      </c>
+      <c r="AM273">
+        <v>1.8</v>
+      </c>
+      <c r="AN273">
+        <v>1.44</v>
+      </c>
+      <c r="AO273">
+        <v>1.38</v>
+      </c>
+      <c r="AP273">
+        <v>1.42</v>
+      </c>
+      <c r="AQ273">
+        <v>1.64</v>
+      </c>
+      <c r="AR273">
+        <v>0.53</v>
+      </c>
+      <c r="AS273">
+        <v>1.6</v>
+      </c>
+      <c r="AT273">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU273">
+        <v>1.55</v>
+      </c>
+      <c r="AV273">
+        <v>1.21</v>
+      </c>
+      <c r="AW273">
+        <v>2.76</v>
+      </c>
+      <c r="AX273">
+        <v>1.68</v>
+      </c>
+      <c r="AY273">
+        <v>9.1</v>
+      </c>
+      <c r="AZ273">
+        <v>2.5</v>
+      </c>
+      <c r="BA273">
+        <v>1.19</v>
+      </c>
+      <c r="BB273">
+        <v>1.38</v>
+      </c>
+      <c r="BC273">
+        <v>1.74</v>
+      </c>
+      <c r="BD273">
+        <v>2.15</v>
+      </c>
+      <c r="BE273">
+        <v>2.79</v>
+      </c>
+      <c r="BF273">
+        <v>3</v>
+      </c>
+      <c r="BG273">
+        <v>4</v>
+      </c>
+      <c r="BH273">
+        <v>4</v>
+      </c>
+      <c r="BI273">
+        <v>8</v>
+      </c>
+      <c r="BJ273">
+        <v>7</v>
+      </c>
+      <c r="BK273">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1005,6 +1005,9 @@
   <si>
     <t>['50']</t>
   </si>
+  <si>
+    <t>['4', '56', '64']</t>
+  </si>
 </sst>
 </file>
 
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK273"/>
+  <dimension ref="A1:BK274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2272,7 +2275,7 @@
         <v>1.13</v>
       </c>
       <c r="AT5">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -3033,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT9">
         <v>1.93</v>
@@ -5898,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT24">
         <v>1.4</v>
@@ -6283,7 +6286,7 @@
         <v>0.88</v>
       </c>
       <c r="AT26">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -7235,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT31">
         <v>1.75</v>
@@ -9530,7 +9533,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU43">
         <v>1.83</v>
@@ -12965,7 +12968,7 @@
         <v>0.67</v>
       </c>
       <c r="AS61">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT61">
         <v>1.31</v>
@@ -14878,7 +14881,7 @@
         <v>1.63</v>
       </c>
       <c r="AT71">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -16212,7 +16215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT78">
         <v>0.5600000000000001</v>
@@ -17934,7 +17937,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -20608,7 +20611,7 @@
         <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -21560,7 +21563,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT106">
         <v>1.07</v>
@@ -24043,7 +24046,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -25574,7 +25577,7 @@
         <v>2.2</v>
       </c>
       <c r="AT127">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -32641,7 +32644,7 @@
         <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -33020,7 +33023,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -35312,7 +35315,7 @@
         <v>1.14</v>
       </c>
       <c r="AS178">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT178">
         <v>0.87</v>
@@ -38177,7 +38180,7 @@
         <v>1.36</v>
       </c>
       <c r="AS193">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT193">
         <v>1.19</v>
@@ -41042,7 +41045,7 @@
         <v>1.33</v>
       </c>
       <c r="AS208">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT208">
         <v>1.33</v>
@@ -42573,7 +42576,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT216">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU216">
         <v>1.47</v>
@@ -45626,7 +45629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS232">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT232">
         <v>0.8100000000000001</v>
@@ -46963,7 +46966,7 @@
         <v>1.21</v>
       </c>
       <c r="AS239">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT239">
         <v>1.31</v>
@@ -49831,7 +49834,7 @@
         <v>1.27</v>
       </c>
       <c r="AT254">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU254">
         <v>1.32</v>
@@ -50974,7 +50977,7 @@
         <v>1</v>
       </c>
       <c r="AS260">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT260">
         <v>0.93</v>
@@ -53512,6 +53515,197 @@
       </c>
       <c r="BK273">
         <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:63">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>4407764</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+      <c r="D274" t="s">
+        <v>64</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45099.64583333334</v>
+      </c>
+      <c r="F274">
+        <v>16</v>
+      </c>
+      <c r="G274" t="s">
+        <v>72</v>
+      </c>
+      <c r="H274" t="s">
+        <v>76</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>3</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>83</v>
+      </c>
+      <c r="P274" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q274">
+        <v>4</v>
+      </c>
+      <c r="R274">
+        <v>4</v>
+      </c>
+      <c r="S274">
+        <v>8</v>
+      </c>
+      <c r="T274">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="U274">
+        <v>2.43</v>
+      </c>
+      <c r="V274">
+        <v>1.86</v>
+      </c>
+      <c r="W274">
+        <v>1.38</v>
+      </c>
+      <c r="X274">
+        <v>2.99</v>
+      </c>
+      <c r="Y274">
+        <v>2.92</v>
+      </c>
+      <c r="Z274">
+        <v>1.4</v>
+      </c>
+      <c r="AA274">
+        <v>6.75</v>
+      </c>
+      <c r="AB274">
+        <v>1.04</v>
+      </c>
+      <c r="AC274">
+        <v>7.8</v>
+      </c>
+      <c r="AD274">
+        <v>4.06</v>
+      </c>
+      <c r="AE274">
+        <v>1.36</v>
+      </c>
+      <c r="AF274">
+        <v>1.01</v>
+      </c>
+      <c r="AG274">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH274">
+        <v>1.3</v>
+      </c>
+      <c r="AI274">
+        <v>3.3</v>
+      </c>
+      <c r="AJ274">
+        <v>1.82</v>
+      </c>
+      <c r="AK274">
+        <v>1.91</v>
+      </c>
+      <c r="AL274">
+        <v>2.2</v>
+      </c>
+      <c r="AM274">
+        <v>1.6</v>
+      </c>
+      <c r="AN274">
+        <v>3</v>
+      </c>
+      <c r="AO274">
+        <v>1.15</v>
+      </c>
+      <c r="AP274">
+        <v>1.03</v>
+      </c>
+      <c r="AQ274">
+        <v>0.93</v>
+      </c>
+      <c r="AR274">
+        <v>2.8</v>
+      </c>
+      <c r="AS274">
+        <v>0.87</v>
+      </c>
+      <c r="AT274">
+        <v>2.82</v>
+      </c>
+      <c r="AU274">
+        <v>1.06</v>
+      </c>
+      <c r="AV274">
+        <v>1.94</v>
+      </c>
+      <c r="AW274">
+        <v>3</v>
+      </c>
+      <c r="AX274">
+        <v>4.55</v>
+      </c>
+      <c r="AY274">
+        <v>10.25</v>
+      </c>
+      <c r="AZ274">
+        <v>1.27</v>
+      </c>
+      <c r="BA274">
+        <v>1.33</v>
+      </c>
+      <c r="BB274">
+        <v>1.61</v>
+      </c>
+      <c r="BC274">
+        <v>2.06</v>
+      </c>
+      <c r="BD274">
+        <v>2.71</v>
+      </c>
+      <c r="BE274">
+        <v>3.74</v>
+      </c>
+      <c r="BF274">
+        <v>4</v>
+      </c>
+      <c r="BG274">
+        <v>9</v>
+      </c>
+      <c r="BH274">
+        <v>4</v>
+      </c>
+      <c r="BI274">
+        <v>5</v>
+      </c>
+      <c r="BJ274">
+        <v>8</v>
+      </c>
+      <c r="BK274">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['1', '14']</t>
   </si>
   <si>
+    <t>['15', '73']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -1368,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK274"/>
+  <dimension ref="A1:BK275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1615,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1994,7 +1997,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2376,7 +2379,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT7">
         <v>1.4</v>
@@ -2758,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2848,7 +2851,7 @@
         <v>1.47</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2949,7 +2952,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3522,7 +3525,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3904,7 +3907,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -5140,7 +5143,7 @@
         <v>1.13</v>
       </c>
       <c r="AT20">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU20">
         <v>1.11</v>
@@ -6005,7 +6008,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6196,7 +6199,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -7342,7 +7345,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7533,7 +7536,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7623,7 +7626,7 @@
         <v>1.6</v>
       </c>
       <c r="AT33">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7915,7 +7918,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8106,7 +8109,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8193,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT36">
         <v>1.31</v>
@@ -9252,7 +9255,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9443,7 +9446,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9634,7 +9637,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10016,7 +10019,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10589,7 +10592,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10780,7 +10783,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11249,7 +11252,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT52">
         <v>1.75</v>
@@ -11353,7 +11356,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11926,7 +11929,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12117,7 +12120,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12690,7 +12693,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13072,7 +13075,7 @@
         <v>119</v>
       </c>
       <c r="P62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -13836,7 +13839,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14117,7 +14120,7 @@
         <v>1.87</v>
       </c>
       <c r="AT67">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14409,7 +14412,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14791,7 +14794,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15069,7 +15072,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT72">
         <v>0.44</v>
@@ -15173,7 +15176,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16128,7 +16131,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16510,7 +16513,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17465,7 +17468,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17656,7 +17659,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17847,7 +17850,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18038,7 +18041,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18229,7 +18232,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18316,7 +18319,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
         <v>1.07</v>
@@ -18510,7 +18513,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT90">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18611,7 +18614,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18993,7 +18996,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19184,7 +19187,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19566,7 +19569,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19757,7 +19760,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20521,7 +20524,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20799,7 +20802,7 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20993,7 +20996,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU103">
         <v>1.68</v>
@@ -21285,7 +21288,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21858,7 +21861,7 @@
         <v>146</v>
       </c>
       <c r="P108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -22049,7 +22052,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22240,7 +22243,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23768,7 +23771,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24341,7 +24344,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24723,7 +24726,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25105,7 +25108,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25195,7 +25198,7 @@
         <v>1.43</v>
       </c>
       <c r="AT125">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU125">
         <v>1.61</v>
@@ -25296,7 +25299,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25487,7 +25490,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25574,7 +25577,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT127">
         <v>2.82</v>
@@ -25678,7 +25681,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26633,7 +26636,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26824,7 +26827,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27206,7 +27209,7 @@
         <v>160</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27397,7 +27400,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27588,7 +27591,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27970,7 +27973,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28161,7 +28164,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28352,7 +28355,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28543,7 +28546,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28630,7 +28633,7 @@
         <v>2.43</v>
       </c>
       <c r="AS143">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT143">
         <v>1.93</v>
@@ -28734,7 +28737,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28824,7 +28827,7 @@
         <v>1.73</v>
       </c>
       <c r="AT144">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28925,7 +28928,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29116,7 +29119,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29307,7 +29310,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -30071,7 +30074,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30644,7 +30647,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31408,7 +31411,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31981,7 +31984,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32172,7 +32175,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32554,7 +32557,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32835,7 +32838,7 @@
         <v>1.13</v>
       </c>
       <c r="AT165">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -33700,7 +33703,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33891,7 +33894,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34082,7 +34085,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -35419,7 +35422,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35509,7 +35512,7 @@
         <v>0.88</v>
       </c>
       <c r="AT179">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU179">
         <v>1.2</v>
@@ -36183,7 +36186,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36374,7 +36377,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36565,7 +36568,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36652,7 +36655,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT185">
         <v>1.19</v>
@@ -36947,7 +36950,7 @@
         <v>191</v>
       </c>
       <c r="P187" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -38284,7 +38287,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38475,7 +38478,7 @@
         <v>194</v>
       </c>
       <c r="P195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q195">
         <v>11</v>
@@ -38947,7 +38950,7 @@
         <v>2.43</v>
       </c>
       <c r="AT197">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU197">
         <v>1.6</v>
@@ -39621,7 +39624,7 @@
         <v>197</v>
       </c>
       <c r="P201" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39899,7 +39902,7 @@
         <v>0.33</v>
       </c>
       <c r="AS202">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT202">
         <v>0.5600000000000001</v>
@@ -40003,7 +40006,7 @@
         <v>198</v>
       </c>
       <c r="P203" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -40194,7 +40197,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40385,7 +40388,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40958,7 +40961,7 @@
         <v>83</v>
       </c>
       <c r="P208" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41722,7 +41725,7 @@
         <v>83</v>
       </c>
       <c r="P212" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42295,7 +42298,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42382,7 +42385,7 @@
         <v>1.23</v>
       </c>
       <c r="AS215">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT215">
         <v>1.31</v>
@@ -42486,7 +42489,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -43340,7 +43343,7 @@
         <v>1.63</v>
       </c>
       <c r="AT220">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU220">
         <v>1.19</v>
@@ -43632,7 +43635,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44205,7 +44208,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44486,7 +44489,7 @@
         <v>1.27</v>
       </c>
       <c r="AT226">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU226">
         <v>1.34</v>
@@ -44674,7 +44677,7 @@
         <v>1.09</v>
       </c>
       <c r="AS227">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT227">
         <v>0.87</v>
@@ -44778,7 +44781,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44969,7 +44972,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45160,7 +45163,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45351,7 +45354,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45542,7 +45545,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -46115,7 +46118,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46396,7 +46399,7 @@
         <v>1.25</v>
       </c>
       <c r="AT236">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU236">
         <v>1.52</v>
@@ -46497,7 +46500,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46879,7 +46882,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47261,7 +47264,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47730,7 +47733,7 @@
         <v>1.08</v>
       </c>
       <c r="AS243">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT243">
         <v>0.93</v>
@@ -48025,7 +48028,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48216,7 +48219,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48789,7 +48792,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49744,7 +49747,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49935,7 +49938,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50404,7 +50407,7 @@
         <v>0.71</v>
       </c>
       <c r="AS257">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT257">
         <v>0.8100000000000001</v>
@@ -50699,7 +50702,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51171,7 +51174,7 @@
         <v>1.33</v>
       </c>
       <c r="AT261">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU261">
         <v>1.17</v>
@@ -51845,7 +51848,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q265">
         <v>2</v>
@@ -51932,7 +51935,7 @@
         <v>1.21</v>
       </c>
       <c r="AS265">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT265">
         <v>1.13</v>
@@ -52036,7 +52039,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52800,7 +52803,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -52991,7 +52994,7 @@
         <v>83</v>
       </c>
       <c r="P271" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q271">
         <v>6</v>
@@ -53564,7 +53567,7 @@
         <v>83</v>
       </c>
       <c r="P274" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53706,6 +53709,197 @@
       </c>
       <c r="BK274">
         <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:63">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>6206657</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275" t="s">
+        <v>64</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45104.64583333334</v>
+      </c>
+      <c r="F275">
+        <v>32</v>
+      </c>
+      <c r="G275" t="s">
+        <v>70</v>
+      </c>
+      <c r="H275" t="s">
+        <v>77</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>233</v>
+      </c>
+      <c r="P275" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q275">
+        <v>3</v>
+      </c>
+      <c r="R275">
+        <v>4</v>
+      </c>
+      <c r="S275">
+        <v>7</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
+        <v>2.25</v>
+      </c>
+      <c r="V275">
+        <v>5.5</v>
+      </c>
+      <c r="W275">
+        <v>1.36</v>
+      </c>
+      <c r="X275">
+        <v>2.99</v>
+      </c>
+      <c r="Y275">
+        <v>2.65</v>
+      </c>
+      <c r="Z275">
+        <v>1.43</v>
+      </c>
+      <c r="AA275">
+        <v>6.55</v>
+      </c>
+      <c r="AB275">
+        <v>1.09</v>
+      </c>
+      <c r="AC275">
+        <v>1.43</v>
+      </c>
+      <c r="AD275">
+        <v>4.1</v>
+      </c>
+      <c r="AE275">
+        <v>6.75</v>
+      </c>
+      <c r="AF275">
+        <v>1.01</v>
+      </c>
+      <c r="AG275">
+        <v>9.9</v>
+      </c>
+      <c r="AH275">
+        <v>1.25</v>
+      </c>
+      <c r="AI275">
+        <v>3.6</v>
+      </c>
+      <c r="AJ275">
+        <v>1.81</v>
+      </c>
+      <c r="AK275">
+        <v>1.89</v>
+      </c>
+      <c r="AL275">
+        <v>1.95</v>
+      </c>
+      <c r="AM275">
+        <v>1.78</v>
+      </c>
+      <c r="AN275">
+        <v>1.06</v>
+      </c>
+      <c r="AO275">
+        <v>1.17</v>
+      </c>
+      <c r="AP275">
+        <v>2.4</v>
+      </c>
+      <c r="AQ275">
+        <v>2.2</v>
+      </c>
+      <c r="AR275">
+        <v>0.8</v>
+      </c>
+      <c r="AS275">
+        <v>2.25</v>
+      </c>
+      <c r="AT275">
+        <v>0.75</v>
+      </c>
+      <c r="AU275">
+        <v>1.61</v>
+      </c>
+      <c r="AV275">
+        <v>1.16</v>
+      </c>
+      <c r="AW275">
+        <v>2.77</v>
+      </c>
+      <c r="AX275">
+        <v>1.48</v>
+      </c>
+      <c r="AY275">
+        <v>9.5</v>
+      </c>
+      <c r="AZ275">
+        <v>3.08</v>
+      </c>
+      <c r="BA275">
+        <v>1.19</v>
+      </c>
+      <c r="BB275">
+        <v>1.38</v>
+      </c>
+      <c r="BC275">
+        <v>1.74</v>
+      </c>
+      <c r="BD275">
+        <v>2.14</v>
+      </c>
+      <c r="BE275">
+        <v>2.79</v>
+      </c>
+      <c r="BF275">
+        <v>4</v>
+      </c>
+      <c r="BG275">
+        <v>2</v>
+      </c>
+      <c r="BH275">
+        <v>8</v>
+      </c>
+      <c r="BI275">
+        <v>4</v>
+      </c>
+      <c r="BJ275">
+        <v>12</v>
+      </c>
+      <c r="BK275">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,12 @@
     <t>['15', '73']</t>
   </si>
   <si>
+    <t>['52', '68']</t>
+  </si>
+  <si>
+    <t>['34', '45+6', '54', '57', '78']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -1010,6 +1016,9 @@
   </si>
   <si>
     <t>['4', '56', '64']</t>
+  </si>
+  <si>
+    <t>['27', '30']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK275"/>
+  <dimension ref="A1:BK278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1624,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1997,7 +2006,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2084,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT4">
         <v>0.87</v>
@@ -2379,7 +2388,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2660,7 +2669,7 @@
         <v>2.25</v>
       </c>
       <c r="AT7">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2761,7 +2770,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2952,7 +2961,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3042,7 +3051,7 @@
         <v>0.87</v>
       </c>
       <c r="AT9">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3421,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT11">
         <v>1.31</v>
@@ -3525,7 +3534,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3806,7 +3815,7 @@
         <v>2.43</v>
       </c>
       <c r="AT13">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3907,7 +3916,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -5331,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT21">
         <v>1.19</v>
@@ -5907,7 +5916,7 @@
         <v>0.87</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU24">
         <v>0.68</v>
@@ -6008,7 +6017,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6199,7 +6208,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6668,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT28">
         <v>0.5600000000000001</v>
@@ -7053,7 +7062,7 @@
         <v>1.87</v>
       </c>
       <c r="AT30">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU30">
         <v>1.91</v>
@@ -7345,7 +7354,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7536,7 +7545,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7918,7 +7927,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8008,7 +8017,7 @@
         <v>0.88</v>
       </c>
       <c r="AT35">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU35">
         <v>1.19</v>
@@ -8109,7 +8118,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8581,7 +8590,7 @@
         <v>1.13</v>
       </c>
       <c r="AT38">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU38">
         <v>0.54</v>
@@ -8960,7 +8969,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT40">
         <v>0.5600000000000001</v>
@@ -9151,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT41">
         <v>1.31</v>
@@ -9255,7 +9264,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9446,7 +9455,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9637,7 +9646,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10019,7 +10028,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10109,7 +10118,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT46">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU46">
         <v>0.89</v>
@@ -10592,7 +10601,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10783,7 +10792,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11356,7 +11365,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11637,7 +11646,7 @@
         <v>1.13</v>
       </c>
       <c r="AT54">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU54">
         <v>0.89</v>
@@ -11929,7 +11938,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12120,7 +12129,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12210,7 +12219,7 @@
         <v>1.25</v>
       </c>
       <c r="AT57">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12401,7 +12410,7 @@
         <v>0.88</v>
       </c>
       <c r="AT58">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU58">
         <v>0.97</v>
@@ -12693,7 +12702,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -13075,7 +13084,7 @@
         <v>119</v>
       </c>
       <c r="P62" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -13547,7 +13556,7 @@
         <v>2.43</v>
       </c>
       <c r="AT64">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -13839,7 +13848,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14308,10 +14317,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT68">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU68">
         <v>1.51</v>
@@ -14412,7 +14421,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14794,7 +14803,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15176,7 +15185,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15263,7 +15272,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT73">
         <v>1.31</v>
@@ -16131,7 +16140,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16513,7 +16522,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16985,7 +16994,7 @@
         <v>2.43</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -17173,7 +17182,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -17468,7 +17477,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17659,7 +17668,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17749,7 +17758,7 @@
         <v>1.63</v>
       </c>
       <c r="AT86">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU86">
         <v>1.01</v>
@@ -17850,7 +17859,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18041,7 +18050,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18128,10 +18137,10 @@
         <v>0.6</v>
       </c>
       <c r="AS88">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT88">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18232,7 +18241,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18614,7 +18623,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18996,7 +19005,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19187,7 +19196,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19569,7 +19578,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19760,7 +19769,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20232,7 +20241,7 @@
         <v>1.87</v>
       </c>
       <c r="AT99">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU99">
         <v>1.26</v>
@@ -20524,7 +20533,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20993,7 +21002,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT103">
         <v>0.75</v>
@@ -21184,7 +21193,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT104">
         <v>1.13</v>
@@ -21288,7 +21297,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21378,7 +21387,7 @@
         <v>1.25</v>
       </c>
       <c r="AT105">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -21760,7 +21769,7 @@
         <v>1.73</v>
       </c>
       <c r="AT107">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21861,7 +21870,7 @@
         <v>146</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -22052,7 +22061,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22243,7 +22252,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23771,7 +23780,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24344,7 +24353,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24434,7 +24443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT121">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU121">
         <v>1.04</v>
@@ -24625,7 +24634,7 @@
         <v>1.47</v>
       </c>
       <c r="AT122">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU122">
         <v>1.73</v>
@@ -24726,7 +24735,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25004,7 +25013,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -25108,7 +25117,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25195,7 +25204,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT125">
         <v>0.75</v>
@@ -25299,7 +25308,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25389,7 +25398,7 @@
         <v>1.25</v>
       </c>
       <c r="AT126">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25490,7 +25499,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25681,7 +25690,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26636,7 +26645,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26827,7 +26836,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27209,7 +27218,7 @@
         <v>160</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27400,7 +27409,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27591,7 +27600,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27973,7 +27982,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28060,7 +28069,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT140">
         <v>1</v>
@@ -28164,7 +28173,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28254,7 +28263,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU141">
         <v>1.11</v>
@@ -28355,7 +28364,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28442,7 +28451,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT142">
         <v>0.87</v>
@@ -28546,7 +28555,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28636,7 +28645,7 @@
         <v>2.25</v>
       </c>
       <c r="AT143">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -28737,7 +28746,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28928,7 +28937,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29018,7 +29027,7 @@
         <v>0.88</v>
       </c>
       <c r="AT145">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU145">
         <v>0.9399999999999999</v>
@@ -29119,7 +29128,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29310,7 +29319,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -30074,7 +30083,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30546,7 +30555,7 @@
         <v>1.6</v>
       </c>
       <c r="AT153">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU153">
         <v>1.6</v>
@@ -30647,7 +30656,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31411,7 +31420,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31880,7 +31889,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT160">
         <v>1.19</v>
@@ -31984,7 +31993,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32074,7 +32083,7 @@
         <v>1.73</v>
       </c>
       <c r="AT161">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32175,7 +32184,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32557,7 +32566,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33220,7 +33229,7 @@
         <v>1.47</v>
       </c>
       <c r="AT167">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -33408,7 +33417,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT168">
         <v>1.75</v>
@@ -33703,7 +33712,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33793,7 +33802,7 @@
         <v>1.25</v>
       </c>
       <c r="AT170">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU170">
         <v>1.44</v>
@@ -33894,7 +33903,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34085,7 +34094,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -35127,7 +35136,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT177">
         <v>1.33</v>
@@ -35422,7 +35431,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35700,7 +35709,7 @@
         <v>0.6</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT180">
         <v>0.8100000000000001</v>
@@ -36186,7 +36195,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36276,7 +36285,7 @@
         <v>1.47</v>
       </c>
       <c r="AT183">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU183">
         <v>1.63</v>
@@ -36377,7 +36386,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36467,7 +36476,7 @@
         <v>1.13</v>
       </c>
       <c r="AT184">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU184">
         <v>1.35</v>
@@ -36568,7 +36577,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36950,7 +36959,7 @@
         <v>191</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37804,7 +37813,7 @@
         <v>1.63</v>
       </c>
       <c r="AT191">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU191">
         <v>1.15</v>
@@ -38287,7 +38296,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38377,7 +38386,7 @@
         <v>1.13</v>
       </c>
       <c r="AT194">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU194">
         <v>1.36</v>
@@ -38478,7 +38487,7 @@
         <v>194</v>
       </c>
       <c r="P195" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q195">
         <v>11</v>
@@ -38565,7 +38574,7 @@
         <v>1.45</v>
       </c>
       <c r="AS195">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT195">
         <v>1.33</v>
@@ -39332,7 +39341,7 @@
         <v>1.6</v>
       </c>
       <c r="AT199">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU199">
         <v>1.64</v>
@@ -39520,7 +39529,7 @@
         <v>0.55</v>
       </c>
       <c r="AS200">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT200">
         <v>0.44</v>
@@ -39624,7 +39633,7 @@
         <v>197</v>
       </c>
       <c r="P201" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -40006,7 +40015,7 @@
         <v>198</v>
       </c>
       <c r="P203" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q203">
         <v>1</v>
@@ -40197,7 +40206,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40388,7 +40397,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40669,7 +40678,7 @@
         <v>1.25</v>
       </c>
       <c r="AT206">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU206">
         <v>1.44</v>
@@ -40961,7 +40970,7 @@
         <v>83</v>
       </c>
       <c r="P208" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q208">
         <v>7</v>
@@ -41624,7 +41633,7 @@
         <v>1.6</v>
       </c>
       <c r="AT211">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU211">
         <v>1.6</v>
@@ -41725,7 +41734,7 @@
         <v>83</v>
       </c>
       <c r="P212" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42298,7 +42307,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42489,7 +42498,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42767,7 +42776,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT217">
         <v>1</v>
@@ -42961,7 +42970,7 @@
         <v>1.33</v>
       </c>
       <c r="AT218">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU218">
         <v>1.12</v>
@@ -43534,7 +43543,7 @@
         <v>1.27</v>
       </c>
       <c r="AT221">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU221">
         <v>1.42</v>
@@ -43635,7 +43644,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43722,7 +43731,7 @@
         <v>1.09</v>
       </c>
       <c r="AS222">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT222">
         <v>1.07</v>
@@ -44208,7 +44217,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44781,7 +44790,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44871,7 +44880,7 @@
         <v>1.25</v>
       </c>
       <c r="AT228">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU228">
         <v>1.42</v>
@@ -44972,7 +44981,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45163,7 +45172,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45354,7 +45363,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45545,7 +45554,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -46014,7 +46023,7 @@
         <v>1.25</v>
       </c>
       <c r="AS234">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT234">
         <v>1.07</v>
@@ -46118,7 +46127,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46500,7 +46509,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46587,7 +46596,7 @@
         <v>1.08</v>
       </c>
       <c r="AS237">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT237">
         <v>1</v>
@@ -46882,7 +46891,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47163,7 +47172,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT240">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU240">
         <v>1.43</v>
@@ -47264,7 +47273,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47736,7 +47745,7 @@
         <v>2.25</v>
       </c>
       <c r="AT243">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU243">
         <v>1.52</v>
@@ -48028,7 +48037,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48219,7 +48228,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48792,7 +48801,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49264,7 +49273,7 @@
         <v>1.63</v>
       </c>
       <c r="AT251">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU251">
         <v>1.22</v>
@@ -49643,7 +49652,7 @@
         <v>0.43</v>
       </c>
       <c r="AS253">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT253">
         <v>0.44</v>
@@ -49747,7 +49756,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49938,7 +49947,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50702,7 +50711,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -50983,7 +50992,7 @@
         <v>0.87</v>
       </c>
       <c r="AT260">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU260">
         <v>1.08</v>
@@ -51553,10 +51562,10 @@
         <v>2.07</v>
       </c>
       <c r="AS263">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AT263">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AU263">
         <v>1.75</v>
@@ -51747,7 +51756,7 @@
         <v>1.27</v>
       </c>
       <c r="AT264">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU264">
         <v>1.27</v>
@@ -51848,7 +51857,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q265">
         <v>2</v>
@@ -52039,7 +52048,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52803,7 +52812,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -52994,7 +53003,7 @@
         <v>83</v>
       </c>
       <c r="P271" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q271">
         <v>6</v>
@@ -53567,7 +53576,7 @@
         <v>83</v>
       </c>
       <c r="P274" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53900,6 +53909,579 @@
       </c>
       <c r="BK275">
         <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:63">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>6206658</v>
+      </c>
+      <c r="C276" t="s">
+        <v>63</v>
+      </c>
+      <c r="D276" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45105.54166666666</v>
+      </c>
+      <c r="F276">
+        <v>32</v>
+      </c>
+      <c r="G276" t="s">
+        <v>67</v>
+      </c>
+      <c r="H276" t="s">
+        <v>79</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>234</v>
+      </c>
+      <c r="P276" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>7</v>
+      </c>
+      <c r="S276">
+        <v>8</v>
+      </c>
+      <c r="T276">
+        <v>3.84</v>
+      </c>
+      <c r="U276">
+        <v>1.94</v>
+      </c>
+      <c r="V276">
+        <v>3.47</v>
+      </c>
+      <c r="W276">
+        <v>1.58</v>
+      </c>
+      <c r="X276">
+        <v>2.36</v>
+      </c>
+      <c r="Y276">
+        <v>3.72</v>
+      </c>
+      <c r="Z276">
+        <v>1.25</v>
+      </c>
+      <c r="AA276">
+        <v>10.5</v>
+      </c>
+      <c r="AB276">
+        <v>1.03</v>
+      </c>
+      <c r="AC276">
+        <v>2.9</v>
+      </c>
+      <c r="AD276">
+        <v>2.95</v>
+      </c>
+      <c r="AE276">
+        <v>2.41</v>
+      </c>
+      <c r="AF276">
+        <v>1.13</v>
+      </c>
+      <c r="AG276">
+        <v>5.86</v>
+      </c>
+      <c r="AH276">
+        <v>1.5</v>
+      </c>
+      <c r="AI276">
+        <v>2.4</v>
+      </c>
+      <c r="AJ276">
+        <v>2.55</v>
+      </c>
+      <c r="AK276">
+        <v>1.47</v>
+      </c>
+      <c r="AL276">
+        <v>2.12</v>
+      </c>
+      <c r="AM276">
+        <v>1.7</v>
+      </c>
+      <c r="AN276">
+        <v>1.51</v>
+      </c>
+      <c r="AO276">
+        <v>1.37</v>
+      </c>
+      <c r="AP276">
+        <v>1.38</v>
+      </c>
+      <c r="AQ276">
+        <v>1.43</v>
+      </c>
+      <c r="AR276">
+        <v>1.93</v>
+      </c>
+      <c r="AS276">
+        <v>1.53</v>
+      </c>
+      <c r="AT276">
+        <v>1.81</v>
+      </c>
+      <c r="AU276">
+        <v>1.58</v>
+      </c>
+      <c r="AV276">
+        <v>1.38</v>
+      </c>
+      <c r="AW276">
+        <v>2.96</v>
+      </c>
+      <c r="AX276">
+        <v>0</v>
+      </c>
+      <c r="AY276">
+        <v>0</v>
+      </c>
+      <c r="AZ276">
+        <v>0</v>
+      </c>
+      <c r="BA276">
+        <v>0</v>
+      </c>
+      <c r="BB276">
+        <v>0</v>
+      </c>
+      <c r="BC276">
+        <v>0</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>2</v>
+      </c>
+      <c r="BG276">
+        <v>8</v>
+      </c>
+      <c r="BH276">
+        <v>2</v>
+      </c>
+      <c r="BI276">
+        <v>7</v>
+      </c>
+      <c r="BJ276">
+        <v>4</v>
+      </c>
+      <c r="BK276">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:63">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>6206659</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45105.64583333334</v>
+      </c>
+      <c r="F277">
+        <v>32</v>
+      </c>
+      <c r="G277" t="s">
+        <v>74</v>
+      </c>
+      <c r="H277" t="s">
+        <v>80</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>2</v>
+      </c>
+      <c r="K277">
+        <v>4</v>
+      </c>
+      <c r="L277">
+        <v>5</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>7</v>
+      </c>
+      <c r="O277" t="s">
+        <v>235</v>
+      </c>
+      <c r="P277" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q277">
+        <v>4</v>
+      </c>
+      <c r="R277">
+        <v>6</v>
+      </c>
+      <c r="S277">
+        <v>10</v>
+      </c>
+      <c r="T277">
+        <v>1.87</v>
+      </c>
+      <c r="U277">
+        <v>2.48</v>
+      </c>
+      <c r="V277">
+        <v>7.82</v>
+      </c>
+      <c r="W277">
+        <v>1.35</v>
+      </c>
+      <c r="X277">
+        <v>3.15</v>
+      </c>
+      <c r="Y277">
+        <v>2.78</v>
+      </c>
+      <c r="Z277">
+        <v>1.43</v>
+      </c>
+      <c r="AA277">
+        <v>6.45</v>
+      </c>
+      <c r="AB277">
+        <v>1.09</v>
+      </c>
+      <c r="AC277">
+        <v>1.33</v>
+      </c>
+      <c r="AD277">
+        <v>4.53</v>
+      </c>
+      <c r="AE277">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AF277">
+        <v>1.01</v>
+      </c>
+      <c r="AG277">
+        <v>9.9</v>
+      </c>
+      <c r="AH277">
+        <v>1.23</v>
+      </c>
+      <c r="AI277">
+        <v>3.56</v>
+      </c>
+      <c r="AJ277">
+        <v>1.85</v>
+      </c>
+      <c r="AK277">
+        <v>1.9</v>
+      </c>
+      <c r="AL277">
+        <v>2.12</v>
+      </c>
+      <c r="AM277">
+        <v>1.64</v>
+      </c>
+      <c r="AN277">
+        <v>1.06</v>
+      </c>
+      <c r="AO277">
+        <v>1.17</v>
+      </c>
+      <c r="AP277">
+        <v>3.14</v>
+      </c>
+      <c r="AQ277">
+        <v>2.57</v>
+      </c>
+      <c r="AR277">
+        <v>1.4</v>
+      </c>
+      <c r="AS277">
+        <v>2.6</v>
+      </c>
+      <c r="AT277">
+        <v>1.31</v>
+      </c>
+      <c r="AU277">
+        <v>1.72</v>
+      </c>
+      <c r="AV277">
+        <v>1.18</v>
+      </c>
+      <c r="AW277">
+        <v>2.9</v>
+      </c>
+      <c r="AX277">
+        <v>1.26</v>
+      </c>
+      <c r="AY277">
+        <v>11</v>
+      </c>
+      <c r="AZ277">
+        <v>4.55</v>
+      </c>
+      <c r="BA277">
+        <v>1.19</v>
+      </c>
+      <c r="BB277">
+        <v>1.38</v>
+      </c>
+      <c r="BC277">
+        <v>1.73</v>
+      </c>
+      <c r="BD277">
+        <v>2.12</v>
+      </c>
+      <c r="BE277">
+        <v>2.75</v>
+      </c>
+      <c r="BF277">
+        <v>4</v>
+      </c>
+      <c r="BG277">
+        <v>7</v>
+      </c>
+      <c r="BH277">
+        <v>7</v>
+      </c>
+      <c r="BI277">
+        <v>7</v>
+      </c>
+      <c r="BJ277">
+        <v>11</v>
+      </c>
+      <c r="BK277">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>6206660</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>64</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45106.54166666666</v>
+      </c>
+      <c r="F278">
+        <v>32</v>
+      </c>
+      <c r="G278" t="s">
+        <v>68</v>
+      </c>
+      <c r="H278" t="s">
+        <v>65</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>123</v>
+      </c>
+      <c r="P278" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q278">
+        <v>5</v>
+      </c>
+      <c r="R278">
+        <v>1</v>
+      </c>
+      <c r="S278">
+        <v>6</v>
+      </c>
+      <c r="T278">
+        <v>2.84</v>
+      </c>
+      <c r="U278">
+        <v>2</v>
+      </c>
+      <c r="V278">
+        <v>4.75</v>
+      </c>
+      <c r="W278">
+        <v>1.55</v>
+      </c>
+      <c r="X278">
+        <v>2.43</v>
+      </c>
+      <c r="Y278">
+        <v>3.62</v>
+      </c>
+      <c r="Z278">
+        <v>1.26</v>
+      </c>
+      <c r="AA278">
+        <v>10</v>
+      </c>
+      <c r="AB278">
+        <v>1.03</v>
+      </c>
+      <c r="AC278">
+        <v>2.45</v>
+      </c>
+      <c r="AD278">
+        <v>2.27</v>
+      </c>
+      <c r="AE278">
+        <v>3.85</v>
+      </c>
+      <c r="AF278">
+        <v>1.07</v>
+      </c>
+      <c r="AG278">
+        <v>6.15</v>
+      </c>
+      <c r="AH278">
+        <v>1.6</v>
+      </c>
+      <c r="AI278">
+        <v>2.25</v>
+      </c>
+      <c r="AJ278">
+        <v>2.26</v>
+      </c>
+      <c r="AK278">
+        <v>1.48</v>
+      </c>
+      <c r="AL278">
+        <v>2.14</v>
+      </c>
+      <c r="AM278">
+        <v>1.67</v>
+      </c>
+      <c r="AN278">
+        <v>1.24</v>
+      </c>
+      <c r="AO278">
+        <v>1.36</v>
+      </c>
+      <c r="AP278">
+        <v>1.77</v>
+      </c>
+      <c r="AQ278">
+        <v>1.13</v>
+      </c>
+      <c r="AR278">
+        <v>0.93</v>
+      </c>
+      <c r="AS278">
+        <v>1.13</v>
+      </c>
+      <c r="AT278">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU278">
+        <v>1.31</v>
+      </c>
+      <c r="AV278">
+        <v>1.21</v>
+      </c>
+      <c r="AW278">
+        <v>2.52</v>
+      </c>
+      <c r="AX278">
+        <v>0</v>
+      </c>
+      <c r="AY278">
+        <v>0</v>
+      </c>
+      <c r="AZ278">
+        <v>0</v>
+      </c>
+      <c r="BA278">
+        <v>0</v>
+      </c>
+      <c r="BB278">
+        <v>1.55</v>
+      </c>
+      <c r="BC278">
+        <v>1.92</v>
+      </c>
+      <c r="BD278">
+        <v>2.38</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>3</v>
+      </c>
+      <c r="BG278">
+        <v>2</v>
+      </c>
+      <c r="BH278">
+        <v>8</v>
+      </c>
+      <c r="BI278">
+        <v>2</v>
+      </c>
+      <c r="BJ278">
+        <v>11</v>
+      </c>
+      <c r="BK278">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['42', '90+9']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -1016,9 +1019,6 @@
   </si>
   <si>
     <t>['41', '90+6']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['4', '56', '64']</t>
@@ -1392,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK284"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1636,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2018,7 +2018,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2400,7 +2400,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2782,7 +2782,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2973,7 +2973,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3546,7 +3546,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT13">
         <v>0.9399999999999999</v>
@@ -3928,7 +3928,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4018,7 +4018,7 @@
         <v>1.25</v>
       </c>
       <c r="AT14">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6220,7 +6220,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -7074,7 +7074,7 @@
         <v>1.63</v>
       </c>
       <c r="AT30">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.45</v>
@@ -7175,7 +7175,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7557,7 +7557,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7939,7 +7939,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8130,7 +8130,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8790,7 +8790,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT39">
         <v>0.8100000000000001</v>
@@ -9085,7 +9085,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9467,7 +9467,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9658,7 +9658,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10040,7 +10040,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10512,7 +10512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10613,7 +10613,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10804,7 +10804,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11377,7 +11377,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11846,7 +11846,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT55">
         <v>1.13</v>
@@ -11950,7 +11950,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12141,7 +12141,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12714,7 +12714,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12905,7 +12905,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13565,7 +13565,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT64">
         <v>1.81</v>
@@ -13860,7 +13860,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14433,7 +14433,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14523,7 +14523,7 @@
         <v>1.44</v>
       </c>
       <c r="AT69">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU69">
         <v>0.89</v>
@@ -14815,7 +14815,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -15197,7 +15197,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16152,7 +16152,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16534,7 +16534,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17003,7 +17003,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT82">
         <v>1.31</v>
@@ -17489,7 +17489,7 @@
         <v>132</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17680,7 +17680,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17871,7 +17871,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18062,7 +18062,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18253,7 +18253,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18343,7 +18343,7 @@
         <v>2.25</v>
       </c>
       <c r="AT89">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.33</v>
@@ -18635,7 +18635,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -19017,7 +19017,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19208,7 +19208,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19486,7 +19486,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT95">
         <v>1.75</v>
@@ -19590,7 +19590,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19781,7 +19781,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20545,7 +20545,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -21118,7 +21118,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21590,7 +21590,7 @@
         <v>0.88</v>
       </c>
       <c r="AT106">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>0.95</v>
@@ -21882,7 +21882,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22073,7 +22073,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22264,7 +22264,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23306,7 +23306,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT115">
         <v>1.31</v>
@@ -23792,7 +23792,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24264,7 +24264,7 @@
         <v>1.25</v>
       </c>
       <c r="AT120">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.29</v>
@@ -24365,7 +24365,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24747,7 +24747,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25129,7 +25129,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25320,7 +25320,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25511,7 +25511,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25702,7 +25702,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26174,7 +26174,7 @@
         <v>1.13</v>
       </c>
       <c r="AT130">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.41</v>
@@ -26657,7 +26657,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26848,7 +26848,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27039,7 +27039,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27317,7 +27317,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT136">
         <v>0.5600000000000001</v>
@@ -27421,7 +27421,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27612,7 +27612,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27994,7 +27994,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28185,7 +28185,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28376,7 +28376,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28567,7 +28567,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28758,7 +28758,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28949,7 +28949,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29140,7 +29140,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29331,7 +29331,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29421,7 +29421,7 @@
         <v>1.6</v>
       </c>
       <c r="AT147">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>1.63</v>
@@ -30095,7 +30095,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30668,7 +30668,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31432,7 +31432,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -32005,7 +32005,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32196,7 +32196,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32578,7 +32578,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33724,7 +33724,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33915,7 +33915,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34297,7 +34297,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34575,7 +34575,7 @@
         <v>1.11</v>
       </c>
       <c r="AS174">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT174">
         <v>1.13</v>
@@ -34960,7 +34960,7 @@
         <v>1.81</v>
       </c>
       <c r="AT176">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU176">
         <v>1.32</v>
@@ -35443,7 +35443,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35912,7 +35912,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT181">
         <v>1.31</v>
@@ -36207,7 +36207,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36398,7 +36398,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36589,7 +36589,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -37353,7 +37353,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37443,7 +37443,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT189">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU189">
         <v>1.45</v>
@@ -38308,7 +38308,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38690,7 +38690,7 @@
         <v>194</v>
       </c>
       <c r="P196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -38968,7 +38968,7 @@
         <v>1.1</v>
       </c>
       <c r="AS197">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT197">
         <v>0.75</v>
@@ -39454,7 +39454,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39836,7 +39836,7 @@
         <v>198</v>
       </c>
       <c r="P202" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -40218,7 +40218,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40409,7 +40409,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -41364,7 +41364,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41555,7 +41555,7 @@
         <v>83</v>
       </c>
       <c r="P211" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41833,7 +41833,7 @@
         <v>1.09</v>
       </c>
       <c r="AS212">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT212">
         <v>0.9399999999999999</v>
@@ -42319,7 +42319,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42510,7 +42510,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -43656,7 +43656,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43746,7 +43746,7 @@
         <v>1.53</v>
       </c>
       <c r="AT222">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU222">
         <v>1.67</v>
@@ -44229,7 +44229,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44802,7 +44802,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44993,7 +44993,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45184,7 +45184,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45375,7 +45375,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45566,7 +45566,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -46038,7 +46038,7 @@
         <v>2.6</v>
       </c>
       <c r="AT234">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU234">
         <v>1.65</v>
@@ -46139,7 +46139,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46521,7 +46521,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46903,7 +46903,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47285,7 +47285,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47566,7 +47566,7 @@
         <v>1.63</v>
       </c>
       <c r="AT242">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU242">
         <v>1.37</v>
@@ -48049,7 +48049,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48240,7 +48240,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48813,7 +48813,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -49282,7 +49282,7 @@
         <v>1.36</v>
       </c>
       <c r="AS251">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT251">
         <v>1.19</v>
@@ -49768,7 +49768,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49959,7 +49959,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50237,7 +50237,7 @@
         <v>0.92</v>
       </c>
       <c r="AS256">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT256">
         <v>0.88</v>
@@ -50723,7 +50723,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -50813,7 +50813,7 @@
         <v>1.38</v>
       </c>
       <c r="AT259">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51869,7 +51869,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q265">
         <v>2</v>
@@ -52060,7 +52060,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52824,7 +52824,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -53015,7 +53015,7 @@
         <v>83</v>
       </c>
       <c r="P271" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="Q271">
         <v>6</v>
@@ -54734,7 +54734,7 @@
         <v>236</v>
       </c>
       <c r="P280" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -55640,6 +55640,197 @@
       </c>
       <c r="BK284">
         <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:63">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>4407782</v>
+      </c>
+      <c r="C285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D285" t="s">
+        <v>64</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45112.60416666666</v>
+      </c>
+      <c r="F285">
+        <v>18</v>
+      </c>
+      <c r="G285" t="s">
+        <v>76</v>
+      </c>
+      <c r="H285" t="s">
+        <v>68</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
+        <v>238</v>
+      </c>
+      <c r="P285" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q285">
+        <v>8</v>
+      </c>
+      <c r="R285">
+        <v>1</v>
+      </c>
+      <c r="S285">
+        <v>9</v>
+      </c>
+      <c r="T285">
+        <v>1.83</v>
+      </c>
+      <c r="U285">
+        <v>2.2</v>
+      </c>
+      <c r="V285">
+        <v>8</v>
+      </c>
+      <c r="W285">
+        <v>1.4</v>
+      </c>
+      <c r="X285">
+        <v>2.75</v>
+      </c>
+      <c r="Y285">
+        <v>3</v>
+      </c>
+      <c r="Z285">
+        <v>1.36</v>
+      </c>
+      <c r="AA285">
+        <v>7</v>
+      </c>
+      <c r="AB285">
+        <v>1.08</v>
+      </c>
+      <c r="AC285">
+        <v>1.33</v>
+      </c>
+      <c r="AD285">
+        <v>4.6</v>
+      </c>
+      <c r="AE285">
+        <v>8.5</v>
+      </c>
+      <c r="AF285">
+        <v>1.03</v>
+      </c>
+      <c r="AG285">
+        <v>15</v>
+      </c>
+      <c r="AH285">
+        <v>1.25</v>
+      </c>
+      <c r="AI285">
+        <v>3.6</v>
+      </c>
+      <c r="AJ285">
+        <v>1.85</v>
+      </c>
+      <c r="AK285">
+        <v>1.85</v>
+      </c>
+      <c r="AL285">
+        <v>2.63</v>
+      </c>
+      <c r="AM285">
+        <v>1.44</v>
+      </c>
+      <c r="AN285">
+        <v>1.06</v>
+      </c>
+      <c r="AO285">
+        <v>1.17</v>
+      </c>
+      <c r="AP285">
+        <v>3.3</v>
+      </c>
+      <c r="AQ285">
+        <v>2.43</v>
+      </c>
+      <c r="AR285">
+        <v>1.07</v>
+      </c>
+      <c r="AS285">
+        <v>2.47</v>
+      </c>
+      <c r="AT285">
+        <v>1</v>
+      </c>
+      <c r="AU285">
+        <v>1.77</v>
+      </c>
+      <c r="AV285">
+        <v>1.34</v>
+      </c>
+      <c r="AW285">
+        <v>3.11</v>
+      </c>
+      <c r="AX285">
+        <v>1.24</v>
+      </c>
+      <c r="AY285">
+        <v>10.75</v>
+      </c>
+      <c r="AZ285">
+        <v>4.85</v>
+      </c>
+      <c r="BA285">
+        <v>1.23</v>
+      </c>
+      <c r="BB285">
+        <v>1.44</v>
+      </c>
+      <c r="BC285">
+        <v>1.79</v>
+      </c>
+      <c r="BD285">
+        <v>2.27</v>
+      </c>
+      <c r="BE285">
+        <v>3.04</v>
+      </c>
+      <c r="BF285">
+        <v>6</v>
+      </c>
+      <c r="BG285">
+        <v>3</v>
+      </c>
+      <c r="BH285">
+        <v>9</v>
+      </c>
+      <c r="BI285">
+        <v>2</v>
+      </c>
+      <c r="BJ285">
+        <v>15</v>
+      </c>
+      <c r="BK285">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,15 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['4', '25']</t>
+  </si>
+  <si>
+    <t>['45+2', '83']</t>
+  </si>
+  <si>
+    <t>['5', '41']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -1031,6 +1040,18 @@
   </si>
   <si>
     <t>['73', '80']</t>
+  </si>
+  <si>
+    <t>['10', '13']</t>
+  </si>
+  <si>
+    <t>['45+2', '45+6', '54']</t>
+  </si>
+  <si>
+    <t>['6', '74', '87']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2018,7 +2039,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -2299,7 +2320,7 @@
         <v>1.13</v>
       </c>
       <c r="AT5">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2400,7 +2421,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2490,7 +2511,7 @@
         <v>1.44</v>
       </c>
       <c r="AT6">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2782,7 +2803,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2973,7 +2994,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3251,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT10">
         <v>0.8100000000000001</v>
@@ -3445,7 +3466,7 @@
         <v>2.6</v>
       </c>
       <c r="AT11">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3546,7 +3567,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3633,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3827,7 +3848,7 @@
         <v>2.47</v>
       </c>
       <c r="AT13">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3928,7 +3949,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4015,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4206,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1.13</v>
@@ -4397,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT16">
         <v>1.31</v>
@@ -4588,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT17">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4779,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT18">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4970,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT19">
         <v>0.44</v>
@@ -5355,7 +5376,7 @@
         <v>1.53</v>
       </c>
       <c r="AT21">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5543,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
         <v>0.8100000000000001</v>
@@ -6029,7 +6050,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6220,7 +6241,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6307,10 +6328,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT26">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6501,7 +6522,7 @@
         <v>1.44</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6692,7 +6713,7 @@
         <v>2.6</v>
       </c>
       <c r="AT28">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU28">
         <v>0.8</v>
@@ -6880,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT29">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU29">
         <v>1.91</v>
@@ -7071,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU30">
         <v>1.45</v>
@@ -7175,7 +7196,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7265,7 +7286,7 @@
         <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU31">
         <v>1.48</v>
@@ -7456,7 +7477,7 @@
         <v>0.88</v>
       </c>
       <c r="AT32">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU32">
         <v>0.76</v>
@@ -7557,7 +7578,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7644,7 +7665,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT33">
         <v>0.75</v>
@@ -7939,7 +7960,7 @@
         <v>83</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8026,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT35">
         <v>1.81</v>
@@ -8130,7 +8151,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8220,7 +8241,7 @@
         <v>2.25</v>
       </c>
       <c r="AT36">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU36">
         <v>1.08</v>
@@ -8984,7 +9005,7 @@
         <v>1.53</v>
       </c>
       <c r="AT40">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU40">
         <v>1.74</v>
@@ -9085,7 +9106,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9172,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT41">
         <v>1.13</v>
@@ -9467,7 +9488,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9554,10 +9575,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT43">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU43">
         <v>1.83</v>
@@ -9658,7 +9679,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9745,10 +9766,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -10040,7 +10061,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10127,10 +10148,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT46">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU46">
         <v>0.89</v>
@@ -10318,7 +10339,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
         <v>1.13</v>
@@ -10509,10 +10530,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10613,7 +10634,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10700,7 +10721,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT49">
         <v>1.13</v>
@@ -10804,7 +10825,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -10891,10 +10912,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT50">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11082,7 +11103,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT51">
         <v>1.31</v>
@@ -11276,7 +11297,7 @@
         <v>2.25</v>
       </c>
       <c r="AT52">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU52">
         <v>1.24</v>
@@ -11377,7 +11398,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11464,7 +11485,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT53">
         <v>0.44</v>
@@ -11950,7 +11971,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12037,7 +12058,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT56">
         <v>0.8100000000000001</v>
@@ -12141,7 +12162,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12228,10 +12249,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT57">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12419,7 +12440,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT58">
         <v>1.31</v>
@@ -12610,7 +12631,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>0.9399999999999999</v>
@@ -12714,7 +12735,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12804,7 +12825,7 @@
         <v>1.38</v>
       </c>
       <c r="AT60">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12905,7 +12926,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12995,7 +13016,7 @@
         <v>1.13</v>
       </c>
       <c r="AT61">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13186,7 +13207,7 @@
         <v>0.88</v>
       </c>
       <c r="AT62">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU62">
         <v>0.76</v>
@@ -13377,7 +13398,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU63">
         <v>1.77</v>
@@ -13756,7 +13777,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT65">
         <v>1.13</v>
@@ -13860,7 +13881,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13947,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT66">
         <v>1.13</v>
@@ -14138,7 +14159,7 @@
         <v>2.33</v>
       </c>
       <c r="AS67">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
         <v>0.75</v>
@@ -14332,7 +14353,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.51</v>
@@ -14433,7 +14454,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14523,7 +14544,7 @@
         <v>1.44</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU69">
         <v>0.89</v>
@@ -14711,10 +14732,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT70">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU70">
         <v>1.17</v>
@@ -14815,7 +14836,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14902,10 +14923,10 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -15197,7 +15218,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15475,7 +15496,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
         <v>0.88</v>
@@ -15666,10 +15687,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT75">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU75">
         <v>0.92</v>
@@ -15860,7 +15881,7 @@
         <v>1.13</v>
       </c>
       <c r="AT76">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU76">
         <v>1.36</v>
@@ -16048,7 +16069,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT77">
         <v>0.9399999999999999</v>
@@ -16152,7 +16173,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16242,7 +16263,7 @@
         <v>0.88</v>
       </c>
       <c r="AT78">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU78">
         <v>0.93</v>
@@ -16430,7 +16451,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT79">
         <v>0.8100000000000001</v>
@@ -16534,7 +16555,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16624,7 +16645,7 @@
         <v>1.13</v>
       </c>
       <c r="AT80">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU80">
         <v>1.19</v>
@@ -16815,7 +16836,7 @@
         <v>1.38</v>
       </c>
       <c r="AT81">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU81">
         <v>1.58</v>
@@ -17489,7 +17510,7 @@
         <v>132</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17576,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT85">
         <v>1.81</v>
@@ -17680,7 +17701,7 @@
         <v>121</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17767,7 +17788,7 @@
         <v>0.25</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT86">
         <v>0.44</v>
@@ -17871,7 +17892,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17958,10 +17979,10 @@
         <v>3</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT87">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -18062,7 +18083,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18152,7 +18173,7 @@
         <v>1.53</v>
       </c>
       <c r="AT88">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18253,7 +18274,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18343,7 +18364,7 @@
         <v>2.25</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU89">
         <v>1.33</v>
@@ -18531,7 +18552,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT90">
         <v>0.75</v>
@@ -18635,7 +18656,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18916,7 +18937,7 @@
         <v>1.13</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU92">
         <v>1.39</v>
@@ -19017,7 +19038,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19104,10 +19125,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT93">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU93">
         <v>0.92</v>
@@ -19208,7 +19229,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19295,10 +19316,10 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU94">
         <v>1.76</v>
@@ -19489,7 +19510,7 @@
         <v>2.47</v>
       </c>
       <c r="AT95">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19590,7 +19611,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19677,7 +19698,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT96">
         <v>0.88</v>
@@ -19781,7 +19802,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20062,7 +20083,7 @@
         <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU98">
         <v>1.18</v>
@@ -20250,7 +20271,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT99">
         <v>1.31</v>
@@ -20441,7 +20462,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT100">
         <v>0.8100000000000001</v>
@@ -20545,7 +20566,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20635,7 +20656,7 @@
         <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -21118,7 +21139,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21205,7 +21226,7 @@
         <v>2.2</v>
       </c>
       <c r="AS104">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT104">
         <v>1.81</v>
@@ -21590,7 +21611,7 @@
         <v>0.88</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU106">
         <v>0.95</v>
@@ -21781,7 +21802,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21882,7 +21903,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21969,7 +21990,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT108">
         <v>0.9399999999999999</v>
@@ -22073,7 +22094,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22160,7 +22181,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT109">
         <v>1.31</v>
@@ -22264,7 +22285,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22351,10 +22372,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT110">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU110">
         <v>0.93</v>
@@ -22542,7 +22563,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT111">
         <v>0.8100000000000001</v>
@@ -22733,10 +22754,10 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -22924,10 +22945,10 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -23115,10 +23136,10 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT114">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU114">
         <v>1.48</v>
@@ -23309,7 +23330,7 @@
         <v>2.47</v>
       </c>
       <c r="AT115">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23688,7 +23709,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT117">
         <v>0.88</v>
@@ -23792,7 +23813,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24261,10 +24282,10 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU120">
         <v>1.29</v>
@@ -24365,7 +24386,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24646,7 +24667,7 @@
         <v>1.38</v>
       </c>
       <c r="AT122">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU122">
         <v>1.73</v>
@@ -24747,7 +24768,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25129,7 +25150,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25320,7 +25341,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25407,7 +25428,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT126">
         <v>1.31</v>
@@ -25511,7 +25532,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25601,7 +25622,7 @@
         <v>2.25</v>
       </c>
       <c r="AT127">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25702,7 +25723,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25789,7 +25810,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT128">
         <v>1.31</v>
@@ -25980,10 +26001,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT129">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU129">
         <v>1.05</v>
@@ -26174,7 +26195,7 @@
         <v>1.13</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU130">
         <v>1.41</v>
@@ -26362,7 +26383,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT131">
         <v>0.8100000000000001</v>
@@ -26553,7 +26574,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT132">
         <v>0.44</v>
@@ -26657,7 +26678,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26744,10 +26765,10 @@
         <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT133">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU133">
         <v>1.21</v>
@@ -26848,7 +26869,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26935,10 +26956,10 @@
         <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU134">
         <v>1.39</v>
@@ -27039,7 +27060,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27126,10 +27147,10 @@
         <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT135">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU135">
         <v>1.31</v>
@@ -27320,7 +27341,7 @@
         <v>2.47</v>
       </c>
       <c r="AT136">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU136">
         <v>1.54</v>
@@ -27421,7 +27442,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27612,7 +27633,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27994,7 +28015,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -28185,7 +28206,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28376,7 +28397,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28567,7 +28588,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28758,7 +28779,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28949,7 +28970,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -29036,10 +29057,10 @@
         <v>0.88</v>
       </c>
       <c r="AS145">
+        <v>0.82</v>
+      </c>
+      <c r="AT145">
         <v>0.88</v>
-      </c>
-      <c r="AT145">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AU145">
         <v>0.9399999999999999</v>
@@ -29140,7 +29161,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29227,7 +29248,7 @@
         <v>0.38</v>
       </c>
       <c r="AS146">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT146">
         <v>0.44</v>
@@ -29331,7 +29352,7 @@
         <v>169</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29418,10 +29439,10 @@
         <v>0.88</v>
       </c>
       <c r="AS147">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU147">
         <v>1.63</v>
@@ -29609,10 +29630,10 @@
         <v>1.13</v>
       </c>
       <c r="AS148">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT148">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU148">
         <v>1.52</v>
@@ -29800,10 +29821,10 @@
         <v>1.5</v>
       </c>
       <c r="AS149">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT149">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU149">
         <v>1.07</v>
@@ -29991,10 +30012,10 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT150">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -30095,7 +30116,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30182,10 +30203,10 @@
         <v>1.38</v>
       </c>
       <c r="AS151">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT151">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30373,10 +30394,10 @@
         <v>0.5</v>
       </c>
       <c r="AS152">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT152">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU152">
         <v>1.22</v>
@@ -30564,10 +30585,10 @@
         <v>1.11</v>
       </c>
       <c r="AS153">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT153">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU153">
         <v>1.6</v>
@@ -30668,7 +30689,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30755,7 +30776,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT154">
         <v>1.31</v>
@@ -30946,10 +30967,10 @@
         <v>0.44</v>
       </c>
       <c r="AS155">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT155">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU155">
         <v>1.09</v>
@@ -31137,7 +31158,7 @@
         <v>0.88</v>
       </c>
       <c r="AS156">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT156">
         <v>1.13</v>
@@ -31328,10 +31349,10 @@
         <v>1.33</v>
       </c>
       <c r="AS157">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT157">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU157">
         <v>1.56</v>
@@ -31432,7 +31453,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31519,10 +31540,10 @@
         <v>1.33</v>
       </c>
       <c r="AS158">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT158">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU158">
         <v>1.31</v>
@@ -31710,7 +31731,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT159">
         <v>0.44</v>
@@ -31904,7 +31925,7 @@
         <v>2.6</v>
       </c>
       <c r="AT160">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU160">
         <v>1.72</v>
@@ -32005,7 +32026,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -32196,7 +32217,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32283,7 +32304,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT162">
         <v>1.13</v>
@@ -32578,7 +32599,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32668,7 +32689,7 @@
         <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU164">
         <v>1.43</v>
@@ -33432,7 +33453,7 @@
         <v>1.53</v>
       </c>
       <c r="AT168">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU168">
         <v>1.74</v>
@@ -33620,7 +33641,7 @@
         <v>0.6</v>
       </c>
       <c r="AS169">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT169">
         <v>0.44</v>
@@ -33724,7 +33745,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33811,10 +33832,10 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT170">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU170">
         <v>1.44</v>
@@ -33915,7 +33936,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34002,7 +34023,7 @@
         <v>1.44</v>
       </c>
       <c r="AS171">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT171">
         <v>1.13</v>
@@ -34193,10 +34214,10 @@
         <v>0.4</v>
       </c>
       <c r="AS172">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT172">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU172">
         <v>1.56</v>
@@ -34297,7 +34318,7 @@
         <v>171</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34387,7 +34408,7 @@
         <v>1.44</v>
       </c>
       <c r="AT173">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU173">
         <v>1.09</v>
@@ -34766,7 +34787,7 @@
         <v>1.67</v>
       </c>
       <c r="AS175">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT175">
         <v>1.31</v>
@@ -34957,10 +34978,10 @@
         <v>0.89</v>
       </c>
       <c r="AS176">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT176">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU176">
         <v>1.32</v>
@@ -35151,7 +35172,7 @@
         <v>2.6</v>
       </c>
       <c r="AT177">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU177">
         <v>1.67</v>
@@ -35443,7 +35464,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35530,7 +35551,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT179">
         <v>0.75</v>
@@ -36207,7 +36228,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36398,7 +36419,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36589,7 +36610,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36679,7 +36700,7 @@
         <v>2.25</v>
       </c>
       <c r="AT185">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU185">
         <v>1.47</v>
@@ -36870,7 +36891,7 @@
         <v>1.63</v>
       </c>
       <c r="AT186">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU186">
         <v>1.39</v>
@@ -37058,7 +37079,7 @@
         <v>1.36</v>
       </c>
       <c r="AS187">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT187">
         <v>1.31</v>
@@ -37252,7 +37273,7 @@
         <v>1.44</v>
       </c>
       <c r="AT188">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU188">
         <v>1.11</v>
@@ -37353,7 +37374,7 @@
         <v>192</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37440,10 +37461,10 @@
         <v>0.9</v>
       </c>
       <c r="AS189">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT189">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU189">
         <v>1.45</v>
@@ -37631,7 +37652,7 @@
         <v>1.6</v>
       </c>
       <c r="AS190">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT190">
         <v>1.13</v>
@@ -37822,10 +37843,10 @@
         <v>1.18</v>
       </c>
       <c r="AS191">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT191">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU191">
         <v>1.15</v>
@@ -38207,7 +38228,7 @@
         <v>0.88</v>
       </c>
       <c r="AT193">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU193">
         <v>0.96</v>
@@ -38308,7 +38329,7 @@
         <v>92</v>
       </c>
       <c r="P194" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38586,7 +38607,7 @@
         <v>1.1</v>
       </c>
       <c r="AS195">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT195">
         <v>0.9399999999999999</v>
@@ -38690,7 +38711,7 @@
         <v>194</v>
       </c>
       <c r="P196" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q196">
         <v>11</v>
@@ -38780,7 +38801,7 @@
         <v>1.53</v>
       </c>
       <c r="AT196">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU196">
         <v>1.6</v>
@@ -39162,7 +39183,7 @@
         <v>1.38</v>
       </c>
       <c r="AT198">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU198">
         <v>1.68</v>
@@ -39350,7 +39371,7 @@
         <v>2.1</v>
       </c>
       <c r="AS199">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT199">
         <v>1.81</v>
@@ -39454,7 +39475,7 @@
         <v>196</v>
       </c>
       <c r="P200" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q200">
         <v>7</v>
@@ -39836,7 +39857,7 @@
         <v>198</v>
       </c>
       <c r="P202" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -39923,7 +39944,7 @@
         <v>1.1</v>
       </c>
       <c r="AS202">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT202">
         <v>1.13</v>
@@ -40117,7 +40138,7 @@
         <v>2.25</v>
       </c>
       <c r="AT203">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU203">
         <v>1.52</v>
@@ -40218,7 +40239,7 @@
         <v>199</v>
       </c>
       <c r="P204" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40409,7 +40430,7 @@
         <v>200</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40496,7 +40517,7 @@
         <v>1.45</v>
       </c>
       <c r="AS205">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT205">
         <v>1.13</v>
@@ -40687,7 +40708,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT206">
         <v>0.88</v>
@@ -40878,7 +40899,7 @@
         <v>2.18</v>
       </c>
       <c r="AS207">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT207">
         <v>1.81</v>
@@ -41072,7 +41093,7 @@
         <v>1.38</v>
       </c>
       <c r="AT208">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU208">
         <v>1.59</v>
@@ -41263,7 +41284,7 @@
         <v>1.13</v>
       </c>
       <c r="AT209">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU209">
         <v>1.27</v>
@@ -41364,7 +41385,7 @@
         <v>83</v>
       </c>
       <c r="P210" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41454,7 +41475,7 @@
         <v>0.88</v>
       </c>
       <c r="AT210">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU210">
         <v>1.02</v>
@@ -41555,7 +41576,7 @@
         <v>83</v>
       </c>
       <c r="P211" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41645,7 +41666,7 @@
         <v>1.13</v>
       </c>
       <c r="AT211">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU211">
         <v>1.4</v>
@@ -42024,7 +42045,7 @@
         <v>1.64</v>
       </c>
       <c r="AS213">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT213">
         <v>1.31</v>
@@ -42319,7 +42340,7 @@
         <v>205</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q215">
         <v>6</v>
@@ -42510,7 +42531,7 @@
         <v>83</v>
       </c>
       <c r="P216" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -42597,10 +42618,10 @@
         <v>2.75</v>
       </c>
       <c r="AS216">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT216">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU216">
         <v>1.47</v>
@@ -42982,7 +43003,7 @@
         <v>1.44</v>
       </c>
       <c r="AT218">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU218">
         <v>1.12</v>
@@ -43361,7 +43382,7 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT220">
         <v>0.75</v>
@@ -43552,7 +43573,7 @@
         <v>2.25</v>
       </c>
       <c r="AS221">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT221">
         <v>1.81</v>
@@ -43656,7 +43677,7 @@
         <v>210</v>
       </c>
       <c r="P222" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43746,7 +43767,7 @@
         <v>1.53</v>
       </c>
       <c r="AT222">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU222">
         <v>1.67</v>
@@ -43934,7 +43955,7 @@
         <v>1.33</v>
       </c>
       <c r="AS223">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT223">
         <v>1.13</v>
@@ -44128,7 +44149,7 @@
         <v>1.63</v>
       </c>
       <c r="AT224">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU224">
         <v>1.37</v>
@@ -44229,7 +44250,7 @@
         <v>83</v>
       </c>
       <c r="P225" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q225">
         <v>9</v>
@@ -44316,7 +44337,7 @@
         <v>0.92</v>
       </c>
       <c r="AS225">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT225">
         <v>1.13</v>
@@ -44507,7 +44528,7 @@
         <v>0.92</v>
       </c>
       <c r="AS226">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT226">
         <v>0.75</v>
@@ -44802,7 +44823,7 @@
         <v>83</v>
       </c>
       <c r="P228" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q228">
         <v>14</v>
@@ -44889,7 +44910,7 @@
         <v>1.5</v>
       </c>
       <c r="AS228">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT228">
         <v>1.31</v>
@@ -44993,7 +45014,7 @@
         <v>97</v>
       </c>
       <c r="P229" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45080,10 +45101,10 @@
         <v>1.38</v>
       </c>
       <c r="AS229">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT229">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU229">
         <v>1.22</v>
@@ -45184,7 +45205,7 @@
         <v>212</v>
       </c>
       <c r="P230" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q230">
         <v>3</v>
@@ -45274,7 +45295,7 @@
         <v>1.13</v>
       </c>
       <c r="AT230">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU230">
         <v>1.36</v>
@@ -45375,7 +45396,7 @@
         <v>213</v>
       </c>
       <c r="P231" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q231">
         <v>5</v>
@@ -45465,7 +45486,7 @@
         <v>1.38</v>
       </c>
       <c r="AT231">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU231">
         <v>1.58</v>
@@ -45566,7 +45587,7 @@
         <v>214</v>
       </c>
       <c r="P232" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q232">
         <v>6</v>
@@ -45844,7 +45865,7 @@
         <v>1</v>
       </c>
       <c r="AS233">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT233">
         <v>0.9399999999999999</v>
@@ -46038,7 +46059,7 @@
         <v>2.6</v>
       </c>
       <c r="AT234">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU234">
         <v>1.65</v>
@@ -46139,7 +46160,7 @@
         <v>216</v>
       </c>
       <c r="P235" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46229,7 +46250,7 @@
         <v>1.13</v>
       </c>
       <c r="AT235">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU235">
         <v>1.27</v>
@@ -46417,7 +46438,7 @@
         <v>0.85</v>
       </c>
       <c r="AS236">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT236">
         <v>0.75</v>
@@ -46521,7 +46542,7 @@
         <v>133</v>
       </c>
       <c r="P237" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q237">
         <v>6</v>
@@ -46903,7 +46924,7 @@
         <v>83</v>
       </c>
       <c r="P239" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q239">
         <v>6</v>
@@ -47181,7 +47202,7 @@
         <v>2.15</v>
       </c>
       <c r="AS240">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT240">
         <v>1.81</v>
@@ -47285,7 +47306,7 @@
         <v>218</v>
       </c>
       <c r="P241" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47372,7 +47393,7 @@
         <v>1</v>
       </c>
       <c r="AS241">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT241">
         <v>0.9399999999999999</v>
@@ -47566,7 +47587,7 @@
         <v>1.63</v>
       </c>
       <c r="AT242">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU242">
         <v>1.37</v>
@@ -47757,7 +47778,7 @@
         <v>2.25</v>
       </c>
       <c r="AT243">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU243">
         <v>1.52</v>
@@ -48049,7 +48070,7 @@
         <v>83</v>
       </c>
       <c r="P245" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q245">
         <v>6</v>
@@ -48136,10 +48157,10 @@
         <v>1.46</v>
       </c>
       <c r="AS245">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT245">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU245">
         <v>1.51</v>
@@ -48240,7 +48261,7 @@
         <v>108</v>
       </c>
       <c r="P246" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q246">
         <v>4</v>
@@ -48327,10 +48348,10 @@
         <v>1.21</v>
       </c>
       <c r="AS246">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT246">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU246">
         <v>1.54</v>
@@ -48518,10 +48539,10 @@
         <v>1.36</v>
       </c>
       <c r="AS247">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT247">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AU247">
         <v>1.23</v>
@@ -48813,7 +48834,7 @@
         <v>87</v>
       </c>
       <c r="P249" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q249">
         <v>5</v>
@@ -48903,7 +48924,7 @@
         <v>1.13</v>
       </c>
       <c r="AT249">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU249">
         <v>1.37</v>
@@ -49091,7 +49112,7 @@
         <v>1.62</v>
       </c>
       <c r="AS250">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT250">
         <v>1.31</v>
@@ -49285,7 +49306,7 @@
         <v>2.47</v>
       </c>
       <c r="AT251">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU251">
         <v>1.7</v>
@@ -49473,7 +49494,7 @@
         <v>1</v>
       </c>
       <c r="AS252">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT252">
         <v>0.88</v>
@@ -49768,7 +49789,7 @@
         <v>83</v>
       </c>
       <c r="P254" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -49855,10 +49876,10 @@
         <v>2.78</v>
       </c>
       <c r="AS254">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT254">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU254">
         <v>1.32</v>
@@ -49959,7 +49980,7 @@
         <v>208</v>
       </c>
       <c r="P255" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50046,10 +50067,10 @@
         <v>1.57</v>
       </c>
       <c r="AS255">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT255">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU255">
         <v>1.55</v>
@@ -50723,7 +50744,7 @@
         <v>227</v>
       </c>
       <c r="P259" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -50813,7 +50834,7 @@
         <v>1.38</v>
       </c>
       <c r="AT259">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51004,7 +51025,7 @@
         <v>0.88</v>
       </c>
       <c r="AT260">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU260">
         <v>1.08</v>
@@ -51383,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AS262">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT262">
         <v>0.9399999999999999</v>
@@ -51765,7 +51786,7 @@
         <v>1.5</v>
       </c>
       <c r="AS264">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT264">
         <v>1.31</v>
@@ -51869,7 +51890,7 @@
         <v>231</v>
       </c>
       <c r="P265" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q265">
         <v>2</v>
@@ -52060,7 +52081,7 @@
         <v>83</v>
       </c>
       <c r="P266" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q266">
         <v>5</v>
@@ -52147,10 +52168,10 @@
         <v>1.67</v>
       </c>
       <c r="AS266">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT266">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU266">
         <v>1.25</v>
@@ -52338,7 +52359,7 @@
         <v>0.4</v>
       </c>
       <c r="AS267">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AT267">
         <v>0.44</v>
@@ -52529,10 +52550,10 @@
         <v>1.27</v>
       </c>
       <c r="AS268">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT268">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU268">
         <v>1.42</v>
@@ -52720,10 +52741,10 @@
         <v>1.33</v>
       </c>
       <c r="AS269">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT269">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU269">
         <v>1.49</v>
@@ -52824,7 +52845,7 @@
         <v>232</v>
       </c>
       <c r="P270" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q270">
         <v>1</v>
@@ -52911,7 +52932,7 @@
         <v>0.86</v>
       </c>
       <c r="AS270">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT270">
         <v>0.88</v>
@@ -53484,10 +53505,10 @@
         <v>0.53</v>
       </c>
       <c r="AS273">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT273">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AU273">
         <v>1.55</v>
@@ -53588,7 +53609,7 @@
         <v>83</v>
       </c>
       <c r="P274" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53678,7 +53699,7 @@
         <v>0.88</v>
       </c>
       <c r="AT274">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU274">
         <v>1.06</v>
@@ -54161,7 +54182,7 @@
         <v>235</v>
       </c>
       <c r="P277" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q277">
         <v>4</v>
@@ -54442,7 +54463,7 @@
         <v>1.13</v>
       </c>
       <c r="AT278">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU278">
         <v>1.31</v>
@@ -54543,7 +54564,7 @@
         <v>83</v>
       </c>
       <c r="P279" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -54633,7 +54654,7 @@
         <v>1.63</v>
       </c>
       <c r="AT279">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU279">
         <v>1.39</v>
@@ -54734,7 +54755,7 @@
         <v>236</v>
       </c>
       <c r="P280" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q280">
         <v>0</v>
@@ -55012,7 +55033,7 @@
         <v>0.87</v>
       </c>
       <c r="AS281">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT281">
         <v>0.88</v>
@@ -55307,7 +55328,7 @@
         <v>237</v>
       </c>
       <c r="P283" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55585,10 +55606,10 @@
         <v>2.83</v>
       </c>
       <c r="AS284">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AT284">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU284">
         <v>1.41</v>
@@ -55779,7 +55800,7 @@
         <v>2.47</v>
       </c>
       <c r="AT285">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU285">
         <v>1.77</v>
@@ -55831,6 +55852,1534 @@
       </c>
       <c r="BK285">
         <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:63">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>4407809</v>
+      </c>
+      <c r="C286" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" t="s">
+        <v>64</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45115.54166666666</v>
+      </c>
+      <c r="F286">
+        <v>21</v>
+      </c>
+      <c r="G286" t="s">
+        <v>78</v>
+      </c>
+      <c r="H286" t="s">
+        <v>76</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>83</v>
+      </c>
+      <c r="P286" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q286">
+        <v>1</v>
+      </c>
+      <c r="R286">
+        <v>3</v>
+      </c>
+      <c r="S286">
+        <v>4</v>
+      </c>
+      <c r="T286">
+        <v>6.38</v>
+      </c>
+      <c r="U286">
+        <v>2.35</v>
+      </c>
+      <c r="V286">
+        <v>2.07</v>
+      </c>
+      <c r="W286">
+        <v>1.38</v>
+      </c>
+      <c r="X286">
+        <v>3.02</v>
+      </c>
+      <c r="Y286">
+        <v>2.89</v>
+      </c>
+      <c r="Z286">
+        <v>1.41</v>
+      </c>
+      <c r="AA286">
+        <v>6.5</v>
+      </c>
+      <c r="AB286">
+        <v>1.1</v>
+      </c>
+      <c r="AC286">
+        <v>6.5</v>
+      </c>
+      <c r="AD286">
+        <v>4</v>
+      </c>
+      <c r="AE286">
+        <v>1.4</v>
+      </c>
+      <c r="AF286">
+        <v>1.04</v>
+      </c>
+      <c r="AG286">
+        <v>10.75</v>
+      </c>
+      <c r="AH286">
+        <v>1.22</v>
+      </c>
+      <c r="AI286">
+        <v>3.55</v>
+      </c>
+      <c r="AJ286">
+        <v>1.85</v>
+      </c>
+      <c r="AK286">
+        <v>1.95</v>
+      </c>
+      <c r="AL286">
+        <v>2.05</v>
+      </c>
+      <c r="AM286">
+        <v>1.75</v>
+      </c>
+      <c r="AN286">
+        <v>2.6</v>
+      </c>
+      <c r="AO286">
+        <v>1.24</v>
+      </c>
+      <c r="AP286">
+        <v>1.11</v>
+      </c>
+      <c r="AQ286">
+        <v>1.6</v>
+      </c>
+      <c r="AR286">
+        <v>2.69</v>
+      </c>
+      <c r="AS286">
+        <v>1.5</v>
+      </c>
+      <c r="AT286">
+        <v>2.71</v>
+      </c>
+      <c r="AU286">
+        <v>1.51</v>
+      </c>
+      <c r="AV286">
+        <v>1.93</v>
+      </c>
+      <c r="AW286">
+        <v>3.44</v>
+      </c>
+      <c r="AX286">
+        <v>3.68</v>
+      </c>
+      <c r="AY286">
+        <v>9.6</v>
+      </c>
+      <c r="AZ286">
+        <v>1.37</v>
+      </c>
+      <c r="BA286">
+        <v>1.28</v>
+      </c>
+      <c r="BB286">
+        <v>1.58</v>
+      </c>
+      <c r="BC286">
+        <v>1.97</v>
+      </c>
+      <c r="BD286">
+        <v>2.47</v>
+      </c>
+      <c r="BE286">
+        <v>3.34</v>
+      </c>
+      <c r="BF286">
+        <v>2</v>
+      </c>
+      <c r="BG286">
+        <v>3</v>
+      </c>
+      <c r="BH286">
+        <v>6</v>
+      </c>
+      <c r="BI286">
+        <v>3</v>
+      </c>
+      <c r="BJ286">
+        <v>8</v>
+      </c>
+      <c r="BK286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:63">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6686582</v>
+      </c>
+      <c r="C287" t="s">
+        <v>63</v>
+      </c>
+      <c r="D287" t="s">
+        <v>64</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45115.625</v>
+      </c>
+      <c r="F287">
+        <v>33</v>
+      </c>
+      <c r="G287" t="s">
+        <v>79</v>
+      </c>
+      <c r="H287" t="s">
+        <v>70</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287">
+        <v>4</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287" t="s">
+        <v>239</v>
+      </c>
+      <c r="P287" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q287">
+        <v>7</v>
+      </c>
+      <c r="R287">
+        <v>3</v>
+      </c>
+      <c r="S287">
+        <v>10</v>
+      </c>
+      <c r="T287">
+        <v>3.6</v>
+      </c>
+      <c r="U287">
+        <v>1.9</v>
+      </c>
+      <c r="V287">
+        <v>3</v>
+      </c>
+      <c r="W287">
+        <v>1.5</v>
+      </c>
+      <c r="X287">
+        <v>2.5</v>
+      </c>
+      <c r="Y287">
+        <v>3.5</v>
+      </c>
+      <c r="Z287">
+        <v>1.25</v>
+      </c>
+      <c r="AA287">
+        <v>9.5</v>
+      </c>
+      <c r="AB287">
+        <v>1.04</v>
+      </c>
+      <c r="AC287">
+        <v>2.55</v>
+      </c>
+      <c r="AD287">
+        <v>2.83</v>
+      </c>
+      <c r="AE287">
+        <v>2.66</v>
+      </c>
+      <c r="AF287">
+        <v>1.07</v>
+      </c>
+      <c r="AG287">
+        <v>7</v>
+      </c>
+      <c r="AH287">
+        <v>1.5</v>
+      </c>
+      <c r="AI287">
+        <v>2.38</v>
+      </c>
+      <c r="AJ287">
+        <v>2.29</v>
+      </c>
+      <c r="AK287">
+        <v>1.47</v>
+      </c>
+      <c r="AL287">
+        <v>1.95</v>
+      </c>
+      <c r="AM287">
+        <v>1.75</v>
+      </c>
+      <c r="AN287">
+        <v>1.4</v>
+      </c>
+      <c r="AO287">
+        <v>1.33</v>
+      </c>
+      <c r="AP287">
+        <v>1.4</v>
+      </c>
+      <c r="AQ287">
+        <v>1.81</v>
+      </c>
+      <c r="AR287">
+        <v>1.33</v>
+      </c>
+      <c r="AS287">
+        <v>1.71</v>
+      </c>
+      <c r="AT287">
+        <v>1.44</v>
+      </c>
+      <c r="AU287">
+        <v>1.37</v>
+      </c>
+      <c r="AV287">
+        <v>1.63</v>
+      </c>
+      <c r="AW287">
+        <v>3</v>
+      </c>
+      <c r="AX287">
+        <v>1.92</v>
+      </c>
+      <c r="AY287">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ287">
+        <v>2.13</v>
+      </c>
+      <c r="BA287">
+        <v>1.25</v>
+      </c>
+      <c r="BB287">
+        <v>1.55</v>
+      </c>
+      <c r="BC287">
+        <v>1.88</v>
+      </c>
+      <c r="BD287">
+        <v>2.32</v>
+      </c>
+      <c r="BE287">
+        <v>3.18</v>
+      </c>
+      <c r="BF287">
+        <v>3</v>
+      </c>
+      <c r="BG287">
+        <v>7</v>
+      </c>
+      <c r="BH287">
+        <v>7</v>
+      </c>
+      <c r="BI287">
+        <v>3</v>
+      </c>
+      <c r="BJ287">
+        <v>10</v>
+      </c>
+      <c r="BK287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:63">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6686583</v>
+      </c>
+      <c r="C288" t="s">
+        <v>63</v>
+      </c>
+      <c r="D288" t="s">
+        <v>64</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45116.60416666666</v>
+      </c>
+      <c r="F288">
+        <v>33</v>
+      </c>
+      <c r="G288" t="s">
+        <v>82</v>
+      </c>
+      <c r="H288" t="s">
+        <v>67</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>3</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>83</v>
+      </c>
+      <c r="P288" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q288">
+        <v>6</v>
+      </c>
+      <c r="R288">
+        <v>1</v>
+      </c>
+      <c r="S288">
+        <v>7</v>
+      </c>
+      <c r="T288">
+        <v>3.78</v>
+      </c>
+      <c r="U288">
+        <v>1.74</v>
+      </c>
+      <c r="V288">
+        <v>3.78</v>
+      </c>
+      <c r="W288">
+        <v>1.67</v>
+      </c>
+      <c r="X288">
+        <v>2.13</v>
+      </c>
+      <c r="Y288">
+        <v>3.72</v>
+      </c>
+      <c r="Z288">
+        <v>1.25</v>
+      </c>
+      <c r="AA288">
+        <v>10.5</v>
+      </c>
+      <c r="AB288">
+        <v>1.03</v>
+      </c>
+      <c r="AC288">
+        <v>3.1</v>
+      </c>
+      <c r="AD288">
+        <v>2.8</v>
+      </c>
+      <c r="AE288">
+        <v>2.47</v>
+      </c>
+      <c r="AF288">
+        <v>1.11</v>
+      </c>
+      <c r="AG288">
+        <v>5.25</v>
+      </c>
+      <c r="AH288">
+        <v>1.5</v>
+      </c>
+      <c r="AI288">
+        <v>2.3</v>
+      </c>
+      <c r="AJ288">
+        <v>2.65</v>
+      </c>
+      <c r="AK288">
+        <v>1.45</v>
+      </c>
+      <c r="AL288">
+        <v>2.09</v>
+      </c>
+      <c r="AM288">
+        <v>1.66</v>
+      </c>
+      <c r="AN288">
+        <v>1.4</v>
+      </c>
+      <c r="AO288">
+        <v>1.46</v>
+      </c>
+      <c r="AP288">
+        <v>1.4</v>
+      </c>
+      <c r="AQ288">
+        <v>1.63</v>
+      </c>
+      <c r="AR288">
+        <v>1.31</v>
+      </c>
+      <c r="AS288">
+        <v>1.53</v>
+      </c>
+      <c r="AT288">
+        <v>1.41</v>
+      </c>
+      <c r="AU288">
+        <v>1.23</v>
+      </c>
+      <c r="AV288">
+        <v>1.35</v>
+      </c>
+      <c r="AW288">
+        <v>2.58</v>
+      </c>
+      <c r="AX288">
+        <v>2.02</v>
+      </c>
+      <c r="AY288">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ288">
+        <v>2.05</v>
+      </c>
+      <c r="BA288">
+        <v>1.39</v>
+      </c>
+      <c r="BB288">
+        <v>1.72</v>
+      </c>
+      <c r="BC288">
+        <v>2.19</v>
+      </c>
+      <c r="BD288">
+        <v>2.98</v>
+      </c>
+      <c r="BE288">
+        <v>4.2</v>
+      </c>
+      <c r="BF288">
+        <v>3</v>
+      </c>
+      <c r="BG288">
+        <v>3</v>
+      </c>
+      <c r="BH288">
+        <v>4</v>
+      </c>
+      <c r="BI288">
+        <v>3</v>
+      </c>
+      <c r="BJ288">
+        <v>7</v>
+      </c>
+      <c r="BK288">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:63">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6686584</v>
+      </c>
+      <c r="C289" t="s">
+        <v>63</v>
+      </c>
+      <c r="D289" t="s">
+        <v>64</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45117.60416666666</v>
+      </c>
+      <c r="F289">
+        <v>33</v>
+      </c>
+      <c r="G289" t="s">
+        <v>77</v>
+      </c>
+      <c r="H289" t="s">
+        <v>66</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289" t="s">
+        <v>83</v>
+      </c>
+      <c r="P289" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q289">
+        <v>6</v>
+      </c>
+      <c r="R289">
+        <v>1</v>
+      </c>
+      <c r="S289">
+        <v>7</v>
+      </c>
+      <c r="T289">
+        <v>3.63</v>
+      </c>
+      <c r="U289">
+        <v>2.02</v>
+      </c>
+      <c r="V289">
+        <v>3.41</v>
+      </c>
+      <c r="W289">
+        <v>1.51</v>
+      </c>
+      <c r="X289">
+        <v>2.53</v>
+      </c>
+      <c r="Y289">
+        <v>3.44</v>
+      </c>
+      <c r="Z289">
+        <v>1.29</v>
+      </c>
+      <c r="AA289">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB289">
+        <v>1.04</v>
+      </c>
+      <c r="AC289">
+        <v>4.97</v>
+      </c>
+      <c r="AD289">
+        <v>5.42</v>
+      </c>
+      <c r="AE289">
+        <v>1.38</v>
+      </c>
+      <c r="AF289">
+        <v>1.1</v>
+      </c>
+      <c r="AG289">
+        <v>5.7</v>
+      </c>
+      <c r="AH289">
+        <v>1.4</v>
+      </c>
+      <c r="AI289">
+        <v>2.7</v>
+      </c>
+      <c r="AJ289">
+        <v>2.35</v>
+      </c>
+      <c r="AK289">
+        <v>1.5</v>
+      </c>
+      <c r="AL289">
+        <v>1.96</v>
+      </c>
+      <c r="AM289">
+        <v>1.8</v>
+      </c>
+      <c r="AN289">
+        <v>1.46</v>
+      </c>
+      <c r="AO289">
+        <v>1.41</v>
+      </c>
+      <c r="AP289">
+        <v>1.4</v>
+      </c>
+      <c r="AQ289">
+        <v>1.25</v>
+      </c>
+      <c r="AR289">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS289">
+        <v>1.24</v>
+      </c>
+      <c r="AT289">
+        <v>0.59</v>
+      </c>
+      <c r="AU289">
+        <v>1.53</v>
+      </c>
+      <c r="AV289">
+        <v>1.23</v>
+      </c>
+      <c r="AW289">
+        <v>2.76</v>
+      </c>
+      <c r="AX289">
+        <v>1.86</v>
+      </c>
+      <c r="AY289">
+        <v>8.4</v>
+      </c>
+      <c r="AZ289">
+        <v>2.23</v>
+      </c>
+      <c r="BA289">
+        <v>1.34</v>
+      </c>
+      <c r="BB289">
+        <v>1.68</v>
+      </c>
+      <c r="BC289">
+        <v>2.12</v>
+      </c>
+      <c r="BD289">
+        <v>2.75</v>
+      </c>
+      <c r="BE289">
+        <v>3.88</v>
+      </c>
+      <c r="BF289">
+        <v>4</v>
+      </c>
+      <c r="BG289">
+        <v>2</v>
+      </c>
+      <c r="BH289">
+        <v>15</v>
+      </c>
+      <c r="BI289">
+        <v>5</v>
+      </c>
+      <c r="BJ289">
+        <v>19</v>
+      </c>
+      <c r="BK289">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6686585</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" t="s">
+        <v>64</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45117.60416666666</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>73</v>
+      </c>
+      <c r="H290" t="s">
+        <v>68</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
+        <v>83</v>
+      </c>
+      <c r="P290" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q290">
+        <v>5</v>
+      </c>
+      <c r="R290">
+        <v>1</v>
+      </c>
+      <c r="S290">
+        <v>6</v>
+      </c>
+      <c r="T290">
+        <v>3.57</v>
+      </c>
+      <c r="U290">
+        <v>2</v>
+      </c>
+      <c r="V290">
+        <v>3.55</v>
+      </c>
+      <c r="W290">
+        <v>1.53</v>
+      </c>
+      <c r="X290">
+        <v>2.47</v>
+      </c>
+      <c r="Y290">
+        <v>3.4</v>
+      </c>
+      <c r="Z290">
+        <v>1.3</v>
+      </c>
+      <c r="AA290">
+        <v>8.5</v>
+      </c>
+      <c r="AB290">
+        <v>1.05</v>
+      </c>
+      <c r="AC290">
+        <v>4.36</v>
+      </c>
+      <c r="AD290">
+        <v>5.24</v>
+      </c>
+      <c r="AE290">
+        <v>1.45</v>
+      </c>
+      <c r="AF290">
+        <v>1.05</v>
+      </c>
+      <c r="AG290">
+        <v>6.75</v>
+      </c>
+      <c r="AH290">
+        <v>1.4</v>
+      </c>
+      <c r="AI290">
+        <v>2.5</v>
+      </c>
+      <c r="AJ290">
+        <v>2.35</v>
+      </c>
+      <c r="AK290">
+        <v>1.5</v>
+      </c>
+      <c r="AL290">
+        <v>2.16</v>
+      </c>
+      <c r="AM290">
+        <v>1.66</v>
+      </c>
+      <c r="AN290">
+        <v>1.39</v>
+      </c>
+      <c r="AO290">
+        <v>1.4</v>
+      </c>
+      <c r="AP290">
+        <v>1.43</v>
+      </c>
+      <c r="AQ290">
+        <v>0.88</v>
+      </c>
+      <c r="AR290">
+        <v>1</v>
+      </c>
+      <c r="AS290">
+        <v>0.82</v>
+      </c>
+      <c r="AT290">
+        <v>1.12</v>
+      </c>
+      <c r="AU290">
+        <v>1.27</v>
+      </c>
+      <c r="AV290">
+        <v>1.31</v>
+      </c>
+      <c r="AW290">
+        <v>2.58</v>
+      </c>
+      <c r="AX290">
+        <v>1.85</v>
+      </c>
+      <c r="AY290">
+        <v>7.4</v>
+      </c>
+      <c r="AZ290">
+        <v>2.42</v>
+      </c>
+      <c r="BA290">
+        <v>1.29</v>
+      </c>
+      <c r="BB290">
+        <v>1.58</v>
+      </c>
+      <c r="BC290">
+        <v>1.93</v>
+      </c>
+      <c r="BD290">
+        <v>2.39</v>
+      </c>
+      <c r="BE290">
+        <v>3.3</v>
+      </c>
+      <c r="BF290">
+        <v>3</v>
+      </c>
+      <c r="BG290">
+        <v>4</v>
+      </c>
+      <c r="BH290">
+        <v>8</v>
+      </c>
+      <c r="BI290">
+        <v>4</v>
+      </c>
+      <c r="BJ290">
+        <v>11</v>
+      </c>
+      <c r="BK290">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6686586</v>
+      </c>
+      <c r="C291" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" t="s">
+        <v>64</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45117.60416666666</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>81</v>
+      </c>
+      <c r="H291" t="s">
+        <v>65</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
+        <v>160</v>
+      </c>
+      <c r="P291" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q291">
+        <v>1</v>
+      </c>
+      <c r="R291">
+        <v>8</v>
+      </c>
+      <c r="S291">
+        <v>9</v>
+      </c>
+      <c r="T291">
+        <v>2.82</v>
+      </c>
+      <c r="U291">
+        <v>2.01</v>
+      </c>
+      <c r="V291">
+        <v>4.76</v>
+      </c>
+      <c r="W291">
+        <v>1.6</v>
+      </c>
+      <c r="X291">
+        <v>2.25</v>
+      </c>
+      <c r="Y291">
+        <v>3.54</v>
+      </c>
+      <c r="Z291">
+        <v>1.27</v>
+      </c>
+      <c r="AA291">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB291">
+        <v>1.03</v>
+      </c>
+      <c r="AC291">
+        <v>2.77</v>
+      </c>
+      <c r="AD291">
+        <v>4.74</v>
+      </c>
+      <c r="AE291">
+        <v>1.86</v>
+      </c>
+      <c r="AF291">
+        <v>1.08</v>
+      </c>
+      <c r="AG291">
+        <v>5.9</v>
+      </c>
+      <c r="AH291">
+        <v>1.44</v>
+      </c>
+      <c r="AI291">
+        <v>2.4</v>
+      </c>
+      <c r="AJ291">
+        <v>2.55</v>
+      </c>
+      <c r="AK291">
+        <v>1.45</v>
+      </c>
+      <c r="AL291">
+        <v>2.11</v>
+      </c>
+      <c r="AM291">
+        <v>1.69</v>
+      </c>
+      <c r="AN291">
+        <v>1.22</v>
+      </c>
+      <c r="AO291">
+        <v>1.39</v>
+      </c>
+      <c r="AP291">
+        <v>1.74</v>
+      </c>
+      <c r="AQ291">
+        <v>1.25</v>
+      </c>
+      <c r="AR291">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS291">
+        <v>1.35</v>
+      </c>
+      <c r="AT291">
+        <v>0.88</v>
+      </c>
+      <c r="AU291">
+        <v>1.25</v>
+      </c>
+      <c r="AV291">
+        <v>1.19</v>
+      </c>
+      <c r="AW291">
+        <v>2.44</v>
+      </c>
+      <c r="AX291">
+        <v>1.65</v>
+      </c>
+      <c r="AY291">
+        <v>8.5</v>
+      </c>
+      <c r="AZ291">
+        <v>2.62</v>
+      </c>
+      <c r="BA291">
+        <v>1.38</v>
+      </c>
+      <c r="BB291">
+        <v>1.75</v>
+      </c>
+      <c r="BC291">
+        <v>2.25</v>
+      </c>
+      <c r="BD291">
+        <v>2.93</v>
+      </c>
+      <c r="BE291">
+        <v>4.1</v>
+      </c>
+      <c r="BF291">
+        <v>4</v>
+      </c>
+      <c r="BG291">
+        <v>4</v>
+      </c>
+      <c r="BH291">
+        <v>2</v>
+      </c>
+      <c r="BI291">
+        <v>9</v>
+      </c>
+      <c r="BJ291">
+        <v>6</v>
+      </c>
+      <c r="BK291">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:63">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6686587</v>
+      </c>
+      <c r="C292" t="s">
+        <v>63</v>
+      </c>
+      <c r="D292" t="s">
+        <v>64</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45117.60416666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>75</v>
+      </c>
+      <c r="H292" t="s">
+        <v>74</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>240</v>
+      </c>
+      <c r="P292" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q292">
+        <v>2</v>
+      </c>
+      <c r="R292">
+        <v>6</v>
+      </c>
+      <c r="S292">
+        <v>8</v>
+      </c>
+      <c r="T292">
+        <v>4.2</v>
+      </c>
+      <c r="U292">
+        <v>2.06</v>
+      </c>
+      <c r="V292">
+        <v>2.95</v>
+      </c>
+      <c r="W292">
+        <v>1.48</v>
+      </c>
+      <c r="X292">
+        <v>2.61</v>
+      </c>
+      <c r="Y292">
+        <v>3.38</v>
+      </c>
+      <c r="Z292">
+        <v>1.31</v>
+      </c>
+      <c r="AA292">
+        <v>8.6</v>
+      </c>
+      <c r="AB292">
+        <v>1.05</v>
+      </c>
+      <c r="AC292">
+        <v>5.77</v>
+      </c>
+      <c r="AD292">
+        <v>6.04</v>
+      </c>
+      <c r="AE292">
+        <v>1.29</v>
+      </c>
+      <c r="AF292">
+        <v>1.06</v>
+      </c>
+      <c r="AG292">
+        <v>6.8</v>
+      </c>
+      <c r="AH292">
+        <v>1.37</v>
+      </c>
+      <c r="AI292">
+        <v>2.75</v>
+      </c>
+      <c r="AJ292">
+        <v>2.25</v>
+      </c>
+      <c r="AK292">
+        <v>1.53</v>
+      </c>
+      <c r="AL292">
+        <v>1.92</v>
+      </c>
+      <c r="AM292">
+        <v>1.84</v>
+      </c>
+      <c r="AN292">
+        <v>1.67</v>
+      </c>
+      <c r="AO292">
+        <v>1.36</v>
+      </c>
+      <c r="AP292">
+        <v>1.28</v>
+      </c>
+      <c r="AQ292">
+        <v>1.25</v>
+      </c>
+      <c r="AR292">
+        <v>1.75</v>
+      </c>
+      <c r="AS292">
+        <v>1.35</v>
+      </c>
+      <c r="AT292">
+        <v>1.65</v>
+      </c>
+      <c r="AU292">
+        <v>1.53</v>
+      </c>
+      <c r="AV292">
+        <v>1.48</v>
+      </c>
+      <c r="AW292">
+        <v>3.01</v>
+      </c>
+      <c r="AX292">
+        <v>2.13</v>
+      </c>
+      <c r="AY292">
+        <v>8.5</v>
+      </c>
+      <c r="AZ292">
+        <v>1.93</v>
+      </c>
+      <c r="BA292">
+        <v>1.28</v>
+      </c>
+      <c r="BB292">
+        <v>1.59</v>
+      </c>
+      <c r="BC292">
+        <v>1.95</v>
+      </c>
+      <c r="BD292">
+        <v>2.42</v>
+      </c>
+      <c r="BE292">
+        <v>3.34</v>
+      </c>
+      <c r="BF292">
+        <v>5</v>
+      </c>
+      <c r="BG292">
+        <v>5</v>
+      </c>
+      <c r="BH292">
+        <v>5</v>
+      </c>
+      <c r="BI292">
+        <v>3</v>
+      </c>
+      <c r="BJ292">
+        <v>10</v>
+      </c>
+      <c r="BK292">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:63">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6686588</v>
+      </c>
+      <c r="C293" t="s">
+        <v>63</v>
+      </c>
+      <c r="D293" t="s">
+        <v>64</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45118.60416666666</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>80</v>
+      </c>
+      <c r="H293" t="s">
+        <v>69</v>
+      </c>
+      <c r="I293">
+        <v>2</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+      <c r="K293">
+        <v>3</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>3</v>
+      </c>
+      <c r="O293" t="s">
+        <v>241</v>
+      </c>
+      <c r="P293" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q293">
+        <v>4</v>
+      </c>
+      <c r="R293">
+        <v>4</v>
+      </c>
+      <c r="S293">
+        <v>8</v>
+      </c>
+      <c r="T293">
+        <v>2.92</v>
+      </c>
+      <c r="U293">
+        <v>2</v>
+      </c>
+      <c r="V293">
+        <v>4.01</v>
+      </c>
+      <c r="W293">
+        <v>1.5</v>
+      </c>
+      <c r="X293">
+        <v>2.48</v>
+      </c>
+      <c r="Y293">
+        <v>3.2</v>
+      </c>
+      <c r="Z293">
+        <v>1.33</v>
+      </c>
+      <c r="AA293">
+        <v>7.9</v>
+      </c>
+      <c r="AB293">
+        <v>1.06</v>
+      </c>
+      <c r="AC293">
+        <v>2.46</v>
+      </c>
+      <c r="AD293">
+        <v>2.88</v>
+      </c>
+      <c r="AE293">
+        <v>3.18</v>
+      </c>
+      <c r="AF293">
+        <v>1.1</v>
+      </c>
+      <c r="AG293">
+        <v>6</v>
+      </c>
+      <c r="AH293">
+        <v>1.45</v>
+      </c>
+      <c r="AI293">
+        <v>2.65</v>
+      </c>
+      <c r="AJ293">
+        <v>2.33</v>
+      </c>
+      <c r="AK293">
+        <v>1.53</v>
+      </c>
+      <c r="AL293">
+        <v>2.08</v>
+      </c>
+      <c r="AM293">
+        <v>1.71</v>
+      </c>
+      <c r="AN293">
+        <v>1.3</v>
+      </c>
+      <c r="AO293">
+        <v>1.38</v>
+      </c>
+      <c r="AP293">
+        <v>1.58</v>
+      </c>
+      <c r="AQ293">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR293">
+        <v>1.19</v>
+      </c>
+      <c r="AS293">
+        <v>1.06</v>
+      </c>
+      <c r="AT293">
+        <v>1.12</v>
+      </c>
+      <c r="AU293">
+        <v>1.39</v>
+      </c>
+      <c r="AV293">
+        <v>1.1</v>
+      </c>
+      <c r="AW293">
+        <v>2.49</v>
+      </c>
+      <c r="AX293">
+        <v>1.76</v>
+      </c>
+      <c r="AY293">
+        <v>8.5</v>
+      </c>
+      <c r="AZ293">
+        <v>2.38</v>
+      </c>
+      <c r="BA293">
+        <v>1.34</v>
+      </c>
+      <c r="BB293">
+        <v>1.68</v>
+      </c>
+      <c r="BC293">
+        <v>2.14</v>
+      </c>
+      <c r="BD293">
+        <v>2.78</v>
+      </c>
+      <c r="BE293">
+        <v>3.9</v>
+      </c>
+      <c r="BF293">
+        <v>7</v>
+      </c>
+      <c r="BG293">
+        <v>4</v>
+      </c>
+      <c r="BH293">
+        <v>2</v>
+      </c>
+      <c r="BI293">
+        <v>5</v>
+      </c>
+      <c r="BJ293">
+        <v>9</v>
+      </c>
+      <c r="BK293">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
